--- a/model_material/0_Viola_data/Viola_all_data.xlsx
+++ b/model_material/0_Viola_data/Viola_all_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_material\Viola_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_material\0_Viola_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="969" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="969"/>
   </bookViews>
   <sheets>
     <sheet name="Building_info_Viola" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="532">
   <si>
     <t>mfh01</t>
   </si>
@@ -534,15 +534,6 @@
   </si>
   <si>
     <t>MFH02</t>
-  </si>
-  <si>
-    <t>Given</t>
-  </si>
-  <si>
-    <t>Estimated NN</t>
-  </si>
-  <si>
-    <t>2010-2019</t>
   </si>
   <si>
     <t xml:space="preserve">Preparatory work </t>
@@ -2537,21 +2528,21 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
-    <col min="3" max="13" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="2" customWidth="1"/>
+    <col min="3" max="13" width="18.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2590,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +2622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2672,7 +2663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -2705,7 +2696,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2738,7 +2729,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2771,7 +2762,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
@@ -2804,7 +2795,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -2845,7 +2836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
@@ -2886,7 +2877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -2927,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -2968,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>46</v>
       </c>
@@ -3009,7 +3000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>49</v>
       </c>
@@ -3050,7 +3041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
@@ -3067,7 +3058,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -3108,7 +3099,7 @@
         <v>3992.28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
@@ -3149,7 +3140,7 @@
         <v>1022.99</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -3190,7 +3181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>57</v>
       </c>
@@ -3207,7 +3198,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
@@ -3248,7 +3239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>63</v>
       </c>
@@ -3287,7 +3278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>64</v>
       </c>
@@ -3316,7 +3307,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3357,7 +3348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>72</v>
       </c>
@@ -3398,7 +3389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>76</v>
       </c>
@@ -3415,7 +3406,7 @@
       <c r="L24" s="28"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>77</v>
       </c>
@@ -3456,7 +3447,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>80</v>
       </c>
@@ -3497,7 +3488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>81</v>
       </c>
@@ -3525,7 +3516,7 @@
       <c r="L27" s="17"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>82</v>
       </c>
@@ -3566,7 +3557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>81</v>
       </c>
@@ -3585,7 +3576,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>84</v>
       </c>
@@ -3604,7 +3595,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>85</v>
       </c>
@@ -3621,7 +3612,7 @@
       <c r="L31" s="28"/>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
         <v>86</v>
       </c>
@@ -3662,7 +3653,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
         <v>93</v>
       </c>
@@ -3695,7 +3686,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
         <v>94</v>
       </c>
@@ -3736,7 +3727,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>95</v>
       </c>
@@ -3755,7 +3746,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
         <v>96</v>
       </c>
@@ -3772,7 +3763,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
         <v>97</v>
       </c>
@@ -3791,7 +3782,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>98</v>
       </c>
@@ -3832,7 +3823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>102</v>
       </c>
@@ -3869,7 +3860,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -3910,7 +3901,7 @@
         <v>252.3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>104</v>
       </c>
@@ -3936,7 +3927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3951,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -3986,7 +3977,7 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
         <v>110</v>
       </c>
@@ -4001,7 +3992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>112</v>
       </c>
@@ -4016,7 +4007,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -4031,7 +4022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>114</v>
       </c>
@@ -4048,7 +4039,7 @@
       <c r="L47" s="28"/>
       <c r="M47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>115</v>
       </c>
@@ -4089,7 +4080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>118</v>
       </c>
@@ -4130,7 +4121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>119</v>
       </c>
@@ -4147,7 +4138,7 @@
       <c r="L50" s="28"/>
       <c r="M50" s="29"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>120</v>
       </c>
@@ -4188,7 +4179,7 @@
         <v>591.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -4229,7 +4220,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>122</v>
       </c>
@@ -4270,7 +4261,7 @@
         <v>1354.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>123</v>
       </c>
@@ -4311,7 +4302,7 @@
         <v>734.5</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>124</v>
       </c>
@@ -4350,7 +4341,7 @@
       </c>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>125</v>
       </c>
@@ -4391,7 +4382,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>126</v>
       </c>
@@ -4430,7 +4421,7 @@
       </c>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
@@ -4469,7 +4460,7 @@
       </c>
       <c r="M58" s="27"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>137</v>
       </c>
@@ -4508,7 +4499,7 @@
       </c>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>138</v>
       </c>
@@ -4547,7 +4538,7 @@
       </c>
       <c r="M60" s="27"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>139</v>
       </c>
@@ -4586,7 +4577,7 @@
       </c>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>140</v>
       </c>
@@ -4625,7 +4616,7 @@
       </c>
       <c r="M62" s="27"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>141</v>
       </c>
@@ -4666,7 +4657,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>153</v>
       </c>
@@ -4707,7 +4698,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>154</v>
       </c>
@@ -4748,7 +4739,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>155</v>
       </c>
@@ -4789,7 +4780,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>157</v>
       </c>
@@ -4830,7 +4821,7 @@
         <v>1354.97</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="44" t="s">
         <v>159</v>
       </c>
@@ -4871,60 +4862,22 @@
         <v>173.02</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="2">
-        <v>190.2</v>
-      </c>
-      <c r="D75" s="2">
-        <v>198.05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="2">
-        <v>606</v>
-      </c>
-      <c r="D76" s="2">
-        <v>569.08000000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="2">
-        <v>350.4</v>
-      </c>
-      <c r="D77" s="2">
-        <v>372</v>
-      </c>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="D74" s="47"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J22:J23">
@@ -4947,23 +4900,23 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="48.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="48" customWidth="1"/>
     <col min="3" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="25" style="48" customWidth="1"/>
-    <col min="7" max="9" width="25.5703125" style="2" customWidth="1"/>
-    <col min="10" max="13" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="25.54296875" style="2" customWidth="1"/>
+    <col min="10" max="13" width="21.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
@@ -5001,30 +4954,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K3" s="2">
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2">
         <v>462.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2">
         <v>640</v>
@@ -5045,9 +4998,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
@@ -5062,9 +5015,9 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2">
         <v>160</v>
@@ -5082,9 +5035,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2">
         <v>178</v>
@@ -5108,9 +5061,9 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2">
         <v>42</v>
@@ -5128,9 +5081,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -5148,156 +5101,156 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:13" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="E15" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="F15" s="93" t="s">
+        <v>531</v>
+      </c>
+      <c r="G15" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="H15" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="I15" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="93" t="s">
-        <v>534</v>
-      </c>
-      <c r="G15" s="93" t="s">
+      <c r="J15" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="K15" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="93" t="s">
+      <c r="L15" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="J15" s="93" t="s">
+      <c r="M15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K15" s="93" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L15" s="93" t="s">
+      <c r="B16" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="C16" s="93" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="D16" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="E16" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="F16" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="G16" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="H16" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="I16" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="L16" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="B17" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="K16" s="93" t="s">
+      <c r="C17" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="L16" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="G17" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="J17" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="B18" s="99"/>
       <c r="C18" s="99"/>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
       <c r="F18" s="99" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
@@ -5306,9 +5259,9 @@
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" s="99">
         <v>129.6</v>
@@ -5347,160 +5300,160 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="E20" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="F20" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="G20" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="H20" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="I20" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="G20" s="93" t="s">
+      <c r="J20" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="93" t="s">
+      <c r="K20" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="I20" s="93" t="s">
+      <c r="L20" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="J20" s="93" t="s">
+      <c r="M20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K20" s="100" t="s">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="93" t="s">
+      <c r="B21" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="B22" s="99" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="I21" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="J21" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="K21" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E22" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="H22" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="93" t="s">
+      <c r="I22" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="93" t="s">
+      <c r="J22" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="K22" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="I22" s="93" t="s">
+      <c r="L22" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="J22" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" s="93" t="s">
-        <v>223</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="B23" s="99"/>
       <c r="C23" s="99"/>
       <c r="D23" s="93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E23" s="93" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="93" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I23" s="93"/>
       <c r="J23" s="93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K23" s="93" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L23" s="93"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B24" s="26">
         <v>73.099999999999994</v>
@@ -5539,132 +5492,132 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="L25" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="M25" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="K25" s="26" t="s">
+      <c r="B26" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="C26" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="E26" s="26" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="H26" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="L26" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="26" t="s">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="K26" s="26" t="s">
+      <c r="B27" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="C27" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="D27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="M27" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="B28" s="26">
         <v>14000</v>
@@ -5696,9 +5649,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B29" s="26">
         <v>14.4</v>
@@ -5734,19 +5687,19 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G54"/>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G55"/>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G56"/>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G57"/>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G58"/>
     </row>
   </sheetData>
@@ -5762,119 +5715,119 @@
   </sheetPr>
   <dimension ref="A1:AB379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A379" sqref="A379"/>
-      <selection pane="topRight" activeCell="D205" sqref="D205"/>
+      <selection pane="topRight" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="V1" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="Y1" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="AA1" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="AB1" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="51" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB1" s="52" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B2" s="91">
         <v>854.14</v>
@@ -5958,9 +5911,9 @@
         <v>1073.03</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -5990,9 +5943,9 @@
       <c r="AA3" s="58"/>
       <c r="AB3" s="59"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -6032,9 +5985,9 @@
       <c r="AA4" s="30"/>
       <c r="AB4" s="61"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -6076,9 +6029,9 @@
       <c r="AA5" s="30"/>
       <c r="AB5" s="61"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="95" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -6110,9 +6063,9 @@
       <c r="AA6" s="30"/>
       <c r="AB6" s="61"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="95" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -6148,9 +6101,9 @@
       <c r="AA7" s="30"/>
       <c r="AB7" s="61"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8" s="30">
         <v>0.03</v>
@@ -6210,9 +6163,9 @@
       <c r="AA8" s="30"/>
       <c r="AB8" s="61"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="95" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -6244,9 +6197,9 @@
       <c r="AA9" s="30"/>
       <c r="AB9" s="61"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="95" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -6286,9 +6239,9 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="61"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B11" s="30">
         <v>0.3</v>
@@ -6326,9 +6279,9 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="61"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -6390,9 +6343,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="96" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -6417,9 +6370,9 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="61"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="96" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -6457,9 +6410,9 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="61"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="95" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -6521,9 +6474,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -6555,9 +6508,9 @@
       <c r="AA16" s="30"/>
       <c r="AB16" s="61"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="96" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -6587,9 +6540,9 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="61"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" s="95" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -6625,9 +6578,9 @@
       <c r="AA18" s="30"/>
       <c r="AB18" s="61"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" s="95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -6681,9 +6634,9 @@
       <c r="AA19" s="30"/>
       <c r="AB19" s="61"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" s="95" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -6731,9 +6684,9 @@
       </c>
       <c r="AB20" s="61"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -6765,9 +6718,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" s="95" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -6799,9 +6752,9 @@
       <c r="AA22" s="30"/>
       <c r="AB22" s="61"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -6833,9 +6786,9 @@
       <c r="AA23" s="30"/>
       <c r="AB23" s="61"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" s="95" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -6871,9 +6824,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -6907,9 +6860,9 @@
       </c>
       <c r="AB25" s="61"/>
     </row>
-    <row r="26" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="97" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B26" s="30">
         <v>0.1</v>
@@ -6945,9 +6898,9 @@
       <c r="AA26" s="30"/>
       <c r="AB26" s="61"/>
     </row>
-    <row r="27" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="97" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -6983,9 +6936,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
@@ -7031,41 +6984,41 @@
       <c r="AA28" s="63"/>
       <c r="AB28" s="64"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
         <v>160</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E30" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="H30" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="G30" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>274</v>
-      </c>
       <c r="I30" s="51" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" s="55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B31" s="54">
         <v>190.95</v>
@@ -7108,9 +7061,9 @@
       <c r="V31" s="54"/>
       <c r="W31" s="56"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B32" s="58">
         <v>0.19700000000000001</v>
@@ -7143,9 +7096,9 @@
       <c r="V32" s="54"/>
       <c r="W32" s="54"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -7161,9 +7114,9 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -7177,9 +7130,9 @@
       <c r="I34" s="30"/>
       <c r="J34" s="61"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="60" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -7193,9 +7146,9 @@
       <c r="I35" s="30"/>
       <c r="J35" s="61"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B36" s="30">
         <v>0.04</v>
@@ -7213,9 +7166,9 @@
       <c r="I36" s="30"/>
       <c r="J36" s="61"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B37" s="30">
         <v>0.22</v>
@@ -7229,9 +7182,9 @@
       <c r="I37" s="30"/>
       <c r="J37" s="61"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30">
@@ -7245,9 +7198,9 @@
       <c r="I38" s="30"/>
       <c r="J38" s="61"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -7263,9 +7216,9 @@
       <c r="I39" s="30"/>
       <c r="J39" s="61"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -7279,9 +7232,9 @@
       <c r="I40" s="30"/>
       <c r="J40" s="61"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -7295,9 +7248,9 @@
       <c r="I41" s="30"/>
       <c r="J41" s="61"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -7311,9 +7264,9 @@
       <c r="I42" s="30"/>
       <c r="J42" s="61"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -7327,9 +7280,9 @@
       <c r="I43" s="30"/>
       <c r="J43" s="61"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -7343,9 +7296,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -7359,9 +7312,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -7377,9 +7330,9 @@
       </c>
       <c r="J46" s="61"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="60" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -7393,9 +7346,9 @@
       </c>
       <c r="J47" s="61"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B48" s="30">
         <v>0.4</v>
@@ -7409,9 +7362,9 @@
       <c r="I48" s="30"/>
       <c r="J48" s="61"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="60" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -7425,9 +7378,9 @@
       <c r="I49" s="30"/>
       <c r="J49" s="61"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -7441,9 +7394,9 @@
       <c r="I50" s="30"/>
       <c r="J50" s="61"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="30">
@@ -7457,9 +7410,9 @@
       <c r="I51" s="30"/>
       <c r="J51" s="61"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="60" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -7473,9 +7426,9 @@
       <c r="I52" s="30"/>
       <c r="J52" s="61"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30">
@@ -7491,9 +7444,9 @@
       <c r="I53" s="30"/>
       <c r="J53" s="61"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -7507,9 +7460,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -7523,9 +7476,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -7539,9 +7492,9 @@
       <c r="I56" s="30"/>
       <c r="J56" s="61"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="60" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -7555,9 +7508,9 @@
       </c>
       <c r="J57" s="61"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B58" s="63"/>
       <c r="C58" s="63">
@@ -7575,56 +7528,56 @@
       <c r="I58" s="63"/>
       <c r="J58" s="64"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C60" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D60" s="51" t="s">
-        <v>258</v>
-      </c>
       <c r="E60" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G60" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="J60" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="H60" s="51" t="s">
+      <c r="K60" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="I60" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="J60" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="K60" s="51" t="s">
+      <c r="L60" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="L60" s="51" t="s">
-        <v>277</v>
-      </c>
       <c r="M60" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="N60" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="O60" s="52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="N60" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="O60" s="52" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B61" s="54">
         <v>103.8</v>
@@ -7670,9 +7623,9 @@
       <c r="S61" s="54"/>
       <c r="T61" s="56"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B62" s="58">
         <v>0.1</v>
@@ -7702,9 +7655,9 @@
       <c r="S62" s="54"/>
       <c r="T62" s="54"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A63" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B63" s="30">
         <v>3.0000000000000001E-3</v>
@@ -7727,9 +7680,9 @@
       <c r="N63" s="30"/>
       <c r="O63" s="61"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -7750,9 +7703,9 @@
       <c r="N64" s="30"/>
       <c r="O64" s="61"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="60" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -7771,9 +7724,9 @@
       <c r="N65" s="30"/>
       <c r="O65" s="61"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B66" s="30">
         <v>0.05</v>
@@ -7792,9 +7745,9 @@
       <c r="N66" s="30"/>
       <c r="O66" s="61"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B67" s="30">
         <v>0.25</v>
@@ -7815,9 +7768,9 @@
       <c r="N67" s="30"/>
       <c r="O67" s="61"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="60" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -7836,9 +7789,9 @@
       <c r="N68" s="30"/>
       <c r="O68" s="61"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -7859,9 +7812,9 @@
       <c r="N69" s="30"/>
       <c r="O69" s="61"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="60" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -7882,9 +7835,9 @@
       <c r="N70" s="30"/>
       <c r="O70" s="61"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="60" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -7905,9 +7858,9 @@
       <c r="N71" s="30"/>
       <c r="O71" s="61"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -7928,9 +7881,9 @@
       <c r="N72" s="30"/>
       <c r="O72" s="61"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="60" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -7951,9 +7904,9 @@
       <c r="N73" s="30"/>
       <c r="O73" s="61"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="60" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -7972,9 +7925,9 @@
       <c r="N74" s="30"/>
       <c r="O74" s="61"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="60" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
@@ -7993,9 +7946,9 @@
       <c r="N75" s="30"/>
       <c r="O75" s="61"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="60" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -8016,7 +7969,7 @@
       <c r="N76" s="30"/>
       <c r="O76" s="61"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="60" t="s">
         <v>70</v>
       </c>
@@ -8039,9 +7992,9 @@
       <c r="N77" s="30"/>
       <c r="O77" s="61"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="60" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -8068,9 +8021,9 @@
       <c r="N78" s="30"/>
       <c r="O78" s="61"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B79" s="92">
         <v>0.3</v>
@@ -8091,9 +8044,9 @@
       <c r="N79" s="30"/>
       <c r="O79" s="61"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="95" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B80" s="92"/>
       <c r="C80" s="92"/>
@@ -8116,9 +8069,9 @@
       <c r="N80" s="30"/>
       <c r="O80" s="61"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="95" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B81" s="92"/>
       <c r="C81" s="92"/>
@@ -8137,9 +8090,9 @@
       <c r="N81" s="30"/>
       <c r="O81" s="61"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="95" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
@@ -8160,9 +8113,9 @@
       <c r="N82" s="30"/>
       <c r="O82" s="61"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="95" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B83" s="92">
         <v>0.04</v>
@@ -8181,9 +8134,9 @@
       <c r="N83" s="30"/>
       <c r="O83" s="61"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="95" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B84" s="92">
         <v>0.08</v>
@@ -8202,9 +8155,9 @@
       <c r="N84" s="30"/>
       <c r="O84" s="61"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="95" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B85" s="92"/>
       <c r="C85" s="92"/>
@@ -8225,9 +8178,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B86" s="92"/>
       <c r="C86" s="92"/>
@@ -8248,9 +8201,9 @@
       <c r="N86" s="30"/>
       <c r="O86" s="61"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="95" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B87" s="92"/>
       <c r="C87" s="92"/>
@@ -8269,9 +8222,9 @@
       <c r="N87" s="30"/>
       <c r="O87" s="61"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="95" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B88" s="92"/>
       <c r="C88" s="92"/>
@@ -8290,9 +8243,9 @@
       <c r="N88" s="30"/>
       <c r="O88" s="61"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="60" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -8313,9 +8266,9 @@
       <c r="N89" s="30"/>
       <c r="O89" s="61"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="60" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -8336,9 +8289,9 @@
       <c r="N90" s="30"/>
       <c r="O90" s="61"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
@@ -8357,9 +8310,9 @@
       <c r="N91" s="30"/>
       <c r="O91" s="61"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -8378,9 +8331,9 @@
       <c r="N92" s="30"/>
       <c r="O92" s="61"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
@@ -8399,9 +8352,9 @@
       <c r="N93" s="30"/>
       <c r="O93" s="61"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="60" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
@@ -8420,9 +8373,9 @@
       <c r="N94" s="30"/>
       <c r="O94" s="61"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="60" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -8441,9 +8394,9 @@
       <c r="N95" s="30"/>
       <c r="O95" s="61"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
@@ -8464,9 +8417,9 @@
       <c r="N96" s="30"/>
       <c r="O96" s="61"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="60" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
@@ -8485,9 +8438,9 @@
       <c r="N97" s="30"/>
       <c r="O97" s="61"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B98" s="63">
         <v>4.0000000000000002E-4</v>
@@ -8510,80 +8463,80 @@
       <c r="N98" s="63"/>
       <c r="O98" s="64"/>
     </row>
-    <row r="100" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F100" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G100" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="H100" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I100" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="J100" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K100" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L100" s="52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A101" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B100" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D100" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E100" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="F100" s="51" t="s">
+      <c r="D101" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="G100" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="H100" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="I100" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="J100" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="K100" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="L100" s="52" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B101" s="54" t="s">
+      <c r="E101" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="F101" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="D101" s="54" t="s">
+      <c r="G101" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="54" t="s">
+      <c r="H101" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="F101" s="54" t="s">
+      <c r="I101" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="G101" s="54" t="s">
+      <c r="J101" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="K101" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="I101" s="54" t="s">
+      <c r="L101" s="56" t="s">
         <v>366</v>
-      </c>
-      <c r="J101" s="54" t="s">
-        <v>367</v>
-      </c>
-      <c r="K101" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="L101" s="56" t="s">
-        <v>369</v>
       </c>
       <c r="M101" s="54"/>
       <c r="N101" s="54"/>
@@ -8594,9 +8547,9 @@
       <c r="S101" s="54"/>
       <c r="T101" s="56"/>
     </row>
-    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B102" s="58"/>
       <c r="C102" s="58"/>
@@ -8626,9 +8579,9 @@
       <c r="S102" s="54"/>
       <c r="T102" s="54"/>
     </row>
-    <row r="103" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A103" s="60" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
@@ -8646,9 +8599,9 @@
       <c r="K103" s="30"/>
       <c r="L103" s="61"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
@@ -8666,9 +8619,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="60" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
@@ -8684,9 +8637,9 @@
       <c r="K105" s="30"/>
       <c r="L105" s="61"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -8706,9 +8659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="60" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B107" s="30"/>
       <c r="C107" s="30">
@@ -8724,9 +8677,9 @@
       <c r="K107" s="30"/>
       <c r="L107" s="61"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B108" s="30">
         <v>0.03</v>
@@ -8748,9 +8701,9 @@
       <c r="K108" s="30"/>
       <c r="L108" s="61"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="60" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B109" s="30">
         <v>0.1</v>
@@ -8766,9 +8719,9 @@
       <c r="K109" s="30"/>
       <c r="L109" s="61"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B110" s="30">
         <v>0.25</v>
@@ -8784,9 +8737,9 @@
       <c r="K110" s="30"/>
       <c r="L110" s="61"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B111" s="30"/>
       <c r="C111" s="30">
@@ -8812,9 +8765,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B112" s="30"/>
       <c r="C112" s="30">
@@ -8834,9 +8787,9 @@
       <c r="K112" s="30"/>
       <c r="L112" s="61"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B113" s="30"/>
       <c r="C113" s="30"/>
@@ -8854,9 +8807,9 @@
       <c r="K113" s="30"/>
       <c r="L113" s="61"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
@@ -8872,9 +8825,9 @@
       <c r="K114" s="30"/>
       <c r="L114" s="61"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
@@ -8892,9 +8845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B116" s="30"/>
       <c r="C116" s="30">
@@ -8912,9 +8865,9 @@
       <c r="K116" s="30"/>
       <c r="L116" s="61"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
@@ -8942,9 +8895,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="60" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B118" s="30"/>
       <c r="C118" s="30"/>
@@ -8960,9 +8913,9 @@
       <c r="K118" s="30"/>
       <c r="L118" s="61"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="60" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B119" s="30"/>
       <c r="C119" s="30"/>
@@ -8984,9 +8937,9 @@
       <c r="K119" s="30"/>
       <c r="L119" s="61"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="60" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
@@ -9000,9 +8953,9 @@
       <c r="K120" s="30"/>
       <c r="L120" s="61"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="60" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
@@ -9020,9 +8973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
@@ -9042,9 +8995,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B123" s="30"/>
       <c r="C123" s="30">
@@ -9060,9 +9013,9 @@
       <c r="K123" s="30"/>
       <c r="L123" s="61"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
@@ -9078,9 +9031,9 @@
       <c r="K124" s="30"/>
       <c r="L124" s="61"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="60" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B125" s="30"/>
       <c r="C125" s="30"/>
@@ -9096,9 +9049,9 @@
       <c r="K125" s="30"/>
       <c r="L125" s="61"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="60" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -9114,9 +9067,9 @@
       </c>
       <c r="L126" s="61"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="60" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B127" s="30"/>
       <c r="C127" s="30"/>
@@ -9132,9 +9085,9 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B128" s="63">
         <v>0</v>
@@ -9156,118 +9109,118 @@
       <c r="K128" s="63"/>
       <c r="L128" s="64"/>
     </row>
-    <row r="130" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="F130" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="G130" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H130" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="I130" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="J130" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="K130" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="L130" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="M130" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="N130" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="O130" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="P130" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q130" s="67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A131" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="B130" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="C130" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="D130" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="F130" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="G130" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="H130" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="I130" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="J130" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="K130" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="L130" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="M130" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="N130" s="51" t="s">
+      <c r="C131" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="O130" s="51" t="s">
+      <c r="D131" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="P130" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q130" s="67" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B131" s="54" t="s">
+      <c r="E131" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="F131" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G131" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="D131" s="54" t="s">
+      <c r="H131" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="E131" s="54" t="s">
+      <c r="I131" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="J131" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="F131" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="G131" s="54" t="s">
+      <c r="K131" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="H131" s="54" t="s">
+      <c r="L131" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="M131" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="I131" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="J131" s="54" t="s">
+      <c r="N131" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="K131" s="54" t="s">
+      <c r="O131" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="L131" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="M131" s="54" t="s">
+      <c r="P131" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="N131" s="54" t="s">
+      <c r="Q131" s="56" t="s">
         <v>397</v>
-      </c>
-      <c r="O131" s="54" t="s">
-        <v>398</v>
-      </c>
-      <c r="P131" s="54" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q131" s="56" t="s">
-        <v>400</v>
       </c>
       <c r="R131" s="54"/>
       <c r="S131" s="54"/>
       <c r="T131" s="56"/>
     </row>
-    <row r="132" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B132" s="58"/>
       <c r="C132" s="58"/>
@@ -9293,9 +9246,9 @@
       <c r="S132" s="54"/>
       <c r="T132" s="54"/>
     </row>
-    <row r="133" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A133" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B133" s="30"/>
       <c r="C133" s="30"/>
@@ -9319,9 +9272,9 @@
       </c>
       <c r="R133" s="30"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="60" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B134" s="30"/>
       <c r="C134" s="30"/>
@@ -9345,9 +9298,9 @@
       <c r="Q134" s="69"/>
       <c r="R134" s="30"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B135" s="92">
         <v>2.75E-2</v>
@@ -9377,9 +9330,9 @@
       <c r="Q135" s="69"/>
       <c r="R135" s="30"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="95" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B136" s="92"/>
       <c r="C136" s="92"/>
@@ -9401,9 +9354,9 @@
       </c>
       <c r="R136" s="30"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="95" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B137" s="92">
         <v>0.25</v>
@@ -9429,9 +9382,9 @@
       <c r="Q137" s="69"/>
       <c r="R137" s="30"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B138" s="92"/>
       <c r="C138" s="92"/>
@@ -9461,9 +9414,9 @@
       </c>
       <c r="R138" s="30"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B139" s="92"/>
       <c r="C139" s="92"/>
@@ -9489,9 +9442,9 @@
       <c r="Q139" s="32"/>
       <c r="R139" s="30"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B140" s="92"/>
       <c r="C140" s="92"/>
@@ -9517,7 +9470,7 @@
       <c r="Q140" s="69"/>
       <c r="R140" s="30"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="95" t="s">
         <v>70</v>
       </c>
@@ -9543,9 +9496,9 @@
       </c>
       <c r="R141" s="30"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="95" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B142" s="92"/>
       <c r="C142" s="92"/>
@@ -9571,9 +9524,9 @@
       <c r="Q142" s="69"/>
       <c r="R142" s="30"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="95" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B143" s="92"/>
       <c r="C143" s="92"/>
@@ -9603,9 +9556,9 @@
       <c r="Q143" s="61"/>
       <c r="R143" s="30"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B144" s="92"/>
       <c r="C144" s="92"/>
@@ -9627,9 +9580,9 @@
       <c r="Q144" s="69"/>
       <c r="R144" s="30"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="95" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B145" s="92"/>
       <c r="C145" s="92"/>
@@ -9651,9 +9604,9 @@
       <c r="Q145" s="69"/>
       <c r="R145" s="30"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="95" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B146" s="92"/>
       <c r="C146" s="92">
@@ -9675,9 +9628,9 @@
       <c r="Q146" s="69"/>
       <c r="R146" s="30"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="95" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B147" s="92"/>
       <c r="C147" s="92"/>
@@ -9701,9 +9654,9 @@
       <c r="Q147" s="69"/>
       <c r="R147" s="30"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="95" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B148" s="92">
         <v>0.05</v>
@@ -9729,9 +9682,9 @@
       <c r="Q148" s="69"/>
       <c r="R148" s="30"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="60" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
@@ -9755,9 +9708,9 @@
       </c>
       <c r="R149" s="30"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="60" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B150" s="30"/>
       <c r="C150" s="30"/>
@@ -9789,9 +9742,9 @@
       </c>
       <c r="R150" s="30"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B151" s="30"/>
       <c r="C151" s="30"/>
@@ -9813,9 +9766,9 @@
       <c r="Q151" s="32"/>
       <c r="R151" s="30"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" s="60" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
@@ -9839,9 +9792,9 @@
       <c r="Q152" s="69"/>
       <c r="R152" s="30"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" s="60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
@@ -9867,9 +9820,9 @@
       <c r="Q153" s="69"/>
       <c r="R153" s="30"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
@@ -9893,9 +9846,9 @@
       <c r="Q154" s="69"/>
       <c r="R154" s="30"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" s="60" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B155" s="30"/>
       <c r="C155" s="30"/>
@@ -9921,9 +9874,9 @@
       <c r="Q155" s="69"/>
       <c r="R155" s="30"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B156" s="63"/>
       <c r="C156" s="63"/>
@@ -9957,77 +9910,77 @@
       </c>
       <c r="R156" s="30"/>
     </row>
-    <row r="158" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="B158" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D158" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F158" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="G158" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H158" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="I158" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="J158" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="K158" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L158" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A159" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="C159" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="B158" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="C158" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D158" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="E158" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="F158" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="G158" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="H158" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="I158" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="J158" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="K158" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="L158" s="52" t="s">
+      <c r="D159" s="54" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="B159" s="54" t="s">
+      <c r="E159" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="C159" s="54" t="s">
+      <c r="F159" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="D159" s="54" t="s">
+      <c r="G159" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="E159" s="54" t="s">
+      <c r="H159" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="F159" s="54" t="s">
+      <c r="I159" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="G159" s="54" t="s">
+      <c r="J159" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="H159" s="54" t="s">
+      <c r="K159" s="54" t="s">
         <v>418</v>
-      </c>
-      <c r="I159" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="J159" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="K159" s="54" t="s">
-        <v>421</v>
       </c>
       <c r="L159" s="56"/>
       <c r="M159" s="54"/>
@@ -10039,9 +9992,9 @@
       <c r="S159" s="54"/>
       <c r="T159" s="56"/>
     </row>
-    <row r="160" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B160" s="58"/>
       <c r="C160" s="58"/>
@@ -10069,9 +10022,9 @@
       <c r="S160" s="54"/>
       <c r="T160" s="54"/>
     </row>
-    <row r="161" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A161" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B161" s="30"/>
       <c r="C161" s="30"/>
@@ -10087,9 +10040,9 @@
       <c r="K161" s="30"/>
       <c r="L161" s="32"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="60" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
@@ -10105,9 +10058,9 @@
       </c>
       <c r="L162" s="32"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B163" s="30"/>
       <c r="C163" s="30">
@@ -10125,9 +10078,9 @@
       <c r="K163" s="30"/>
       <c r="L163" s="32"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B164" s="30">
         <v>0.2</v>
@@ -10143,9 +10096,9 @@
       <c r="K164" s="30"/>
       <c r="L164" s="32"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="60" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B165" s="30"/>
       <c r="C165" s="30">
@@ -10165,9 +10118,9 @@
       <c r="K165" s="30"/>
       <c r="L165" s="32"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -10183,9 +10136,9 @@
       <c r="K166" s="30"/>
       <c r="L166" s="32"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="60" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
@@ -10201,9 +10154,9 @@
       <c r="K167" s="30"/>
       <c r="L167" s="32"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
@@ -10219,9 +10172,9 @@
       <c r="K168" s="30"/>
       <c r="L168" s="32"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
@@ -10237,9 +10190,9 @@
       <c r="K169" s="30"/>
       <c r="L169" s="32"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="60" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -10255,9 +10208,9 @@
       <c r="K170" s="30"/>
       <c r="L170" s="32"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="60" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -10279,9 +10232,9 @@
       </c>
       <c r="L171" s="32"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -10299,9 +10252,9 @@
       </c>
       <c r="L172" s="32"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="60" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -10317,9 +10270,9 @@
       <c r="K173" s="30"/>
       <c r="L173" s="32"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -10335,9 +10288,9 @@
       </c>
       <c r="L174" s="32"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="60" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
@@ -10355,9 +10308,9 @@
       </c>
       <c r="L175" s="32"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -10373,9 +10326,9 @@
       <c r="K176" s="30"/>
       <c r="L176" s="32"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
@@ -10391,9 +10344,9 @@
       </c>
       <c r="L177" s="32"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="60" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B178" s="30"/>
       <c r="C178" s="30">
@@ -10409,9 +10362,9 @@
       <c r="K178" s="30"/>
       <c r="L178" s="32"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B179" s="30">
         <v>0.05</v>
@@ -10427,9 +10380,9 @@
       <c r="K179" s="30"/>
       <c r="L179" s="32"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="60" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
@@ -10445,9 +10398,9 @@
       <c r="K180" s="30"/>
       <c r="L180" s="32"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="60" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B181" s="30"/>
       <c r="C181" s="30">
@@ -10463,9 +10416,9 @@
       <c r="K181" s="30"/>
       <c r="L181" s="32"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B182" s="30"/>
       <c r="C182" s="30"/>
@@ -10481,9 +10434,9 @@
       <c r="K182" s="30"/>
       <c r="L182" s="32"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B183" s="30"/>
       <c r="C183" s="30">
@@ -10501,9 +10454,9 @@
       <c r="K183" s="30"/>
       <c r="L183" s="32"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -10519,9 +10472,9 @@
       <c r="K184" s="30"/>
       <c r="L184" s="32"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="60" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
@@ -10539,9 +10492,9 @@
       </c>
       <c r="L185" s="32"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="60" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -10559,9 +10512,9 @@
       </c>
       <c r="L186" s="32"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="60" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
@@ -10577,9 +10530,9 @@
       <c r="K187" s="30"/>
       <c r="L187" s="32"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="60" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -10595,9 +10548,9 @@
       </c>
       <c r="L188" s="32"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="60" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -10613,9 +10566,9 @@
       <c r="K189" s="30"/>
       <c r="L189" s="32"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="60" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
@@ -10631,9 +10584,9 @@
       </c>
       <c r="L190" s="32"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
@@ -10649,9 +10602,9 @@
       <c r="K191" s="30"/>
       <c r="L191" s="32"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -10667,9 +10620,9 @@
       </c>
       <c r="L192" s="32"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B193" s="30"/>
       <c r="C193" s="30">
@@ -10687,9 +10640,9 @@
       <c r="K193" s="30"/>
       <c r="L193" s="32"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="62" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B194" s="63"/>
       <c r="C194" s="63"/>
@@ -10705,47 +10658,47 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="B196" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="C196" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D196" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E196" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="F196" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="G196" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="B196" s="51" t="s">
+      <c r="H196" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="C196" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D196" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="E196" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="F196" s="51" t="s">
+      <c r="I196" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="G196" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="H196" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="I196" s="51" t="s">
-        <v>440</v>
-      </c>
       <c r="J196" s="51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K196" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L196" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A197" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="L196" s="52" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B197" s="70">
         <v>4726</v>
@@ -10779,9 +10732,9 @@
       </c>
       <c r="L197" s="71"/>
     </row>
-    <row r="198" spans="1:12" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B198" s="73">
         <v>0.52</v>
@@ -10805,9 +10758,9 @@
       <c r="K198" s="73"/>
       <c r="L198" s="74"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A199" s="60" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B199" s="30">
         <v>0.01</v>
@@ -10823,9 +10776,9 @@
       <c r="K199" s="30"/>
       <c r="L199" s="61"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B200" s="30">
         <v>0.08</v>
@@ -10847,9 +10800,9 @@
       <c r="K200" s="30"/>
       <c r="L200" s="61"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="60" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B201" s="30">
         <v>0.02</v>
@@ -10869,9 +10822,9 @@
       <c r="K201" s="30"/>
       <c r="L201" s="61"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="60" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B202" s="30"/>
       <c r="C202" s="30">
@@ -10887,9 +10840,9 @@
       <c r="K202" s="30"/>
       <c r="L202" s="61"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="60" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B203" s="30">
         <v>0.08</v>
@@ -10909,9 +10862,9 @@
       <c r="K203" s="30"/>
       <c r="L203" s="61"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="60" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B204" s="30"/>
       <c r="C204" s="30"/>
@@ -10925,9 +10878,9 @@
       <c r="K204" s="30"/>
       <c r="L204" s="61"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B205" s="30">
         <v>0.25</v>
@@ -10945,9 +10898,9 @@
       <c r="K205" s="30"/>
       <c r="L205" s="61"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="60" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B206" s="30">
         <v>0.05</v>
@@ -10965,9 +10918,9 @@
       <c r="K206" s="30"/>
       <c r="L206" s="61"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B207" s="30"/>
       <c r="C207" s="30"/>
@@ -10987,9 +10940,9 @@
       <c r="K207" s="30"/>
       <c r="L207" s="61"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="60" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B208" s="30"/>
       <c r="C208" s="30"/>
@@ -11005,9 +10958,9 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="60" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B209" s="30"/>
       <c r="C209" s="30"/>
@@ -11023,9 +10976,9 @@
       </c>
       <c r="L209" s="61"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="60" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B210" s="30"/>
       <c r="C210" s="30"/>
@@ -11041,9 +10994,9 @@
       </c>
       <c r="L210" s="61"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
@@ -11061,9 +11014,9 @@
       </c>
       <c r="L211" s="61"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B212" s="30"/>
       <c r="C212" s="30"/>
@@ -11085,9 +11038,9 @@
       <c r="K212" s="30"/>
       <c r="L212" s="61"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B213" s="30"/>
       <c r="C213" s="30"/>
@@ -11107,9 +11060,9 @@
       <c r="K213" s="30"/>
       <c r="L213" s="61"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="60" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B214" s="30"/>
       <c r="C214" s="30"/>
@@ -11125,9 +11078,9 @@
       <c r="K214" s="30"/>
       <c r="L214" s="61"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="60" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
@@ -11143,9 +11096,9 @@
       <c r="K215" s="30"/>
       <c r="L215" s="61"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B216" s="30"/>
       <c r="C216" s="30"/>
@@ -11165,9 +11118,9 @@
       <c r="K216" s="30"/>
       <c r="L216" s="61"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="60" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B217" s="30"/>
       <c r="C217" s="30"/>
@@ -11183,9 +11136,9 @@
       <c r="K217" s="30"/>
       <c r="L217" s="61"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B218" s="30"/>
       <c r="C218" s="30"/>
@@ -11203,9 +11156,9 @@
       <c r="K218" s="30"/>
       <c r="L218" s="61"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B219" s="30"/>
       <c r="C219" s="30"/>
@@ -11223,9 +11176,9 @@
       <c r="K219" s="30"/>
       <c r="L219" s="61"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="60" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
@@ -11241,9 +11194,9 @@
       <c r="K220" s="30"/>
       <c r="L220" s="61"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B221" s="63"/>
       <c r="C221" s="63"/>
@@ -11259,59 +11212,59 @@
       <c r="K221" s="63"/>
       <c r="L221" s="64"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B223" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="C223" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D223" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E223" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="F223" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="G223" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H223" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="I223" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="J223" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="K223" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="L223" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M223" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="N223" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O223" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="B223" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="C223" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D223" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="E223" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="F223" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="G223" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="H223" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="I223" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="J223" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="K223" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="L223" s="51" t="s">
+      <c r="P223" s="52" t="s">
         <v>450</v>
       </c>
-      <c r="M223" s="51" t="s">
+    </row>
+    <row r="224" spans="1:16" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A224" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="N223" s="51" t="s">
-        <v>451</v>
-      </c>
-      <c r="O223" s="51" t="s">
-        <v>452</v>
-      </c>
-      <c r="P223" s="52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B224" s="70">
         <v>178.6</v>
@@ -11355,9 +11308,9 @@
       <c r="O224" s="70"/>
       <c r="P224" s="71"/>
     </row>
-    <row r="225" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B225" s="73">
         <v>0.129</v>
@@ -11389,9 +11342,9 @@
       <c r="O225" s="73"/>
       <c r="P225" s="74"/>
     </row>
-    <row r="226" spans="1:25" s="94" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" s="94" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A226" s="95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B226" s="92">
         <v>0.03</v>
@@ -11425,9 +11378,9 @@
       <c r="X226" s="93"/>
       <c r="Y226" s="93"/>
     </row>
-    <row r="227" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="95" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B227" s="92">
         <v>0.25</v>
@@ -11457,9 +11410,9 @@
       <c r="X227" s="93"/>
       <c r="Y227" s="93"/>
     </row>
-    <row r="228" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B228" s="92">
         <v>0.3</v>
@@ -11489,9 +11442,9 @@
       <c r="X228" s="93"/>
       <c r="Y228" s="93"/>
     </row>
-    <row r="229" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="95" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B229" s="92"/>
       <c r="C229" s="92"/>
@@ -11519,9 +11472,9 @@
       <c r="X229" s="93"/>
       <c r="Y229" s="93"/>
     </row>
-    <row r="230" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="95" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B230" s="92"/>
       <c r="C230" s="92">
@@ -11553,9 +11506,9 @@
       <c r="X230" s="93"/>
       <c r="Y230" s="93"/>
     </row>
-    <row r="231" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="95" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B231" s="92"/>
       <c r="C231" s="92">
@@ -11587,9 +11540,9 @@
       <c r="X231" s="93"/>
       <c r="Y231" s="93"/>
     </row>
-    <row r="232" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="95" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B232" s="92"/>
       <c r="C232" s="92">
@@ -11625,9 +11578,9 @@
       <c r="X232" s="93"/>
       <c r="Y232" s="93"/>
     </row>
-    <row r="233" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="95" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B233" s="92"/>
       <c r="C233" s="92"/>
@@ -11655,9 +11608,9 @@
       <c r="X233" s="93"/>
       <c r="Y233" s="93"/>
     </row>
-    <row r="234" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="95" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B234" s="92"/>
       <c r="C234" s="92"/>
@@ -11685,9 +11638,9 @@
       <c r="X234" s="93"/>
       <c r="Y234" s="93"/>
     </row>
-    <row r="235" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="95" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B235" s="92"/>
       <c r="C235" s="92"/>
@@ -11715,9 +11668,9 @@
       <c r="X235" s="93"/>
       <c r="Y235" s="93"/>
     </row>
-    <row r="236" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="95" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B236" s="92"/>
       <c r="C236" s="92"/>
@@ -11743,9 +11696,9 @@
       <c r="X236" s="93"/>
       <c r="Y236" s="93"/>
     </row>
-    <row r="237" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="95" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B237" s="92"/>
       <c r="C237" s="92"/>
@@ -11773,9 +11726,9 @@
       <c r="X237" s="93"/>
       <c r="Y237" s="93"/>
     </row>
-    <row r="238" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="95" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B238" s="92"/>
       <c r="C238" s="92"/>
@@ -11805,9 +11758,9 @@
       <c r="X238" s="93"/>
       <c r="Y238" s="93"/>
     </row>
-    <row r="239" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="95" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B239" s="92"/>
       <c r="C239" s="92"/>
@@ -11837,9 +11790,9 @@
       <c r="X239" s="93"/>
       <c r="Y239" s="93"/>
     </row>
-    <row r="240" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="95" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B240" s="92"/>
       <c r="C240" s="92"/>
@@ -11867,9 +11820,9 @@
       <c r="X240" s="93"/>
       <c r="Y240" s="93"/>
     </row>
-    <row r="241" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="95" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B241" s="92"/>
       <c r="C241" s="92"/>
@@ -11899,9 +11852,9 @@
       <c r="X241" s="93"/>
       <c r="Y241" s="93"/>
     </row>
-    <row r="242" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="95" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B242" s="92"/>
       <c r="C242" s="92"/>
@@ -11929,9 +11882,9 @@
       <c r="X242" s="93"/>
       <c r="Y242" s="93"/>
     </row>
-    <row r="243" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="95" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B243" s="92"/>
       <c r="C243" s="92"/>
@@ -11965,9 +11918,9 @@
       <c r="X243" s="93"/>
       <c r="Y243" s="93"/>
     </row>
-    <row r="244" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="95" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B244" s="92"/>
       <c r="C244" s="92"/>
@@ -11995,9 +11948,9 @@
       <c r="X244" s="93"/>
       <c r="Y244" s="93"/>
     </row>
-    <row r="245" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="95" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B245" s="92"/>
       <c r="C245" s="92"/>
@@ -12025,9 +11978,9 @@
       <c r="X245" s="93"/>
       <c r="Y245" s="93"/>
     </row>
-    <row r="246" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="95" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B246" s="92"/>
       <c r="C246" s="92"/>
@@ -12055,9 +12008,9 @@
       <c r="X246" s="93"/>
       <c r="Y246" s="93"/>
     </row>
-    <row r="247" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="95" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B247" s="92"/>
       <c r="C247" s="92"/>
@@ -12085,9 +12038,9 @@
       <c r="X247" s="93"/>
       <c r="Y247" s="93"/>
     </row>
-    <row r="248" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="95" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B248" s="92"/>
       <c r="C248" s="92"/>
@@ -12115,9 +12068,9 @@
       <c r="X248" s="93"/>
       <c r="Y248" s="93"/>
     </row>
-    <row r="249" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B249" s="92"/>
       <c r="C249" s="92"/>
@@ -12145,9 +12098,9 @@
       <c r="X249" s="93"/>
       <c r="Y249" s="93"/>
     </row>
-    <row r="250" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="95" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B250" s="92"/>
       <c r="C250" s="92"/>
@@ -12175,7 +12128,7 @@
       <c r="X250" s="93"/>
       <c r="Y250" s="93"/>
     </row>
-    <row r="251" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="95" t="s">
         <v>70</v>
       </c>
@@ -12205,9 +12158,9 @@
       <c r="X251" s="93"/>
       <c r="Y251" s="93"/>
     </row>
-    <row r="252" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="95" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B252" s="92"/>
       <c r="C252" s="92"/>
@@ -12235,9 +12188,9 @@
       <c r="X252" s="93"/>
       <c r="Y252" s="93"/>
     </row>
-    <row r="253" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="104" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B253" s="105">
         <v>0.01</v>
@@ -12267,9 +12220,9 @@
       <c r="X253" s="93"/>
       <c r="Y253" s="93"/>
     </row>
-    <row r="254" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="104" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B254" s="105">
         <v>0.2</v>
@@ -12299,9 +12252,9 @@
       <c r="X254" s="93"/>
       <c r="Y254" s="93"/>
     </row>
-    <row r="255" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="104" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B255" s="105">
         <v>0.05</v>
@@ -12331,9 +12284,9 @@
       <c r="X255" s="93"/>
       <c r="Y255" s="93"/>
     </row>
-    <row r="256" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="104" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B256" s="105">
         <v>0.32</v>
@@ -12365,9 +12318,9 @@
       <c r="X256" s="93"/>
       <c r="Y256" s="93"/>
     </row>
-    <row r="257" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="104" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B257" s="105">
         <v>3.5000000000000003E-2</v>
@@ -12399,9 +12352,9 @@
       <c r="X257" s="93"/>
       <c r="Y257" s="93"/>
     </row>
-    <row r="258" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="106" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B258" s="107"/>
       <c r="C258" s="107"/>
@@ -12429,50 +12382,50 @@
       <c r="X258" s="93"/>
       <c r="Y258" s="93"/>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A260" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="B260" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C260" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="D260" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E260" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F260" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="G260" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="H260" s="52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A261" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B261" s="70" t="s">
+        <v>465</v>
+      </c>
+      <c r="C261" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="B260" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="C260" s="51" t="s">
+      <c r="D261" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="D260" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="E260" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="F260" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="G260" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="H260" s="52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="261" spans="1:25" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B261" s="70" t="s">
+      <c r="E261" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="C261" s="70" t="s">
+      <c r="F261" s="70" t="s">
         <v>469</v>
-      </c>
-      <c r="D261" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="E261" s="70" t="s">
-        <v>471</v>
-      </c>
-      <c r="F261" s="70" t="s">
-        <v>472</v>
       </c>
       <c r="G261" s="70">
         <v>528.20000000000005</v>
@@ -12487,9 +12440,9 @@
       <c r="M261" s="70"/>
       <c r="N261" s="70"/>
     </row>
-    <row r="262" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B262" s="73">
         <v>0.18</v>
@@ -12511,9 +12464,9 @@
       <c r="M262" s="70"/>
       <c r="N262" s="70"/>
     </row>
-    <row r="263" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A263" s="60" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B263" s="30"/>
       <c r="C263" s="30">
@@ -12533,9 +12486,9 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A264" s="60" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B264" s="30"/>
       <c r="C264" s="30"/>
@@ -12549,9 +12502,9 @@
       <c r="G264" s="30"/>
       <c r="H264" s="32"/>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A265" s="60" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B265" s="30"/>
       <c r="C265" s="30"/>
@@ -12563,9 +12516,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A266" s="60" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B266" s="30"/>
       <c r="C266" s="30"/>
@@ -12577,9 +12530,9 @@
       <c r="G266" s="30"/>
       <c r="H266" s="32"/>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A267" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B267" s="30">
         <v>0.06</v>
@@ -12593,9 +12546,9 @@
       <c r="G267" s="30"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A268" s="60" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B268" s="30"/>
       <c r="C268" s="30"/>
@@ -12607,9 +12560,9 @@
       <c r="G268" s="30"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A269" s="60" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B269" s="30">
         <v>0.1</v>
@@ -12621,9 +12574,9 @@
       <c r="G269" s="30"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A270" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B270" s="30">
         <v>0.25</v>
@@ -12635,9 +12588,9 @@
       <c r="G270" s="30"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A271" s="60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B271" s="30"/>
       <c r="C271" s="30"/>
@@ -12649,9 +12602,9 @@
       </c>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A272" s="60" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B272" s="30"/>
       <c r="C272" s="30">
@@ -12663,9 +12616,9 @@
       <c r="G272" s="30"/>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="60" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B273" s="30">
         <v>0.04</v>
@@ -12679,9 +12632,9 @@
       <c r="G273" s="30"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="60" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B274" s="30">
         <v>0.16</v>
@@ -12695,9 +12648,9 @@
       <c r="G274" s="30"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="60" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B275" s="30"/>
       <c r="C275" s="30"/>
@@ -12709,9 +12662,9 @@
       <c r="G275" s="30"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="60" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B276" s="30"/>
       <c r="C276" s="30"/>
@@ -12723,9 +12676,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="60" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B277" s="30"/>
       <c r="C277" s="30">
@@ -12737,9 +12690,9 @@
       <c r="G277" s="30"/>
       <c r="H277" s="32"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="60" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B278" s="30"/>
       <c r="C278" s="30">
@@ -12751,9 +12704,9 @@
       <c r="G278" s="30"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="60" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B279" s="30"/>
       <c r="C279" s="30">
@@ -12765,9 +12718,9 @@
       <c r="G279" s="30"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="60" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B280" s="30"/>
       <c r="C280" s="30"/>
@@ -12779,9 +12732,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B281" s="30"/>
       <c r="C281" s="30">
@@ -12793,9 +12746,9 @@
       <c r="G281" s="30"/>
       <c r="H281" s="32"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="60" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B282" s="30"/>
       <c r="C282" s="30"/>
@@ -12807,9 +12760,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="60" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B283" s="30"/>
       <c r="C283" s="30"/>
@@ -12819,9 +12772,9 @@
       <c r="G283" s="30"/>
       <c r="H283" s="32"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="60" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B284" s="30"/>
       <c r="C284" s="30"/>
@@ -12833,9 +12786,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B285" s="30"/>
       <c r="C285" s="30"/>
@@ -12849,9 +12802,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="60" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B286" s="30"/>
       <c r="C286" s="30"/>
@@ -12863,9 +12816,9 @@
       <c r="G286" s="30"/>
       <c r="H286" s="32"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B287" s="30"/>
       <c r="C287" s="30"/>
@@ -12877,9 +12830,9 @@
       <c r="G287" s="30"/>
       <c r="H287" s="32"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B288" s="30">
         <v>0</v>
@@ -12895,9 +12848,9 @@
       <c r="G288" s="30"/>
       <c r="H288" s="32"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289" s="62" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B289" s="63"/>
       <c r="C289" s="63"/>
@@ -12909,50 +12862,50 @@
       <c r="G289" s="63"/>
       <c r="H289" s="64"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291" s="50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B291" s="51" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C291" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D291" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D291" s="51" t="s">
-        <v>258</v>
-      </c>
       <c r="E291" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F291" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="G291" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H291" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="I291" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="G291" s="51" t="s">
+      <c r="J291" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="H291" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="I291" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="J291" s="51" t="s">
+      <c r="K291" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="K291" s="51" t="s">
-        <v>277</v>
-      </c>
       <c r="L291" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="M291" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A292" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="M291" s="52" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B292" s="70">
         <v>181</v>
@@ -12990,9 +12943,9 @@
       <c r="M292" s="71"/>
       <c r="N292" s="70"/>
     </row>
-    <row r="293" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B293" s="73">
         <v>0.18</v>
@@ -13018,9 +12971,9 @@
       <c r="M293" s="74"/>
       <c r="N293" s="70"/>
     </row>
-    <row r="294" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A294" s="60" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B294" s="30"/>
       <c r="C294" s="30"/>
@@ -13037,9 +12990,9 @@
       <c r="L294" s="30"/>
       <c r="M294" s="32"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B295" s="30">
         <v>1E-3</v>
@@ -13058,9 +13011,9 @@
       </c>
       <c r="M295" s="32"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B296" s="30">
         <v>0.08</v>
@@ -13083,9 +13036,9 @@
       <c r="L296" s="30"/>
       <c r="M296" s="32"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297" s="60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B297" s="30"/>
       <c r="C297" s="30"/>
@@ -13102,9 +13055,9 @@
       </c>
       <c r="M297" s="32"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B298" s="30">
         <v>0.25</v>
@@ -13123,9 +13076,9 @@
       <c r="L298" s="30"/>
       <c r="M298" s="32"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B299" s="30"/>
       <c r="C299" s="30"/>
@@ -13146,9 +13099,9 @@
       </c>
       <c r="M299" s="32"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300" s="60" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
@@ -13165,9 +13118,9 @@
       <c r="L300" s="30"/>
       <c r="M300" s="32"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301" s="60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B301" s="30"/>
       <c r="C301" s="30"/>
@@ -13188,9 +13141,9 @@
       <c r="L301" s="30"/>
       <c r="M301" s="32"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302" s="60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B302" s="30"/>
       <c r="C302" s="30"/>
@@ -13207,7 +13160,7 @@
       <c r="L302" s="30"/>
       <c r="M302" s="32"/>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303" s="60" t="s">
         <v>70</v>
       </c>
@@ -13226,9 +13179,9 @@
       </c>
       <c r="M303" s="32"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -13245,9 +13198,9 @@
       <c r="L304" s="30"/>
       <c r="M304" s="32"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="60" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B305" s="30"/>
       <c r="C305" s="30"/>
@@ -13264,9 +13217,9 @@
       <c r="L305" s="30"/>
       <c r="M305" s="32"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="60" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B306" s="30"/>
       <c r="C306" s="30"/>
@@ -13283,9 +13236,9 @@
       <c r="L306" s="30"/>
       <c r="M306" s="32"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="60" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B307" s="30">
         <v>0.1</v>
@@ -13302,9 +13255,9 @@
       <c r="L307" s="30"/>
       <c r="M307" s="32"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="60" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B308" s="30">
         <v>5.0000000000000001E-3</v>
@@ -13325,9 +13278,9 @@
       <c r="L308" s="30"/>
       <c r="M308" s="32"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="60" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B309" s="30"/>
       <c r="C309" s="30"/>
@@ -13344,9 +13297,9 @@
       <c r="L309" s="30"/>
       <c r="M309" s="32"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B310" s="30">
         <v>0.05</v>
@@ -13365,9 +13318,9 @@
       <c r="L310" s="30"/>
       <c r="M310" s="32"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="60" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B311" s="30"/>
       <c r="C311" s="30"/>
@@ -13384,9 +13337,9 @@
       <c r="L311" s="30"/>
       <c r="M311" s="32"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="60" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B312" s="30"/>
       <c r="C312" s="30">
@@ -13405,9 +13358,9 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="60" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B313" s="30">
         <v>0.02</v>
@@ -13434,9 +13387,9 @@
       </c>
       <c r="M313" s="32"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B314" s="30"/>
       <c r="C314" s="30"/>
@@ -13459,9 +13412,9 @@
       <c r="L314" s="30"/>
       <c r="M314" s="32"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="60" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B315" s="30"/>
       <c r="C315" s="30"/>
@@ -13478,9 +13431,9 @@
       <c r="L315" s="30"/>
       <c r="M315" s="32"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B316" s="30"/>
       <c r="C316" s="30"/>
@@ -13497,9 +13450,9 @@
       <c r="L316" s="30"/>
       <c r="M316" s="32"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="60" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B317" s="30"/>
       <c r="C317" s="30"/>
@@ -13516,9 +13469,9 @@
       <c r="L317" s="30"/>
       <c r="M317" s="32"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B318" s="30"/>
       <c r="C318" s="30"/>
@@ -13535,9 +13488,9 @@
       <c r="L318" s="30"/>
       <c r="M318" s="32"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B319" s="30"/>
       <c r="C319" s="30"/>
@@ -13552,9 +13505,9 @@
       <c r="L319" s="30"/>
       <c r="M319" s="32"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="62" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B320" s="63"/>
       <c r="C320" s="63"/>
@@ -13573,47 +13526,47 @@
       <c r="L320" s="63"/>
       <c r="M320" s="64"/>
     </row>
-    <row r="322" spans="1:14" s="1" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" s="1" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="50" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B322" s="51" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C322" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D322" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D322" s="51" t="s">
-        <v>258</v>
-      </c>
       <c r="E322" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F322" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="G322" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H322" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="G322" s="51" t="s">
+      <c r="I322" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="H322" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="I322" s="51" t="s">
+      <c r="J322" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="K322" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="J322" s="51" t="s">
+      <c r="L322" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="K322" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="L322" s="52" t="s">
+    </row>
+    <row r="323" spans="1:14" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A323" s="55" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B323" s="70">
         <v>387</v>
@@ -13651,9 +13604,9 @@
       <c r="M323" s="70"/>
       <c r="N323" s="70"/>
     </row>
-    <row r="324" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B324" s="73">
         <v>0.28000000000000003</v>
@@ -13681,9 +13634,9 @@
       <c r="M324" s="70"/>
       <c r="N324" s="70"/>
     </row>
-    <row r="325" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A325" s="60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B325" s="30"/>
       <c r="C325" s="30">
@@ -13703,9 +13656,9 @@
       <c r="K325" s="30"/>
       <c r="L325" s="32"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A326" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B326" s="30"/>
       <c r="C326" s="30"/>
@@ -13725,9 +13678,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A327" s="60" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B327" s="30"/>
       <c r="C327" s="30"/>
@@ -13743,9 +13696,9 @@
       <c r="K327" s="30"/>
       <c r="L327" s="32"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A328" s="60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B328" s="30"/>
       <c r="C328" s="30"/>
@@ -13761,9 +13714,9 @@
       <c r="K328" s="30"/>
       <c r="L328" s="32"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A329" s="60" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B329" s="30">
         <v>0.25</v>
@@ -13781,9 +13734,9 @@
       <c r="K329" s="30"/>
       <c r="L329" s="32"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A330" s="60" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B330" s="30"/>
       <c r="C330" s="30"/>
@@ -13805,9 +13758,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A331" s="60" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B331" s="30"/>
       <c r="C331" s="30"/>
@@ -13823,9 +13776,9 @@
       </c>
       <c r="L331" s="32"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A332" s="60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
@@ -13843,9 +13796,9 @@
       <c r="K332" s="30"/>
       <c r="L332" s="32"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A333" s="60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B333" s="30"/>
       <c r="C333" s="30">
@@ -13867,9 +13820,9 @@
       <c r="K333" s="30"/>
       <c r="L333" s="32"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A334" s="60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B334" s="30"/>
       <c r="C334" s="30">
@@ -13891,7 +13844,7 @@
       <c r="K334" s="30"/>
       <c r="L334" s="32"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A335" s="60" t="s">
         <v>70</v>
       </c>
@@ -13909,9 +13862,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A336" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B336" s="30"/>
       <c r="C336" s="30"/>
@@ -13931,9 +13884,9 @@
       <c r="K336" s="30"/>
       <c r="L336" s="32"/>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A337" s="60" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B337" s="30"/>
       <c r="C337" s="30"/>
@@ -13951,9 +13904,9 @@
       <c r="K337" s="30"/>
       <c r="L337" s="32"/>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A338" s="60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B338" s="30">
         <v>0.3</v>
@@ -13971,9 +13924,9 @@
       <c r="K338" s="30"/>
       <c r="L338" s="32"/>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A339" s="60" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B339" s="30"/>
       <c r="C339" s="30"/>
@@ -13989,9 +13942,9 @@
       <c r="K339" s="30"/>
       <c r="L339" s="32"/>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A340" s="60" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B340" s="30"/>
       <c r="C340" s="30"/>
@@ -14009,9 +13962,9 @@
       <c r="K340" s="30"/>
       <c r="L340" s="32"/>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A341" s="60" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B341" s="30"/>
       <c r="C341" s="30"/>
@@ -14029,9 +13982,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A342" s="60" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B342" s="30"/>
       <c r="C342" s="30"/>
@@ -14047,9 +14000,9 @@
       </c>
       <c r="L342" s="32"/>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A343" s="60" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B343" s="30"/>
       <c r="C343" s="30">
@@ -14067,9 +14020,9 @@
       <c r="K343" s="30"/>
       <c r="L343" s="32"/>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A344" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B344" s="63"/>
       <c r="C344" s="63"/>
@@ -14087,56 +14040,56 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A346" s="50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B346" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C346" s="51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D346" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E346" s="51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F346" s="51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G346" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="H346" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="I346" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="J346" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="H346" s="51" t="s">
+      <c r="K346" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="I346" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="J346" s="51" t="s">
+      <c r="L346" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="K346" s="51" t="s">
+      <c r="M346" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="L346" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="M346" s="51" t="s">
+      <c r="N346" s="52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="55" t="s">
         <v>278</v>
-      </c>
-      <c r="N346" s="52" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="347" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="55" t="s">
-        <v>281</v>
       </c>
       <c r="B347" s="70">
         <v>313.10000000000002</v>
@@ -14176,9 +14129,9 @@
       </c>
       <c r="N347" s="32"/>
     </row>
-    <row r="348" spans="1:25" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B348" s="73">
         <v>0.1</v>
@@ -14206,9 +14159,9 @@
       </c>
       <c r="N348" s="76"/>
     </row>
-    <row r="349" spans="1:25" s="94" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" s="94" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A349" s="95" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B349" s="92"/>
       <c r="C349" s="92"/>
@@ -14236,9 +14189,9 @@
       <c r="X349" s="93"/>
       <c r="Y349" s="93"/>
     </row>
-    <row r="350" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A350" s="95" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B350" s="92"/>
       <c r="C350" s="92"/>
@@ -14266,9 +14219,9 @@
       <c r="X350" s="93"/>
       <c r="Y350" s="93"/>
     </row>
-    <row r="351" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A351" s="95" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B351" s="92"/>
       <c r="C351" s="92"/>
@@ -14298,9 +14251,9 @@
       <c r="X351" s="93"/>
       <c r="Y351" s="93"/>
     </row>
-    <row r="352" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A352" s="95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B352" s="92">
         <v>0.08</v>
@@ -14334,9 +14287,9 @@
       <c r="X352" s="93"/>
       <c r="Y352" s="93"/>
     </row>
-    <row r="353" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A353" s="95" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B353" s="92"/>
       <c r="C353" s="92"/>
@@ -14368,9 +14321,9 @@
       <c r="X353" s="93"/>
       <c r="Y353" s="93"/>
     </row>
-    <row r="354" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A354" s="95" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B354" s="92">
         <v>0.4</v>
@@ -14400,9 +14353,9 @@
       <c r="X354" s="93"/>
       <c r="Y354" s="93"/>
     </row>
-    <row r="355" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A355" s="95" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B355" s="92"/>
       <c r="C355" s="92"/>
@@ -14432,9 +14385,9 @@
       <c r="X355" s="93"/>
       <c r="Y355" s="93"/>
     </row>
-    <row r="356" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A356" s="95" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B356" s="92"/>
       <c r="C356" s="92"/>
@@ -14468,9 +14421,9 @@
       <c r="X356" s="93"/>
       <c r="Y356" s="93"/>
     </row>
-    <row r="357" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A357" s="95" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B357" s="92">
         <v>0.02</v>
@@ -14498,9 +14451,9 @@
       <c r="X357" s="93"/>
       <c r="Y357" s="93"/>
     </row>
-    <row r="358" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A358" s="95" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B358" s="92"/>
       <c r="C358" s="92">
@@ -14534,9 +14487,9 @@
       <c r="X358" s="93"/>
       <c r="Y358" s="93"/>
     </row>
-    <row r="359" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A359" s="95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B359" s="92">
         <v>0.16</v>
@@ -14566,9 +14519,9 @@
       <c r="X359" s="93"/>
       <c r="Y359" s="93"/>
     </row>
-    <row r="360" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A360" s="95" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B360" s="92"/>
       <c r="C360" s="92"/>
@@ -14598,9 +14551,9 @@
       <c r="X360" s="93"/>
       <c r="Y360" s="93"/>
     </row>
-    <row r="361" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A361" s="95" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B361" s="92"/>
       <c r="C361" s="92"/>
@@ -14626,9 +14579,9 @@
       <c r="X361" s="93"/>
       <c r="Y361" s="93"/>
     </row>
-    <row r="362" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A362" s="95" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B362" s="92"/>
       <c r="C362" s="92"/>
@@ -14658,9 +14611,9 @@
       <c r="X362" s="93"/>
       <c r="Y362" s="93"/>
     </row>
-    <row r="363" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A363" s="95" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B363" s="92"/>
       <c r="C363" s="92"/>
@@ -14688,9 +14641,9 @@
       <c r="X363" s="93"/>
       <c r="Y363" s="93"/>
     </row>
-    <row r="364" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A364" s="95" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B364" s="92"/>
       <c r="C364" s="92"/>
@@ -14718,9 +14671,9 @@
       <c r="X364" s="93"/>
       <c r="Y364" s="93"/>
     </row>
-    <row r="365" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A365" s="95" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B365" s="92"/>
       <c r="C365" s="92"/>
@@ -14748,9 +14701,9 @@
       <c r="X365" s="93"/>
       <c r="Y365" s="93"/>
     </row>
-    <row r="366" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" s="95" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B366" s="92"/>
       <c r="C366" s="92"/>
@@ -14778,9 +14731,9 @@
       <c r="X366" s="93"/>
       <c r="Y366" s="93"/>
     </row>
-    <row r="367" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="95" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B367" s="92">
         <v>0.12</v>
@@ -14808,9 +14761,9 @@
       <c r="X367" s="93"/>
       <c r="Y367" s="93"/>
     </row>
-    <row r="368" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="95" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B368" s="92"/>
       <c r="C368" s="92"/>
@@ -14840,9 +14793,9 @@
       <c r="X368" s="93"/>
       <c r="Y368" s="93"/>
     </row>
-    <row r="369" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A369" s="95" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B369" s="92">
         <v>0</v>
@@ -14872,9 +14825,9 @@
       <c r="X369" s="93"/>
       <c r="Y369" s="93"/>
     </row>
-    <row r="370" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A370" s="95" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B370" s="92"/>
       <c r="C370" s="92"/>
@@ -14904,9 +14857,9 @@
       <c r="X370" s="93"/>
       <c r="Y370" s="93"/>
     </row>
-    <row r="371" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A371" s="95" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B371" s="92">
         <v>0.01</v>
@@ -14940,9 +14893,9 @@
       <c r="X371" s="93"/>
       <c r="Y371" s="93"/>
     </row>
-    <row r="372" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A372" s="95" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B372" s="92"/>
       <c r="C372" s="92"/>
@@ -14972,9 +14925,9 @@
       <c r="X372" s="93"/>
       <c r="Y372" s="93"/>
     </row>
-    <row r="373" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A373" s="95" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B373" s="92"/>
       <c r="C373" s="92"/>
@@ -15002,9 +14955,9 @@
       <c r="X373" s="93"/>
       <c r="Y373" s="93"/>
     </row>
-    <row r="374" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A374" s="95" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B374" s="92"/>
       <c r="C374" s="92"/>
@@ -15034,9 +14987,9 @@
       <c r="X374" s="93"/>
       <c r="Y374" s="93"/>
     </row>
-    <row r="375" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="95" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B375" s="92"/>
       <c r="C375" s="92"/>
@@ -15062,9 +15015,9 @@
       <c r="X375" s="93"/>
       <c r="Y375" s="93"/>
     </row>
-    <row r="376" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="95" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B376" s="92"/>
       <c r="C376" s="92"/>
@@ -15092,9 +15045,9 @@
       <c r="X376" s="93"/>
       <c r="Y376" s="93"/>
     </row>
-    <row r="377" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" s="95" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B377" s="92"/>
       <c r="C377" s="92"/>
@@ -15126,9 +15079,9 @@
       <c r="X377" s="93"/>
       <c r="Y377" s="93"/>
     </row>
-    <row r="378" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A378" s="95" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B378" s="92"/>
       <c r="C378" s="92"/>
@@ -15160,9 +15113,9 @@
       <c r="X378" s="93"/>
       <c r="Y378" s="93"/>
     </row>
-    <row r="379" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A379" s="110" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B379" s="107"/>
       <c r="C379" s="107">
@@ -15211,13 +15164,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="111"/>
       <c r="B1" s="111"/>
       <c r="C1" s="77" t="s">
@@ -15269,88 +15222,88 @@
       </c>
       <c r="Z1" s="80"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="111"/>
       <c r="B2" s="111"/>
       <c r="C2" s="81" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="O2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="R2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="S2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="U2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="V2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="W2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="X2" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y2" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z2" s="82" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>520</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="I2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="J2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="K2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="L2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="M2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="N2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="P2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="R2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="S2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="T2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="U2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="V2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="W2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="X2" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y2" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z2" s="82" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>523</v>
       </c>
       <c r="C3" s="84">
         <v>1850.72</v>
@@ -15401,7 +15354,7 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="61"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="60"/>
       <c r="B4" s="75" t="s">
         <v>59</v>
@@ -15479,10 +15432,10 @@
         <v>24.609000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="60"/>
       <c r="B5" s="75" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="30">
@@ -15528,10 +15481,10 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="61"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="60"/>
       <c r="B6" s="75" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="61"/>
@@ -15582,10 +15535,10 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="60"/>
       <c r="B7" s="75" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="64"/>
@@ -15644,12 +15597,12 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="61"/>
@@ -15696,10 +15649,10 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="60"/>
       <c r="B9" s="75" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C9" s="30">
         <v>72.319999999999993</v>
@@ -15762,10 +15715,10 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="60"/>
       <c r="B10" s="75" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C10" s="30">
         <v>12.52</v>
@@ -15820,10 +15773,10 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="60"/>
       <c r="B11" s="75" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="61"/>
@@ -15854,10 +15807,10 @@
       <c r="Y11" s="30"/>
       <c r="Z11" s="61"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="60"/>
       <c r="B12" s="75" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C12" s="30">
         <v>16.920000000000002</v>
@@ -15928,10 +15881,10 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="60"/>
       <c r="B13" s="75" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C13" s="30">
         <v>20.149999999999999</v>
@@ -15986,10 +15939,10 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="61"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="62"/>
       <c r="B14" s="87" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C14" s="88">
         <v>352.49</v>

--- a/model_material/0_Viola_data/Viola_all_data.xlsx
+++ b/model_material/0_Viola_data/Viola_all_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="969"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="969" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Building_info_Viola" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rhythima Shinde</author>
+  </authors>
+  <commentList>
+    <comment ref="A221" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+scenario</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A321" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+scenario</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="532">
   <si>
     <t>mfh01</t>
   </si>
@@ -1653,7 +1711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1717,8 +1775,41 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1759,6 +1850,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
         <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1939,7 +2036,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -2152,6 +2249,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2528,21 +2635,21 @@
   </sheetPr>
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
       <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="2" customWidth="1"/>
-    <col min="3" max="13" width="18.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
+    <col min="3" max="13" width="18.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2581,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2622,7 +2729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2663,7 +2770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -2696,7 +2803,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
@@ -2729,7 +2836,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -2762,7 +2869,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
@@ -2795,7 +2902,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -2836,7 +2943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
@@ -2877,7 +2984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -2918,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -2959,7 +3066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>46</v>
       </c>
@@ -3000,7 +3107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>49</v>
       </c>
@@ -3041,7 +3148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
@@ -3058,7 +3165,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -3099,7 +3206,7 @@
         <v>3992.28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
@@ -3140,7 +3247,7 @@
         <v>1022.99</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -3181,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>57</v>
       </c>
@@ -3198,7 +3305,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
@@ -3239,7 +3346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>63</v>
       </c>
@@ -3278,7 +3385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>64</v>
       </c>
@@ -3307,7 +3414,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3348,7 +3455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>72</v>
       </c>
@@ -3389,7 +3496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>76</v>
       </c>
@@ -3406,7 +3513,7 @@
       <c r="L24" s="28"/>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>77</v>
       </c>
@@ -3447,7 +3554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>80</v>
       </c>
@@ -3488,7 +3595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>81</v>
       </c>
@@ -3516,7 +3623,7 @@
       <c r="L27" s="17"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>82</v>
       </c>
@@ -3557,7 +3664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>81</v>
       </c>
@@ -3576,7 +3683,7 @@
       <c r="L29" s="17"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>84</v>
       </c>
@@ -3595,7 +3702,7 @@
       <c r="L30" s="17"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>85</v>
       </c>
@@ -3612,7 +3719,7 @@
       <c r="L31" s="28"/>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>86</v>
       </c>
@@ -3653,7 +3760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>93</v>
       </c>
@@ -3686,7 +3793,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>94</v>
       </c>
@@ -3727,7 +3834,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>95</v>
       </c>
@@ -3746,7 +3853,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="27"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>96</v>
       </c>
@@ -3763,7 +3870,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>97</v>
       </c>
@@ -3782,7 +3889,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>98</v>
       </c>
@@ -3823,7 +3930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>102</v>
       </c>
@@ -3860,7 +3967,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -3901,7 +4008,7 @@
         <v>252.3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>104</v>
       </c>
@@ -3927,7 +4034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>108</v>
       </c>
@@ -3951,7 +4058,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
@@ -3977,7 +4084,7 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>110</v>
       </c>
@@ -3992,7 +4099,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>112</v>
       </c>
@@ -4007,7 +4114,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -4022,7 +4129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>114</v>
       </c>
@@ -4039,7 +4146,7 @@
       <c r="L47" s="28"/>
       <c r="M47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>115</v>
       </c>
@@ -4080,7 +4187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>118</v>
       </c>
@@ -4121,7 +4228,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>119</v>
       </c>
@@ -4138,7 +4245,7 @@
       <c r="L50" s="28"/>
       <c r="M50" s="29"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>120</v>
       </c>
@@ -4179,7 +4286,7 @@
         <v>591.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>121</v>
       </c>
@@ -4220,7 +4327,7 @@
         <v>168.75</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>122</v>
       </c>
@@ -4261,7 +4368,7 @@
         <v>1354.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>123</v>
       </c>
@@ -4302,7 +4409,7 @@
         <v>734.5</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>124</v>
       </c>
@@ -4341,7 +4448,7 @@
       </c>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>125</v>
       </c>
@@ -4382,7 +4489,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>126</v>
       </c>
@@ -4421,7 +4528,7 @@
       </c>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
@@ -4460,7 +4567,7 @@
       </c>
       <c r="M58" s="27"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>137</v>
       </c>
@@ -4499,7 +4606,7 @@
       </c>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>138</v>
       </c>
@@ -4538,7 +4645,7 @@
       </c>
       <c r="M60" s="27"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>139</v>
       </c>
@@ -4577,7 +4684,7 @@
       </c>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>140</v>
       </c>
@@ -4616,7 +4723,7 @@
       </c>
       <c r="M62" s="27"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>141</v>
       </c>
@@ -4657,7 +4764,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>153</v>
       </c>
@@ -4698,7 +4805,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>154</v>
       </c>
@@ -4739,7 +4846,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>155</v>
       </c>
@@ -4780,7 +4887,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>157</v>
       </c>
@@ -4821,7 +4928,7 @@
         <v>1354.97</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
         <v>159</v>
       </c>
@@ -4862,21 +4969,21 @@
         <v>173.02</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="47"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
   </sheetData>
@@ -4906,17 +5013,17 @@
       <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="48" customWidth="1"/>
     <col min="3" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="25" style="48" customWidth="1"/>
-    <col min="7" max="9" width="25.54296875" style="2" customWidth="1"/>
-    <col min="10" max="13" width="21.54296875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="25.5703125" style="2" customWidth="1"/>
+    <col min="10" max="13" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
@@ -4954,12 +5061,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>162</v>
       </c>
@@ -4967,7 +5074,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>163</v>
       </c>
@@ -4975,7 +5082,7 @@
         <v>462.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>164</v>
       </c>
@@ -4998,7 +5105,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -5015,7 +5122,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
@@ -5035,7 +5142,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
@@ -5061,7 +5168,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>168</v>
       </c>
@@ -5081,7 +5188,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>169</v>
       </c>
@@ -5101,24 +5208,24 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:13" s="89" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>173</v>
       </c>
@@ -5159,7 +5266,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>185</v>
       </c>
@@ -5200,7 +5307,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>194</v>
       </c>
@@ -5241,7 +5348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>198</v>
       </c>
@@ -5259,7 +5366,7 @@
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>200</v>
       </c>
@@ -5300,7 +5407,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>201</v>
       </c>
@@ -5341,7 +5448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>214</v>
       </c>
@@ -5382,7 +5489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>215</v>
       </c>
@@ -5423,7 +5530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>223</v>
       </c>
@@ -5451,7 +5558,7 @@
       </c>
       <c r="L23" s="93"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>230</v>
       </c>
@@ -5492,7 +5599,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>231</v>
       </c>
@@ -5533,7 +5640,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>236</v>
       </c>
@@ -5574,7 +5681,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>242</v>
       </c>
@@ -5615,7 +5722,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>249</v>
       </c>
@@ -5649,7 +5756,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>200</v>
       </c>
@@ -5687,19 +5794,19 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54"/>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55"/>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56"/>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57"/>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58"/>
     </row>
   </sheetData>
@@ -5709,37 +5816,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFA9D18E"/>
   </sheetPr>
-  <dimension ref="A1:AB379"/>
+  <dimension ref="A1:AB381"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A379" sqref="A379"/>
-      <selection pane="topRight" activeCell="A220" sqref="A220"/>
+      <selection pane="topRight" activeCell="M322" sqref="A295:M322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>250</v>
       </c>
@@ -5825,7 +5932,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>278</v>
       </c>
@@ -5911,7 +6018,7 @@
         <v>1073.03</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>279</v>
       </c>
@@ -5943,7 +6050,7 @@
       <c r="AA3" s="58"/>
       <c r="AB3" s="59"/>
     </row>
-    <row r="4" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>280</v>
       </c>
@@ -5985,7 +6092,7 @@
       <c r="AA4" s="30"/>
       <c r="AB4" s="61"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>281</v>
       </c>
@@ -6029,7 +6136,7 @@
       <c r="AA5" s="30"/>
       <c r="AB5" s="61"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>282</v>
       </c>
@@ -6063,7 +6170,7 @@
       <c r="AA6" s="30"/>
       <c r="AB6" s="61"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>283</v>
       </c>
@@ -6101,7 +6208,7 @@
       <c r="AA7" s="30"/>
       <c r="AB7" s="61"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>284</v>
       </c>
@@ -6163,7 +6270,7 @@
       <c r="AA8" s="30"/>
       <c r="AB8" s="61"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>285</v>
       </c>
@@ -6197,7 +6304,7 @@
       <c r="AA9" s="30"/>
       <c r="AB9" s="61"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>286</v>
       </c>
@@ -6239,7 +6346,7 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="61"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>287</v>
       </c>
@@ -6279,7 +6386,7 @@
       <c r="AA11" s="30"/>
       <c r="AB11" s="61"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>288</v>
       </c>
@@ -6343,7 +6450,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>289</v>
       </c>
@@ -6370,7 +6477,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="61"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
         <v>290</v>
       </c>
@@ -6410,7 +6517,7 @@
       <c r="AA14" s="30"/>
       <c r="AB14" s="61"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
         <v>291</v>
       </c>
@@ -6474,7 +6581,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="s">
         <v>292</v>
       </c>
@@ -6508,7 +6615,7 @@
       <c r="AA16" s="30"/>
       <c r="AB16" s="61"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="s">
         <v>293</v>
       </c>
@@ -6540,7 +6647,7 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="61"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="95" t="s">
         <v>294</v>
       </c>
@@ -6578,7 +6685,7 @@
       <c r="AA18" s="30"/>
       <c r="AB18" s="61"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
         <v>295</v>
       </c>
@@ -6634,7 +6741,7 @@
       <c r="AA19" s="30"/>
       <c r="AB19" s="61"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>296</v>
       </c>
@@ -6684,7 +6791,7 @@
       </c>
       <c r="AB20" s="61"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>297</v>
       </c>
@@ -6718,7 +6825,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
         <v>298</v>
       </c>
@@ -6752,7 +6859,7 @@
       <c r="AA22" s="30"/>
       <c r="AB22" s="61"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
         <v>299</v>
       </c>
@@ -6786,7 +6893,7 @@
       <c r="AA23" s="30"/>
       <c r="AB23" s="61"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>300</v>
       </c>
@@ -6824,7 +6931,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
         <v>301</v>
       </c>
@@ -6860,7 +6967,7 @@
       </c>
       <c r="AB25" s="61"/>
     </row>
-    <row r="26" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
         <v>302</v>
       </c>
@@ -6898,7 +7005,7 @@
       <c r="AA26" s="30"/>
       <c r="AB26" s="61"/>
     </row>
-    <row r="27" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="97" t="s">
         <v>303</v>
       </c>
@@ -6936,7 +7043,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>304</v>
       </c>
@@ -6984,7 +7091,7 @@
       <c r="AA28" s="63"/>
       <c r="AB28" s="64"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>160</v>
       </c>
@@ -7016,7 +7123,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>278</v>
       </c>
@@ -7061,7 +7168,7 @@
       <c r="V31" s="54"/>
       <c r="W31" s="56"/>
     </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
         <v>279</v>
       </c>
@@ -7096,7 +7203,7 @@
       <c r="V32" s="54"/>
       <c r="W32" s="54"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>307</v>
       </c>
@@ -7114,7 +7221,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>308</v>
       </c>
@@ -7130,7 +7237,7 @@
       <c r="I34" s="30"/>
       <c r="J34" s="61"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
         <v>309</v>
       </c>
@@ -7146,7 +7253,7 @@
       <c r="I35" s="30"/>
       <c r="J35" s="61"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
         <v>284</v>
       </c>
@@ -7166,7 +7273,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="61"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>310</v>
       </c>
@@ -7182,7 +7289,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="61"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>288</v>
       </c>
@@ -7198,7 +7305,7 @@
       <c r="I38" s="30"/>
       <c r="J38" s="61"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
         <v>290</v>
       </c>
@@ -7216,7 +7323,7 @@
       <c r="I39" s="30"/>
       <c r="J39" s="61"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
         <v>311</v>
       </c>
@@ -7232,7 +7339,7 @@
       <c r="I40" s="30"/>
       <c r="J40" s="61"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
         <v>291</v>
       </c>
@@ -7248,7 +7355,7 @@
       <c r="I41" s="30"/>
       <c r="J41" s="61"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>292</v>
       </c>
@@ -7264,7 +7371,7 @@
       <c r="I42" s="30"/>
       <c r="J42" s="61"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>312</v>
       </c>
@@ -7280,7 +7387,7 @@
       <c r="I43" s="30"/>
       <c r="J43" s="61"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
         <v>313</v>
       </c>
@@ -7296,7 +7403,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
         <v>314</v>
       </c>
@@ -7312,7 +7419,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
         <v>296</v>
       </c>
@@ -7330,7 +7437,7 @@
       </c>
       <c r="J46" s="61"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
         <v>315</v>
       </c>
@@ -7346,7 +7453,7 @@
       </c>
       <c r="J47" s="61"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
         <v>297</v>
       </c>
@@ -7362,7 +7469,7 @@
       <c r="I48" s="30"/>
       <c r="J48" s="61"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>316</v>
       </c>
@@ -7378,7 +7485,7 @@
       <c r="I49" s="30"/>
       <c r="J49" s="61"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="s">
         <v>317</v>
       </c>
@@ -7394,7 +7501,7 @@
       <c r="I50" s="30"/>
       <c r="J50" s="61"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>318</v>
       </c>
@@ -7410,7 +7517,7 @@
       <c r="I51" s="30"/>
       <c r="J51" s="61"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="60" t="s">
         <v>319</v>
       </c>
@@ -7426,7 +7533,7 @@
       <c r="I52" s="30"/>
       <c r="J52" s="61"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="s">
         <v>320</v>
       </c>
@@ -7444,7 +7551,7 @@
       <c r="I53" s="30"/>
       <c r="J53" s="61"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>321</v>
       </c>
@@ -7460,7 +7567,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>322</v>
       </c>
@@ -7476,7 +7583,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>323</v>
       </c>
@@ -7492,7 +7599,7 @@
       <c r="I56" s="30"/>
       <c r="J56" s="61"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>324</v>
       </c>
@@ -7508,7 +7615,7 @@
       </c>
       <c r="J57" s="61"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="s">
         <v>304</v>
       </c>
@@ -7528,7 +7635,7 @@
       <c r="I58" s="63"/>
       <c r="J58" s="64"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>325</v>
       </c>
@@ -7575,7 +7682,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
         <v>278</v>
       </c>
@@ -7623,7 +7730,7 @@
       <c r="S61" s="54"/>
       <c r="T61" s="56"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="57" t="s">
         <v>279</v>
       </c>
@@ -7655,7 +7762,7 @@
       <c r="S62" s="54"/>
       <c r="T62" s="54"/>
     </row>
-    <row r="63" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>282</v>
       </c>
@@ -7680,7 +7787,7 @@
       <c r="N63" s="30"/>
       <c r="O63" s="61"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
         <v>284</v>
       </c>
@@ -7703,7 +7810,7 @@
       <c r="N64" s="30"/>
       <c r="O64" s="61"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>328</v>
       </c>
@@ -7724,7 +7831,7 @@
       <c r="N65" s="30"/>
       <c r="O65" s="61"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="s">
         <v>329</v>
       </c>
@@ -7745,7 +7852,7 @@
       <c r="N66" s="30"/>
       <c r="O66" s="61"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="s">
         <v>287</v>
       </c>
@@ -7768,7 +7875,7 @@
       <c r="N67" s="30"/>
       <c r="O67" s="61"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="s">
         <v>330</v>
       </c>
@@ -7789,7 +7896,7 @@
       <c r="N68" s="30"/>
       <c r="O68" s="61"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="s">
         <v>331</v>
       </c>
@@ -7812,7 +7919,7 @@
       <c r="N69" s="30"/>
       <c r="O69" s="61"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="60" t="s">
         <v>312</v>
       </c>
@@ -7835,7 +7942,7 @@
       <c r="N70" s="30"/>
       <c r="O70" s="61"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
         <v>332</v>
       </c>
@@ -7858,7 +7965,7 @@
       <c r="N71" s="30"/>
       <c r="O71" s="61"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
         <v>333</v>
       </c>
@@ -7881,7 +7988,7 @@
       <c r="N72" s="30"/>
       <c r="O72" s="61"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
         <v>334</v>
       </c>
@@ -7904,7 +8011,7 @@
       <c r="N73" s="30"/>
       <c r="O73" s="61"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
         <v>335</v>
       </c>
@@ -7925,7 +8032,7 @@
       <c r="N74" s="30"/>
       <c r="O74" s="61"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
         <v>336</v>
       </c>
@@ -7946,7 +8053,7 @@
       <c r="N75" s="30"/>
       <c r="O75" s="61"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
         <v>295</v>
       </c>
@@ -7969,7 +8076,7 @@
       <c r="N76" s="30"/>
       <c r="O76" s="61"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
         <v>70</v>
       </c>
@@ -7992,7 +8099,7 @@
       <c r="N77" s="30"/>
       <c r="O77" s="61"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
         <v>337</v>
       </c>
@@ -8021,7 +8128,7 @@
       <c r="N78" s="30"/>
       <c r="O78" s="61"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="95" t="s">
         <v>297</v>
       </c>
@@ -8044,7 +8151,7 @@
       <c r="N79" s="30"/>
       <c r="O79" s="61"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="95" t="s">
         <v>338</v>
       </c>
@@ -8069,7 +8176,7 @@
       <c r="N80" s="30"/>
       <c r="O80" s="61"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="95" t="s">
         <v>317</v>
       </c>
@@ -8090,7 +8197,7 @@
       <c r="N81" s="30"/>
       <c r="O81" s="61"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="95" t="s">
         <v>339</v>
       </c>
@@ -8113,7 +8220,7 @@
       <c r="N82" s="30"/>
       <c r="O82" s="61"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="95" t="s">
         <v>340</v>
       </c>
@@ -8134,7 +8241,7 @@
       <c r="N83" s="30"/>
       <c r="O83" s="61"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="95" t="s">
         <v>341</v>
       </c>
@@ -8155,7 +8262,7 @@
       <c r="N84" s="30"/>
       <c r="O84" s="61"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="95" t="s">
         <v>342</v>
       </c>
@@ -8178,7 +8285,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="95" t="s">
         <v>343</v>
       </c>
@@ -8201,7 +8308,7 @@
       <c r="N86" s="30"/>
       <c r="O86" s="61"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="95" t="s">
         <v>303</v>
       </c>
@@ -8222,7 +8329,7 @@
       <c r="N87" s="30"/>
       <c r="O87" s="61"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="95" t="s">
         <v>344</v>
       </c>
@@ -8243,7 +8350,7 @@
       <c r="N88" s="30"/>
       <c r="O88" s="61"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
         <v>345</v>
       </c>
@@ -8266,7 +8373,7 @@
       <c r="N89" s="30"/>
       <c r="O89" s="61"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
         <v>346</v>
       </c>
@@ -8289,7 +8396,7 @@
       <c r="N90" s="30"/>
       <c r="O90" s="61"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
         <v>347</v>
       </c>
@@ -8310,7 +8417,7 @@
       <c r="N91" s="30"/>
       <c r="O91" s="61"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
         <v>348</v>
       </c>
@@ -8331,7 +8438,7 @@
       <c r="N92" s="30"/>
       <c r="O92" s="61"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
         <v>349</v>
       </c>
@@ -8352,7 +8459,7 @@
       <c r="N93" s="30"/>
       <c r="O93" s="61"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
         <v>350</v>
       </c>
@@ -8373,7 +8480,7 @@
       <c r="N94" s="30"/>
       <c r="O94" s="61"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="s">
         <v>351</v>
       </c>
@@ -8394,7 +8501,7 @@
       <c r="N95" s="30"/>
       <c r="O95" s="61"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
         <v>352</v>
       </c>
@@ -8417,7 +8524,7 @@
       <c r="N96" s="30"/>
       <c r="O96" s="61"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
         <v>353</v>
       </c>
@@ -8438,7 +8545,7 @@
       <c r="N97" s="30"/>
       <c r="O97" s="61"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="62" t="s">
         <v>304</v>
       </c>
@@ -8463,7 +8570,7 @@
       <c r="N98" s="63"/>
       <c r="O98" s="64"/>
     </row>
-    <row r="100" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
         <v>354</v>
       </c>
@@ -8501,7 +8608,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="55" t="s">
         <v>278</v>
       </c>
@@ -8547,7 +8654,7 @@
       <c r="S101" s="54"/>
       <c r="T101" s="56"/>
     </row>
-    <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="57" t="s">
         <v>279</v>
       </c>
@@ -8579,7 +8686,7 @@
       <c r="S102" s="54"/>
       <c r="T102" s="54"/>
     </row>
-    <row r="103" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="s">
         <v>367</v>
       </c>
@@ -8599,7 +8706,7 @@
       <c r="K103" s="30"/>
       <c r="L103" s="61"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="s">
         <v>307</v>
       </c>
@@ -8619,7 +8726,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="60" t="s">
         <v>368</v>
       </c>
@@ -8637,7 +8744,7 @@
       <c r="K105" s="30"/>
       <c r="L105" s="61"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="60" t="s">
         <v>369</v>
       </c>
@@ -8659,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="60" t="s">
         <v>285</v>
       </c>
@@ -8677,7 +8784,7 @@
       <c r="K107" s="30"/>
       <c r="L107" s="61"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="60" t="s">
         <v>284</v>
       </c>
@@ -8701,7 +8808,7 @@
       <c r="K108" s="30"/>
       <c r="L108" s="61"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="60" t="s">
         <v>329</v>
       </c>
@@ -8719,7 +8826,7 @@
       <c r="K109" s="30"/>
       <c r="L109" s="61"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="60" t="s">
         <v>310</v>
       </c>
@@ -8737,7 +8844,7 @@
       <c r="K110" s="30"/>
       <c r="L110" s="61"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="60" t="s">
         <v>288</v>
       </c>
@@ -8765,7 +8872,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="60" t="s">
         <v>370</v>
       </c>
@@ -8787,7 +8894,7 @@
       <c r="K112" s="30"/>
       <c r="L112" s="61"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="60" t="s">
         <v>291</v>
       </c>
@@ -8807,7 +8914,7 @@
       <c r="K113" s="30"/>
       <c r="L113" s="61"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="60" t="s">
         <v>371</v>
       </c>
@@ -8825,7 +8932,7 @@
       <c r="K114" s="30"/>
       <c r="L114" s="61"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="60" t="s">
         <v>372</v>
       </c>
@@ -8845,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="60" t="s">
         <v>373</v>
       </c>
@@ -8865,7 +8972,7 @@
       <c r="K116" s="30"/>
       <c r="L116" s="61"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="60" t="s">
         <v>296</v>
       </c>
@@ -8895,7 +9002,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="60" t="s">
         <v>338</v>
       </c>
@@ -8913,7 +9020,7 @@
       <c r="K118" s="30"/>
       <c r="L118" s="61"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="60" t="s">
         <v>374</v>
       </c>
@@ -8937,7 +9044,7 @@
       <c r="K119" s="30"/>
       <c r="L119" s="61"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="60" t="s">
         <v>375</v>
       </c>
@@ -8953,7 +9060,7 @@
       <c r="K120" s="30"/>
       <c r="L120" s="61"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="60" t="s">
         <v>376</v>
       </c>
@@ -8973,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="60" t="s">
         <v>377</v>
       </c>
@@ -8995,7 +9102,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="60" t="s">
         <v>376</v>
       </c>
@@ -9013,7 +9120,7 @@
       <c r="K123" s="30"/>
       <c r="L123" s="61"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="60" t="s">
         <v>378</v>
       </c>
@@ -9031,7 +9138,7 @@
       <c r="K124" s="30"/>
       <c r="L124" s="61"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="60" t="s">
         <v>379</v>
       </c>
@@ -9049,7 +9156,7 @@
       <c r="K125" s="30"/>
       <c r="L125" s="61"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="60" t="s">
         <v>380</v>
       </c>
@@ -9067,7 +9174,7 @@
       </c>
       <c r="L126" s="61"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="60" t="s">
         <v>381</v>
       </c>
@@ -9085,7 +9192,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="62" t="s">
         <v>304</v>
       </c>
@@ -9109,7 +9216,7 @@
       <c r="K128" s="63"/>
       <c r="L128" s="64"/>
     </row>
-    <row r="130" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="50" t="s">
         <v>382</v>
       </c>
@@ -9162,7 +9269,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="55" t="s">
         <v>278</v>
       </c>
@@ -9218,7 +9325,7 @@
       <c r="S131" s="54"/>
       <c r="T131" s="56"/>
     </row>
-    <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="57" t="s">
         <v>279</v>
       </c>
@@ -9246,7 +9353,7 @@
       <c r="S132" s="54"/>
       <c r="T132" s="54"/>
     </row>
-    <row r="133" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A133" s="60" t="s">
         <v>282</v>
       </c>
@@ -9272,7 +9379,7 @@
       </c>
       <c r="R133" s="30"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="60" t="s">
         <v>398</v>
       </c>
@@ -9298,7 +9405,7 @@
       <c r="Q134" s="69"/>
       <c r="R134" s="30"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="95" t="s">
         <v>284</v>
       </c>
@@ -9330,7 +9437,7 @@
       <c r="Q135" s="69"/>
       <c r="R135" s="30"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="95" t="s">
         <v>399</v>
       </c>
@@ -9354,7 +9461,7 @@
       </c>
       <c r="R136" s="30"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="95" t="s">
         <v>310</v>
       </c>
@@ -9382,7 +9489,7 @@
       <c r="Q137" s="69"/>
       <c r="R137" s="30"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="95" t="s">
         <v>288</v>
       </c>
@@ -9414,7 +9521,7 @@
       </c>
       <c r="R138" s="30"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="95" t="s">
         <v>290</v>
       </c>
@@ -9442,7 +9549,7 @@
       <c r="Q139" s="32"/>
       <c r="R139" s="30"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="95" t="s">
         <v>295</v>
       </c>
@@ -9470,7 +9577,7 @@
       <c r="Q140" s="69"/>
       <c r="R140" s="30"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="95" t="s">
         <v>70</v>
       </c>
@@ -9496,7 +9603,7 @@
       </c>
       <c r="R141" s="30"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="95" t="s">
         <v>337</v>
       </c>
@@ -9524,7 +9631,7 @@
       <c r="Q142" s="69"/>
       <c r="R142" s="30"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="95" t="s">
         <v>296</v>
       </c>
@@ -9556,7 +9663,7 @@
       <c r="Q143" s="61"/>
       <c r="R143" s="30"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="95" t="s">
         <v>400</v>
       </c>
@@ -9580,7 +9687,7 @@
       <c r="Q144" s="69"/>
       <c r="R144" s="30"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="95" t="s">
         <v>338</v>
       </c>
@@ -9604,7 +9711,7 @@
       <c r="Q145" s="69"/>
       <c r="R145" s="30"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="95" t="s">
         <v>401</v>
       </c>
@@ -9628,7 +9735,7 @@
       <c r="Q146" s="69"/>
       <c r="R146" s="30"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="95" t="s">
         <v>402</v>
       </c>
@@ -9654,7 +9761,7 @@
       <c r="Q147" s="69"/>
       <c r="R147" s="30"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="95" t="s">
         <v>302</v>
       </c>
@@ -9682,7 +9789,7 @@
       <c r="Q148" s="69"/>
       <c r="R148" s="30"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="60" t="s">
         <v>403</v>
       </c>
@@ -9708,7 +9815,7 @@
       </c>
       <c r="R149" s="30"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="60" t="s">
         <v>404</v>
       </c>
@@ -9742,7 +9849,7 @@
       </c>
       <c r="R150" s="30"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="60" t="s">
         <v>405</v>
       </c>
@@ -9766,7 +9873,7 @@
       <c r="Q151" s="32"/>
       <c r="R151" s="30"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="60" t="s">
         <v>341</v>
       </c>
@@ -9792,7 +9899,7 @@
       <c r="Q152" s="69"/>
       <c r="R152" s="30"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="60" t="s">
         <v>320</v>
       </c>
@@ -9820,7 +9927,7 @@
       <c r="Q153" s="69"/>
       <c r="R153" s="30"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="60" t="s">
         <v>344</v>
       </c>
@@ -9846,7 +9953,7 @@
       <c r="Q154" s="69"/>
       <c r="R154" s="30"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="60" t="s">
         <v>406</v>
       </c>
@@ -9874,7 +9981,7 @@
       <c r="Q155" s="69"/>
       <c r="R155" s="30"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="62" t="s">
         <v>304</v>
       </c>
@@ -9910,7 +10017,7 @@
       </c>
       <c r="R156" s="30"/>
     </row>
-    <row r="158" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="50" t="s">
         <v>407</v>
       </c>
@@ -9948,7 +10055,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="53" t="s">
         <v>278</v>
       </c>
@@ -9992,7 +10099,7 @@
       <c r="S159" s="54"/>
       <c r="T159" s="56"/>
     </row>
-    <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="57" t="s">
         <v>279</v>
       </c>
@@ -10022,7 +10129,7 @@
       <c r="S160" s="54"/>
       <c r="T160" s="54"/>
     </row>
-    <row r="161" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A161" s="60" t="s">
         <v>282</v>
       </c>
@@ -10040,7 +10147,7 @@
       <c r="K161" s="30"/>
       <c r="L161" s="32"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="60" t="s">
         <v>419</v>
       </c>
@@ -10058,7 +10165,7 @@
       </c>
       <c r="L162" s="32"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="60" t="s">
         <v>284</v>
       </c>
@@ -10078,7 +10185,7 @@
       <c r="K163" s="30"/>
       <c r="L163" s="32"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="60" t="s">
         <v>310</v>
       </c>
@@ -10096,7 +10203,7 @@
       <c r="K164" s="30"/>
       <c r="L164" s="32"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="60" t="s">
         <v>330</v>
       </c>
@@ -10118,7 +10225,7 @@
       <c r="K165" s="30"/>
       <c r="L165" s="32"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="60" t="s">
         <v>290</v>
       </c>
@@ -10136,7 +10243,7 @@
       <c r="K166" s="30"/>
       <c r="L166" s="32"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="60" t="s">
         <v>332</v>
       </c>
@@ -10154,7 +10261,7 @@
       <c r="K167" s="30"/>
       <c r="L167" s="32"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="60" t="s">
         <v>333</v>
       </c>
@@ -10172,7 +10279,7 @@
       <c r="K168" s="30"/>
       <c r="L168" s="32"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="60" t="s">
         <v>420</v>
       </c>
@@ -10190,7 +10297,7 @@
       <c r="K169" s="30"/>
       <c r="L169" s="32"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="60" t="s">
         <v>421</v>
       </c>
@@ -10208,7 +10315,7 @@
       <c r="K170" s="30"/>
       <c r="L170" s="32"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="60" t="s">
         <v>337</v>
       </c>
@@ -10232,7 +10339,7 @@
       </c>
       <c r="L171" s="32"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="60" t="s">
         <v>296</v>
       </c>
@@ -10252,7 +10359,7 @@
       </c>
       <c r="L172" s="32"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="60" t="s">
         <v>422</v>
       </c>
@@ -10270,7 +10377,7 @@
       <c r="K173" s="30"/>
       <c r="L173" s="32"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="60" t="s">
         <v>317</v>
       </c>
@@ -10288,7 +10395,7 @@
       </c>
       <c r="L174" s="32"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="60" t="s">
         <v>376</v>
       </c>
@@ -10308,7 +10415,7 @@
       </c>
       <c r="L175" s="32"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="60" t="s">
         <v>339</v>
       </c>
@@ -10326,7 +10433,7 @@
       <c r="K176" s="30"/>
       <c r="L176" s="32"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="60" t="s">
         <v>423</v>
       </c>
@@ -10344,7 +10451,7 @@
       </c>
       <c r="L177" s="32"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="60" t="s">
         <v>424</v>
       </c>
@@ -10362,7 +10469,7 @@
       <c r="K178" s="30"/>
       <c r="L178" s="32"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="60" t="s">
         <v>302</v>
       </c>
@@ -10380,7 +10487,7 @@
       <c r="K179" s="30"/>
       <c r="L179" s="32"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="60" t="s">
         <v>425</v>
       </c>
@@ -10398,7 +10505,7 @@
       <c r="K180" s="30"/>
       <c r="L180" s="32"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="60" t="s">
         <v>426</v>
       </c>
@@ -10416,7 +10523,7 @@
       <c r="K181" s="30"/>
       <c r="L181" s="32"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="60" t="s">
         <v>405</v>
       </c>
@@ -10434,7 +10541,7 @@
       <c r="K182" s="30"/>
       <c r="L182" s="32"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="60" t="s">
         <v>320</v>
       </c>
@@ -10454,7 +10561,7 @@
       <c r="K183" s="30"/>
       <c r="L183" s="32"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="60" t="s">
         <v>343</v>
       </c>
@@ -10472,7 +10579,7 @@
       <c r="K184" s="30"/>
       <c r="L184" s="32"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="60" t="s">
         <v>303</v>
       </c>
@@ -10492,7 +10599,7 @@
       </c>
       <c r="L185" s="32"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="60" t="s">
         <v>427</v>
       </c>
@@ -10512,7 +10619,7 @@
       </c>
       <c r="L186" s="32"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="60" t="s">
         <v>428</v>
       </c>
@@ -10530,7 +10637,7 @@
       <c r="K187" s="30"/>
       <c r="L187" s="32"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="60" t="s">
         <v>429</v>
       </c>
@@ -10548,7 +10655,7 @@
       </c>
       <c r="L188" s="32"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="60" t="s">
         <v>430</v>
       </c>
@@ -10566,7 +10673,7 @@
       <c r="K189" s="30"/>
       <c r="L189" s="32"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="60" t="s">
         <v>350</v>
       </c>
@@ -10584,7 +10691,7 @@
       </c>
       <c r="L190" s="32"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="60" t="s">
         <v>352</v>
       </c>
@@ -10602,7 +10709,7 @@
       <c r="K191" s="30"/>
       <c r="L191" s="32"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="60" t="s">
         <v>304</v>
       </c>
@@ -10620,7 +10727,7 @@
       </c>
       <c r="L192" s="32"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="60" t="s">
         <v>304</v>
       </c>
@@ -10640,7 +10747,7 @@
       <c r="K193" s="30"/>
       <c r="L193" s="32"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="62" t="s">
         <v>431</v>
       </c>
@@ -10658,7 +10765,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="50" t="s">
         <v>432</v>
       </c>
@@ -10696,7 +10803,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="55" t="s">
         <v>278</v>
       </c>
@@ -10732,7 +10839,7 @@
       </c>
       <c r="L197" s="71"/>
     </row>
-    <row r="198" spans="1:12" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="57" t="s">
         <v>279</v>
       </c>
@@ -10758,7 +10865,7 @@
       <c r="K198" s="73"/>
       <c r="L198" s="74"/>
     </row>
-    <row r="199" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A199" s="60" t="s">
         <v>294</v>
       </c>
@@ -10776,7 +10883,7 @@
       <c r="K199" s="30"/>
       <c r="L199" s="61"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="60" t="s">
         <v>284</v>
       </c>
@@ -10800,7 +10907,7 @@
       <c r="K200" s="30"/>
       <c r="L200" s="61"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="60" t="s">
         <v>438</v>
       </c>
@@ -10822,7 +10929,7 @@
       <c r="K201" s="30"/>
       <c r="L201" s="61"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="60" t="s">
         <v>439</v>
       </c>
@@ -10840,7 +10947,7 @@
       <c r="K202" s="30"/>
       <c r="L202" s="61"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="60" t="s">
         <v>440</v>
       </c>
@@ -10862,7 +10969,7 @@
       <c r="K203" s="30"/>
       <c r="L203" s="61"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="60" t="s">
         <v>424</v>
       </c>
@@ -10878,7 +10985,7 @@
       <c r="K204" s="30"/>
       <c r="L204" s="61"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="60" t="s">
         <v>310</v>
       </c>
@@ -10898,7 +11005,7 @@
       <c r="K205" s="30"/>
       <c r="L205" s="61"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="60" t="s">
         <v>441</v>
       </c>
@@ -10918,7 +11025,7 @@
       <c r="K206" s="30"/>
       <c r="L206" s="61"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="60" t="s">
         <v>288</v>
       </c>
@@ -10940,7 +11047,7 @@
       <c r="K207" s="30"/>
       <c r="L207" s="61"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="60" t="s">
         <v>442</v>
       </c>
@@ -10958,7 +11065,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="60" t="s">
         <v>443</v>
       </c>
@@ -10976,7 +11083,7 @@
       </c>
       <c r="L209" s="61"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="60" t="s">
         <v>444</v>
       </c>
@@ -10994,7 +11101,7 @@
       </c>
       <c r="L210" s="61"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="60" t="s">
         <v>282</v>
       </c>
@@ -11014,7 +11121,7 @@
       </c>
       <c r="L211" s="61"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="60" t="s">
         <v>296</v>
       </c>
@@ -11038,7 +11145,7 @@
       <c r="K212" s="30"/>
       <c r="L212" s="61"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="60" t="s">
         <v>304</v>
       </c>
@@ -11060,7 +11167,7 @@
       <c r="K213" s="30"/>
       <c r="L213" s="61"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="60" t="s">
         <v>376</v>
       </c>
@@ -11078,7 +11185,7 @@
       <c r="K214" s="30"/>
       <c r="L214" s="61"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="60" t="s">
         <v>303</v>
       </c>
@@ -11096,7 +11203,7 @@
       <c r="K215" s="30"/>
       <c r="L215" s="61"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="60" t="s">
         <v>290</v>
       </c>
@@ -11118,7 +11225,7 @@
       <c r="K216" s="30"/>
       <c r="L216" s="61"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="60" t="s">
         <v>374</v>
       </c>
@@ -11136,7 +11243,7 @@
       <c r="K217" s="30"/>
       <c r="L217" s="61"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="60" t="s">
         <v>320</v>
       </c>
@@ -11156,7 +11263,7 @@
       <c r="K218" s="30"/>
       <c r="L218" s="61"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="60" t="s">
         <v>291</v>
       </c>
@@ -11176,7 +11283,7 @@
       <c r="K219" s="30"/>
       <c r="L219" s="61"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="60" t="s">
         <v>445</v>
       </c>
@@ -11194,202 +11301,202 @@
       <c r="K220" s="30"/>
       <c r="L220" s="61"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A221" s="62" t="s">
+    <row r="221" spans="1:25" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="112" t="s">
+        <v>404</v>
+      </c>
+      <c r="B221" s="113"/>
+      <c r="C221" s="113"/>
+      <c r="D221" s="113"/>
+      <c r="E221" s="113"/>
+      <c r="F221" s="113">
+        <v>0.16</v>
+      </c>
+      <c r="G221" s="113">
+        <v>0.12</v>
+      </c>
+      <c r="H221" s="113"/>
+      <c r="I221" s="113"/>
+      <c r="J221" s="113"/>
+      <c r="K221" s="113"/>
+      <c r="L221" s="114"/>
+      <c r="M221" s="115"/>
+      <c r="N221" s="115"/>
+      <c r="O221" s="115"/>
+      <c r="P221" s="115"/>
+      <c r="R221" s="115"/>
+      <c r="S221" s="115"/>
+      <c r="T221" s="115"/>
+      <c r="U221" s="115"/>
+      <c r="V221" s="115"/>
+      <c r="W221" s="115"/>
+      <c r="X221" s="115"/>
+      <c r="Y221" s="115"/>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A222" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="B221" s="63"/>
-      <c r="C221" s="63"/>
-      <c r="D221" s="63"/>
-      <c r="E221" s="63"/>
-      <c r="F221" s="63"/>
-      <c r="G221" s="63">
+      <c r="B222" s="63"/>
+      <c r="C222" s="63"/>
+      <c r="D222" s="63"/>
+      <c r="E222" s="63"/>
+      <c r="F222" s="63"/>
+      <c r="G222" s="63">
         <v>0.12</v>
       </c>
-      <c r="H221" s="63"/>
-      <c r="I221" s="63"/>
-      <c r="J221" s="63"/>
-      <c r="K221" s="63"/>
-      <c r="L221" s="64"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A223" s="50" t="s">
+      <c r="H222" s="63"/>
+      <c r="I222" s="63"/>
+      <c r="J222" s="63"/>
+      <c r="K222" s="63"/>
+      <c r="L222" s="64"/>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A224" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="B223" s="51" t="s">
+      <c r="B224" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="C223" s="51" t="s">
+      <c r="C224" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D224" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="E223" s="51" t="s">
+      <c r="E224" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="F223" s="51" t="s">
+      <c r="F224" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="G223" s="51" t="s">
+      <c r="G224" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="H223" s="51" t="s">
+      <c r="H224" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="I223" s="51" t="s">
+      <c r="I224" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="J223" s="51" t="s">
+      <c r="J224" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="K223" s="51" t="s">
+      <c r="K224" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="L223" s="51" t="s">
+      <c r="L224" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="M223" s="51" t="s">
+      <c r="M224" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="N223" s="51" t="s">
+      <c r="N224" s="51" t="s">
         <v>448</v>
       </c>
-      <c r="O223" s="51" t="s">
+      <c r="O224" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="P223" s="52" t="s">
+      <c r="P224" s="52" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A224" s="55" t="s">
+    <row r="225" spans="1:25" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B224" s="70">
+      <c r="B225" s="70">
         <v>178.6</v>
       </c>
-      <c r="C224" s="70">
+      <c r="C225" s="70">
         <v>126.7</v>
       </c>
-      <c r="D224" s="70">
+      <c r="D225" s="70">
         <v>493.4</v>
       </c>
-      <c r="E224" s="70">
+      <c r="E225" s="70">
         <v>441.91</v>
       </c>
-      <c r="F224" s="70">
+      <c r="F225" s="70">
         <v>462.8</v>
       </c>
-      <c r="G224" s="70">
+      <c r="G225" s="70">
         <v>227.4</v>
       </c>
-      <c r="H224" s="70">
+      <c r="H225" s="70">
         <v>46</v>
       </c>
-      <c r="I224" s="70">
+      <c r="I225" s="70">
         <v>398.61</v>
       </c>
-      <c r="J224" s="70">
+      <c r="J225" s="70">
         <v>213</v>
       </c>
-      <c r="K224" s="70">
+      <c r="K225" s="70">
         <v>290.27999999999997</v>
       </c>
-      <c r="L224" s="70">
+      <c r="L225" s="70">
         <v>204.3</v>
       </c>
-      <c r="M224" s="70">
+      <c r="M225" s="70">
         <v>300</v>
       </c>
-      <c r="N224" s="70">
+      <c r="N225" s="70">
         <v>57.9</v>
       </c>
-      <c r="O224" s="70"/>
-      <c r="P224" s="71"/>
-    </row>
-    <row r="225" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="57" t="s">
+      <c r="O225" s="70"/>
+      <c r="P225" s="71"/>
+    </row>
+    <row r="226" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B225" s="73">
+      <c r="B226" s="73">
         <v>0.129</v>
       </c>
-      <c r="C225" s="73">
+      <c r="C226" s="73">
         <v>0.10299999999999999</v>
       </c>
-      <c r="D225" s="73"/>
-      <c r="E225" s="73"/>
-      <c r="F225" s="73">
+      <c r="D226" s="73"/>
+      <c r="E226" s="73"/>
+      <c r="F226" s="73">
         <v>0.10100000000000001</v>
       </c>
-      <c r="G225" s="73">
+      <c r="G226" s="73">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H225" s="73">
+      <c r="H226" s="73">
         <v>0.10100000000000001</v>
       </c>
-      <c r="I225" s="73"/>
-      <c r="J225" s="73"/>
-      <c r="K225" s="73"/>
-      <c r="L225" s="73">
+      <c r="I226" s="73"/>
+      <c r="J226" s="73"/>
+      <c r="K226" s="73"/>
+      <c r="L226" s="73">
         <v>0.10299999999999999</v>
       </c>
-      <c r="M225" s="73"/>
-      <c r="N225" s="73">
+      <c r="M226" s="73"/>
+      <c r="N226" s="73">
         <v>0.10299999999999999</v>
       </c>
-      <c r="O225" s="73"/>
-      <c r="P225" s="74"/>
-    </row>
-    <row r="226" spans="1:25" s="94" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="95" t="s">
+      <c r="O226" s="73"/>
+      <c r="P226" s="74"/>
+    </row>
+    <row r="227" spans="1:25" s="94" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="B226" s="92">
+      <c r="B227" s="92">
         <v>0.03</v>
       </c>
-      <c r="C226" s="92">
+      <c r="C227" s="92">
         <v>0.05</v>
       </c>
-      <c r="D226" s="92">
+      <c r="D227" s="92">
         <v>0.05</v>
       </c>
-      <c r="E226" s="92">
+      <c r="E227" s="92">
         <v>0.05</v>
       </c>
-      <c r="F226" s="92"/>
-      <c r="G226" s="92"/>
-      <c r="H226" s="92"/>
-      <c r="I226" s="92"/>
-      <c r="J226" s="92"/>
-      <c r="K226" s="92"/>
-      <c r="L226" s="92"/>
-      <c r="M226" s="92"/>
-      <c r="N226" s="92"/>
-      <c r="O226" s="92"/>
-      <c r="P226" s="103"/>
-      <c r="R226" s="93"/>
-      <c r="S226" s="93"/>
-      <c r="T226" s="93"/>
-      <c r="U226" s="93"/>
-      <c r="V226" s="93"/>
-      <c r="W226" s="93"/>
-      <c r="X226" s="93"/>
-      <c r="Y226" s="93"/>
-    </row>
-    <row r="227" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="95" t="s">
-        <v>310</v>
-      </c>
-      <c r="B227" s="92">
-        <v>0.25</v>
-      </c>
-      <c r="C227" s="92">
-        <v>0.25</v>
-      </c>
-      <c r="D227" s="92"/>
-      <c r="E227" s="92"/>
       <c r="F227" s="92"/>
       <c r="G227" s="92"/>
       <c r="H227" s="92"/>
@@ -11410,15 +11517,15 @@
       <c r="X227" s="93"/>
       <c r="Y227" s="93"/>
     </row>
-    <row r="228" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="95" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B228" s="92">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C228" s="92">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D228" s="92"/>
       <c r="E228" s="92"/>
@@ -11442,17 +11549,19 @@
       <c r="X228" s="93"/>
       <c r="Y228" s="93"/>
     </row>
-    <row r="229" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="B229" s="92"/>
-      <c r="C229" s="92"/>
+        <v>297</v>
+      </c>
+      <c r="B229" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="C229" s="92">
+        <v>0.3</v>
+      </c>
       <c r="D229" s="92"/>
       <c r="E229" s="92"/>
-      <c r="F229" s="92">
-        <v>0.02</v>
-      </c>
+      <c r="F229" s="92"/>
       <c r="G229" s="92"/>
       <c r="H229" s="92"/>
       <c r="I229" s="92"/>
@@ -11472,21 +11581,17 @@
       <c r="X229" s="93"/>
       <c r="Y229" s="93"/>
     </row>
-    <row r="230" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="95" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B230" s="92"/>
-      <c r="C230" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="D230" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="E230" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="F230" s="93"/>
+      <c r="C230" s="92"/>
+      <c r="D230" s="92"/>
+      <c r="E230" s="92"/>
+      <c r="F230" s="92">
+        <v>0.02</v>
+      </c>
       <c r="G230" s="92"/>
       <c r="H230" s="92"/>
       <c r="I230" s="92"/>
@@ -11506,21 +11611,21 @@
       <c r="X230" s="93"/>
       <c r="Y230" s="93"/>
     </row>
-    <row r="231" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="95" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B231" s="92"/>
       <c r="C231" s="92">
-        <v>2.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D231" s="92">
-        <v>2.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="E231" s="92">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F231" s="92"/>
+        <v>0.01</v>
+      </c>
+      <c r="F231" s="93"/>
       <c r="G231" s="92"/>
       <c r="H231" s="92"/>
       <c r="I231" s="92"/>
@@ -11540,33 +11645,29 @@
       <c r="X231" s="93"/>
       <c r="Y231" s="93"/>
     </row>
-    <row r="232" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="95" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B232" s="92"/>
       <c r="C232" s="92">
-        <v>0.08</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D232" s="92">
-        <v>0.03</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E232" s="92">
-        <v>7.4999999999999997E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F232" s="92"/>
       <c r="G232" s="92"/>
-      <c r="H232" s="92">
-        <v>0.25</v>
-      </c>
+      <c r="H232" s="92"/>
       <c r="I232" s="92"/>
       <c r="J232" s="92"/>
       <c r="K232" s="92"/>
       <c r="L232" s="92"/>
       <c r="M232" s="92"/>
-      <c r="N232" s="92">
-        <v>0.13</v>
-      </c>
+      <c r="N232" s="92"/>
       <c r="O232" s="92"/>
       <c r="P232" s="103"/>
       <c r="R232" s="93"/>
@@ -11578,25 +11679,33 @@
       <c r="X232" s="93"/>
       <c r="Y232" s="93"/>
     </row>
-    <row r="233" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="95" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="B233" s="92"/>
-      <c r="C233" s="92"/>
-      <c r="D233" s="92"/>
+      <c r="C233" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="D233" s="92">
+        <v>0.03</v>
+      </c>
       <c r="E233" s="92">
-        <v>0.22</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F233" s="92"/>
       <c r="G233" s="92"/>
-      <c r="H233" s="92"/>
+      <c r="H233" s="92">
+        <v>0.25</v>
+      </c>
       <c r="I233" s="92"/>
       <c r="J233" s="92"/>
       <c r="K233" s="92"/>
       <c r="L233" s="92"/>
       <c r="M233" s="92"/>
-      <c r="N233" s="92"/>
+      <c r="N233" s="92">
+        <v>0.13</v>
+      </c>
       <c r="O233" s="92"/>
       <c r="P233" s="103"/>
       <c r="R233" s="93"/>
@@ -11608,16 +11717,16 @@
       <c r="X233" s="93"/>
       <c r="Y233" s="93"/>
     </row>
-    <row r="234" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="95" t="s">
-        <v>451</v>
+        <v>330</v>
       </c>
       <c r="B234" s="92"/>
       <c r="C234" s="92"/>
-      <c r="D234" s="92">
-        <v>0.06</v>
-      </c>
-      <c r="E234" s="92"/>
+      <c r="D234" s="92"/>
+      <c r="E234" s="92">
+        <v>0.22</v>
+      </c>
       <c r="F234" s="92"/>
       <c r="G234" s="92"/>
       <c r="H234" s="92"/>
@@ -11638,14 +11747,14 @@
       <c r="X234" s="93"/>
       <c r="Y234" s="93"/>
     </row>
-    <row r="235" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B235" s="92"/>
       <c r="C235" s="92"/>
       <c r="D235" s="92">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="E235" s="92"/>
       <c r="F235" s="92"/>
@@ -11668,13 +11777,15 @@
       <c r="X235" s="93"/>
       <c r="Y235" s="93"/>
     </row>
-    <row r="236" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="95" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B236" s="92"/>
       <c r="C236" s="92"/>
-      <c r="D236" s="92"/>
+      <c r="D236" s="92">
+        <v>0.17</v>
+      </c>
       <c r="E236" s="92"/>
       <c r="F236" s="92"/>
       <c r="G236" s="92"/>
@@ -11696,17 +11807,15 @@
       <c r="X236" s="93"/>
       <c r="Y236" s="93"/>
     </row>
-    <row r="237" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="95" t="s">
-        <v>339</v>
+        <v>453</v>
       </c>
       <c r="B237" s="92"/>
       <c r="C237" s="92"/>
       <c r="D237" s="92"/>
       <c r="E237" s="92"/>
-      <c r="F237" s="92">
-        <v>2.7E-2</v>
-      </c>
+      <c r="F237" s="92"/>
       <c r="G237" s="92"/>
       <c r="H237" s="92"/>
       <c r="I237" s="92"/>
@@ -11726,25 +11835,23 @@
       <c r="X237" s="93"/>
       <c r="Y237" s="93"/>
     </row>
-    <row r="238" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="95" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="B238" s="92"/>
       <c r="C238" s="92"/>
       <c r="D238" s="92"/>
       <c r="E238" s="92"/>
       <c r="F238" s="92">
-        <v>0.26</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G238" s="92"/>
       <c r="H238" s="92"/>
       <c r="I238" s="92"/>
       <c r="J238" s="92"/>
       <c r="K238" s="92"/>
-      <c r="L238" s="92">
-        <v>0</v>
-      </c>
+      <c r="L238" s="92"/>
       <c r="M238" s="92"/>
       <c r="N238" s="92"/>
       <c r="O238" s="92"/>
@@ -11758,16 +11865,16 @@
       <c r="X238" s="93"/>
       <c r="Y238" s="93"/>
     </row>
-    <row r="239" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="95" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B239" s="92"/>
       <c r="C239" s="92"/>
       <c r="D239" s="92"/>
       <c r="E239" s="92"/>
       <c r="F239" s="92">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="G239" s="92"/>
       <c r="H239" s="92"/>
@@ -11775,7 +11882,7 @@
       <c r="J239" s="92"/>
       <c r="K239" s="92"/>
       <c r="L239" s="92">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M239" s="92"/>
       <c r="N239" s="92"/>
@@ -11790,23 +11897,25 @@
       <c r="X239" s="93"/>
       <c r="Y239" s="93"/>
     </row>
-    <row r="240" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="95" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B240" s="92"/>
       <c r="C240" s="92"/>
       <c r="D240" s="92"/>
       <c r="E240" s="92"/>
       <c r="F240" s="92">
-        <v>2.1999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G240" s="92"/>
       <c r="H240" s="92"/>
       <c r="I240" s="92"/>
       <c r="J240" s="92"/>
       <c r="K240" s="92"/>
-      <c r="L240" s="92"/>
+      <c r="L240" s="92">
+        <v>0.08</v>
+      </c>
       <c r="M240" s="92"/>
       <c r="N240" s="92"/>
       <c r="O240" s="92"/>
@@ -11820,22 +11929,20 @@
       <c r="X240" s="93"/>
       <c r="Y240" s="93"/>
     </row>
-    <row r="241" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="95" t="s">
-        <v>331</v>
+        <v>456</v>
       </c>
       <c r="B241" s="92"/>
       <c r="C241" s="92"/>
       <c r="D241" s="92"/>
       <c r="E241" s="92"/>
-      <c r="F241" s="92"/>
-      <c r="G241" s="92">
-        <v>0.25</v>
-      </c>
+      <c r="F241" s="92">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G241" s="92"/>
       <c r="H241" s="92"/>
-      <c r="I241" s="92">
-        <v>0.3</v>
-      </c>
+      <c r="I241" s="92"/>
       <c r="J241" s="92"/>
       <c r="K241" s="92"/>
       <c r="L241" s="92"/>
@@ -11852,9 +11959,9 @@
       <c r="X241" s="93"/>
       <c r="Y241" s="93"/>
     </row>
-    <row r="242" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="95" t="s">
-        <v>457</v>
+        <v>331</v>
       </c>
       <c r="B242" s="92"/>
       <c r="C242" s="92"/>
@@ -11862,10 +11969,12 @@
       <c r="E242" s="92"/>
       <c r="F242" s="92"/>
       <c r="G242" s="92">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="H242" s="92"/>
-      <c r="I242" s="92"/>
+      <c r="I242" s="92">
+        <v>0.3</v>
+      </c>
       <c r="J242" s="92"/>
       <c r="K242" s="92"/>
       <c r="L242" s="92"/>
@@ -11882,33 +11991,27 @@
       <c r="X242" s="93"/>
       <c r="Y242" s="93"/>
     </row>
-    <row r="243" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="95" t="s">
-        <v>296</v>
+        <v>457</v>
       </c>
       <c r="B243" s="92"/>
       <c r="C243" s="92"/>
       <c r="D243" s="92"/>
       <c r="E243" s="92"/>
       <c r="F243" s="92"/>
-      <c r="G243" s="92"/>
-      <c r="H243" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="I243" s="92">
-        <v>0.02</v>
-      </c>
+      <c r="G243" s="92">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H243" s="92"/>
+      <c r="I243" s="92"/>
       <c r="J243" s="92"/>
       <c r="K243" s="92"/>
-      <c r="L243" s="92">
-        <v>0.01</v>
-      </c>
+      <c r="L243" s="92"/>
       <c r="M243" s="92"/>
       <c r="N243" s="92"/>
       <c r="O243" s="92"/>
-      <c r="P243" s="103">
-        <v>0</v>
-      </c>
+      <c r="P243" s="103"/>
       <c r="R243" s="93"/>
       <c r="S243" s="93"/>
       <c r="T243" s="93"/>
@@ -11918,9 +12021,9 @@
       <c r="X243" s="93"/>
       <c r="Y243" s="93"/>
     </row>
-    <row r="244" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="95" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B244" s="92"/>
       <c r="C244" s="92"/>
@@ -11929,16 +12032,22 @@
       <c r="F244" s="92"/>
       <c r="G244" s="92"/>
       <c r="H244" s="92">
-        <v>0.25</v>
-      </c>
-      <c r="I244" s="92"/>
+        <v>0.01</v>
+      </c>
+      <c r="I244" s="92">
+        <v>0.02</v>
+      </c>
       <c r="J244" s="92"/>
       <c r="K244" s="92"/>
-      <c r="L244" s="92"/>
+      <c r="L244" s="92">
+        <v>0.01</v>
+      </c>
       <c r="M244" s="92"/>
       <c r="N244" s="92"/>
       <c r="O244" s="92"/>
-      <c r="P244" s="103"/>
+      <c r="P244" s="103">
+        <v>0</v>
+      </c>
       <c r="R244" s="93"/>
       <c r="S244" s="93"/>
       <c r="T244" s="93"/>
@@ -11948,9 +12057,9 @@
       <c r="X244" s="93"/>
       <c r="Y244" s="93"/>
     </row>
-    <row r="245" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="95" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B245" s="92"/>
       <c r="C245" s="92"/>
@@ -11959,7 +12068,7 @@
       <c r="F245" s="92"/>
       <c r="G245" s="92"/>
       <c r="H245" s="92">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="I245" s="92"/>
       <c r="J245" s="92"/>
@@ -11978,9 +12087,9 @@
       <c r="X245" s="93"/>
       <c r="Y245" s="93"/>
     </row>
-    <row r="246" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="95" t="s">
-        <v>442</v>
+        <v>338</v>
       </c>
       <c r="B246" s="92"/>
       <c r="C246" s="92"/>
@@ -11988,16 +12097,16 @@
       <c r="E246" s="92"/>
       <c r="F246" s="92"/>
       <c r="G246" s="92"/>
-      <c r="H246" s="92"/>
+      <c r="H246" s="92">
+        <v>0.02</v>
+      </c>
       <c r="I246" s="92"/>
       <c r="J246" s="92"/>
       <c r="K246" s="92"/>
       <c r="L246" s="92"/>
       <c r="M246" s="92"/>
       <c r="N246" s="92"/>
-      <c r="O246" s="92">
-        <v>0.26</v>
-      </c>
+      <c r="O246" s="92"/>
       <c r="P246" s="103"/>
       <c r="R246" s="93"/>
       <c r="S246" s="93"/>
@@ -12008,9 +12117,9 @@
       <c r="X246" s="93"/>
       <c r="Y246" s="93"/>
     </row>
-    <row r="247" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="95" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B247" s="92"/>
       <c r="C247" s="92"/>
@@ -12025,10 +12134,10 @@
       <c r="L247" s="92"/>
       <c r="M247" s="92"/>
       <c r="N247" s="92"/>
-      <c r="O247" s="92"/>
-      <c r="P247" s="103">
-        <v>9.9</v>
-      </c>
+      <c r="O247" s="92">
+        <v>0.26</v>
+      </c>
+      <c r="P247" s="103"/>
       <c r="R247" s="93"/>
       <c r="S247" s="93"/>
       <c r="T247" s="93"/>
@@ -12038,9 +12147,9 @@
       <c r="X247" s="93"/>
       <c r="Y247" s="93"/>
     </row>
-    <row r="248" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="95" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B248" s="92"/>
       <c r="C248" s="92"/>
@@ -12051,14 +12160,14 @@
       <c r="H248" s="92"/>
       <c r="I248" s="92"/>
       <c r="J248" s="92"/>
-      <c r="K248" s="92">
-        <v>0.16</v>
-      </c>
+      <c r="K248" s="92"/>
       <c r="L248" s="92"/>
       <c r="M248" s="92"/>
       <c r="N248" s="92"/>
       <c r="O248" s="92"/>
-      <c r="P248" s="103"/>
+      <c r="P248" s="103">
+        <v>9.9</v>
+      </c>
       <c r="R248" s="93"/>
       <c r="S248" s="93"/>
       <c r="T248" s="93"/>
@@ -12068,9 +12177,9 @@
       <c r="X248" s="93"/>
       <c r="Y248" s="93"/>
     </row>
-    <row r="249" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="95" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="B249" s="92"/>
       <c r="C249" s="92"/>
@@ -12082,7 +12191,7 @@
       <c r="I249" s="92"/>
       <c r="J249" s="92"/>
       <c r="K249" s="92">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="L249" s="92"/>
       <c r="M249" s="92"/>
@@ -12098,9 +12207,9 @@
       <c r="X249" s="93"/>
       <c r="Y249" s="93"/>
     </row>
-    <row r="250" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="95" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="B250" s="92"/>
       <c r="C250" s="92"/>
@@ -12110,10 +12219,10 @@
       <c r="G250" s="92"/>
       <c r="H250" s="92"/>
       <c r="I250" s="92"/>
-      <c r="J250" s="92">
-        <v>0.15</v>
-      </c>
-      <c r="K250" s="92"/>
+      <c r="J250" s="92"/>
+      <c r="K250" s="92">
+        <v>0.03</v>
+      </c>
       <c r="L250" s="92"/>
       <c r="M250" s="92"/>
       <c r="N250" s="92"/>
@@ -12128,9 +12237,9 @@
       <c r="X250" s="93"/>
       <c r="Y250" s="93"/>
     </row>
-    <row r="251" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="95" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="B251" s="92"/>
       <c r="C251" s="92"/>
@@ -12140,11 +12249,11 @@
       <c r="G251" s="92"/>
       <c r="H251" s="92"/>
       <c r="I251" s="92"/>
-      <c r="J251" s="92"/>
+      <c r="J251" s="92">
+        <v>0.15</v>
+      </c>
       <c r="K251" s="92"/>
-      <c r="L251" s="92">
-        <v>0</v>
-      </c>
+      <c r="L251" s="92"/>
       <c r="M251" s="92"/>
       <c r="N251" s="92"/>
       <c r="O251" s="92"/>
@@ -12158,9 +12267,9 @@
       <c r="X251" s="93"/>
       <c r="Y251" s="93"/>
     </row>
-    <row r="252" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="95" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="B252" s="92"/>
       <c r="C252" s="92"/>
@@ -12188,13 +12297,11 @@
       <c r="X252" s="93"/>
       <c r="Y252" s="93"/>
     </row>
-    <row r="253" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="104" t="s">
-        <v>296</v>
-      </c>
-      <c r="B253" s="105">
-        <v>0.01</v>
-      </c>
+    <row r="253" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="95" t="s">
+        <v>309</v>
+      </c>
+      <c r="B253" s="92"/>
       <c r="C253" s="92"/>
       <c r="D253" s="92"/>
       <c r="E253" s="92"/>
@@ -12203,10 +12310,10 @@
       <c r="H253" s="92"/>
       <c r="I253" s="92"/>
       <c r="J253" s="92"/>
-      <c r="K253" s="92">
+      <c r="K253" s="92"/>
+      <c r="L253" s="92">
         <v>0</v>
       </c>
-      <c r="L253" s="92"/>
       <c r="M253" s="92"/>
       <c r="N253" s="92"/>
       <c r="O253" s="92"/>
@@ -12220,12 +12327,12 @@
       <c r="X253" s="93"/>
       <c r="Y253" s="93"/>
     </row>
-    <row r="254" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="104" t="s">
-        <v>460</v>
+        <v>296</v>
       </c>
       <c r="B254" s="105">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
@@ -12235,11 +12342,11 @@
       <c r="H254" s="92"/>
       <c r="I254" s="92"/>
       <c r="J254" s="92"/>
-      <c r="K254" s="92"/>
+      <c r="K254" s="92">
+        <v>0</v>
+      </c>
       <c r="L254" s="92"/>
-      <c r="M254" s="92">
-        <v>0.2</v>
-      </c>
+      <c r="M254" s="92"/>
       <c r="N254" s="92"/>
       <c r="O254" s="92"/>
       <c r="P254" s="103"/>
@@ -12252,12 +12359,12 @@
       <c r="X254" s="93"/>
       <c r="Y254" s="93"/>
     </row>
-    <row r="255" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="104" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B255" s="105">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C255" s="92"/>
       <c r="D255" s="92"/>
@@ -12269,10 +12376,10 @@
       <c r="J255" s="92"/>
       <c r="K255" s="92"/>
       <c r="L255" s="92"/>
-      <c r="M255" s="92"/>
-      <c r="N255" s="92">
-        <v>0.05</v>
-      </c>
+      <c r="M255" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="N255" s="92"/>
       <c r="O255" s="92"/>
       <c r="P255" s="103"/>
       <c r="R255" s="93"/>
@@ -12284,12 +12391,12 @@
       <c r="X255" s="93"/>
       <c r="Y255" s="93"/>
     </row>
-    <row r="256" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="104" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B256" s="105">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
@@ -12300,12 +12407,10 @@
       <c r="I256" s="92"/>
       <c r="J256" s="92"/>
       <c r="K256" s="92"/>
-      <c r="L256" s="92">
-        <v>0.26</v>
-      </c>
+      <c r="L256" s="92"/>
       <c r="M256" s="92"/>
       <c r="N256" s="92">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="O256" s="92"/>
       <c r="P256" s="103"/>
@@ -12318,12 +12423,12 @@
       <c r="X256" s="93"/>
       <c r="Y256" s="93"/>
     </row>
-    <row r="257" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="104" t="s">
-        <v>307</v>
+        <v>462</v>
       </c>
       <c r="B257" s="105">
-        <v>3.5000000000000003E-2</v>
+        <v>0.32</v>
       </c>
       <c r="C257" s="92"/>
       <c r="D257" s="92"/>
@@ -12335,11 +12440,11 @@
       <c r="J257" s="92"/>
       <c r="K257" s="92"/>
       <c r="L257" s="92">
-        <v>6.2E-2</v>
+        <v>0.26</v>
       </c>
       <c r="M257" s="92"/>
       <c r="N257" s="92">
-        <v>6.2E-2</v>
+        <v>0.32</v>
       </c>
       <c r="O257" s="92"/>
       <c r="P257" s="103"/>
@@ -12352,27 +12457,31 @@
       <c r="X257" s="93"/>
       <c r="Y257" s="93"/>
     </row>
-    <row r="258" spans="1:25" s="94" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="106" t="s">
-        <v>368</v>
-      </c>
-      <c r="B258" s="107"/>
-      <c r="C258" s="107"/>
-      <c r="D258" s="107"/>
-      <c r="E258" s="107"/>
-      <c r="F258" s="107"/>
-      <c r="G258" s="107"/>
-      <c r="H258" s="107"/>
-      <c r="I258" s="107"/>
-      <c r="J258" s="107"/>
-      <c r="K258" s="107"/>
-      <c r="L258" s="107"/>
-      <c r="M258" s="107"/>
-      <c r="N258" s="107">
-        <v>0</v>
-      </c>
-      <c r="O258" s="107"/>
-      <c r="P258" s="108"/>
+    <row r="258" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="104" t="s">
+        <v>307</v>
+      </c>
+      <c r="B258" s="105">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C258" s="92"/>
+      <c r="D258" s="92"/>
+      <c r="E258" s="92"/>
+      <c r="F258" s="92"/>
+      <c r="G258" s="92"/>
+      <c r="H258" s="92"/>
+      <c r="I258" s="92"/>
+      <c r="J258" s="92"/>
+      <c r="K258" s="92"/>
+      <c r="L258" s="92">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M258" s="92"/>
+      <c r="N258" s="92">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O258" s="92"/>
+      <c r="P258" s="103"/>
       <c r="R258" s="93"/>
       <c r="S258" s="93"/>
       <c r="T258" s="93"/>
@@ -12382,80 +12491,86 @@
       <c r="X258" s="93"/>
       <c r="Y258" s="93"/>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A260" s="50" t="s">
+    <row r="259" spans="1:25" s="94" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="106" t="s">
+        <v>368</v>
+      </c>
+      <c r="B259" s="107"/>
+      <c r="C259" s="107"/>
+      <c r="D259" s="107"/>
+      <c r="E259" s="107"/>
+      <c r="F259" s="107"/>
+      <c r="G259" s="107"/>
+      <c r="H259" s="107"/>
+      <c r="I259" s="107"/>
+      <c r="J259" s="107"/>
+      <c r="K259" s="107"/>
+      <c r="L259" s="107"/>
+      <c r="M259" s="107"/>
+      <c r="N259" s="107">
+        <v>0</v>
+      </c>
+      <c r="O259" s="107"/>
+      <c r="P259" s="108"/>
+      <c r="R259" s="93"/>
+      <c r="S259" s="93"/>
+      <c r="T259" s="93"/>
+      <c r="U259" s="93"/>
+      <c r="V259" s="93"/>
+      <c r="W259" s="93"/>
+      <c r="X259" s="93"/>
+      <c r="Y259" s="93"/>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A261" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="B260" s="51" t="s">
+      <c r="B261" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="C260" s="51" t="s">
+      <c r="C261" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="D260" s="51" t="s">
+      <c r="D261" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="E260" s="51" t="s">
+      <c r="E261" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="F260" s="51" t="s">
+      <c r="F261" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="G260" s="51" t="s">
+      <c r="G261" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="H260" s="52" t="s">
+      <c r="H261" s="52" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="261" spans="1:25" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A261" s="55" t="s">
+    <row r="262" spans="1:25" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B261" s="70" t="s">
+      <c r="B262" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="C261" s="70" t="s">
+      <c r="C262" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="D261" s="70" t="s">
+      <c r="D262" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="E261" s="70" t="s">
+      <c r="E262" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="F261" s="70" t="s">
+      <c r="F262" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="G261" s="70">
+      <c r="G262" s="70">
         <v>528.20000000000005</v>
       </c>
-      <c r="H261" s="71">
+      <c r="H262" s="71">
         <v>144.69999999999999</v>
-      </c>
-      <c r="I261" s="70"/>
-      <c r="J261" s="70"/>
-      <c r="K261" s="70"/>
-      <c r="L261" s="70"/>
-      <c r="M261" s="70"/>
-      <c r="N261" s="70"/>
-    </row>
-    <row r="262" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="B262" s="73">
-        <v>0.18</v>
-      </c>
-      <c r="C262" s="73"/>
-      <c r="D262" s="73">
-        <v>0.11</v>
-      </c>
-      <c r="E262" s="73"/>
-      <c r="F262" s="73"/>
-      <c r="G262" s="73"/>
-      <c r="H262" s="74">
-        <v>0.1</v>
       </c>
       <c r="I262" s="70"/>
       <c r="J262" s="70"/>
@@ -12464,122 +12579,132 @@
       <c r="M262" s="70"/>
       <c r="N262" s="70"/>
     </row>
-    <row r="263" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="60" t="s">
+    <row r="263" spans="1:25" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B263" s="73">
+        <v>0.18</v>
+      </c>
+      <c r="C263" s="73"/>
+      <c r="D263" s="73">
+        <v>0.11</v>
+      </c>
+      <c r="E263" s="73"/>
+      <c r="F263" s="73"/>
+      <c r="G263" s="73"/>
+      <c r="H263" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="I263" s="70"/>
+      <c r="J263" s="70"/>
+      <c r="K263" s="70"/>
+      <c r="L263" s="70"/>
+      <c r="M263" s="70"/>
+      <c r="N263" s="70"/>
+    </row>
+    <row r="264" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="60" t="s">
         <v>470</v>
       </c>
-      <c r="B263" s="30"/>
-      <c r="C263" s="30">
+      <c r="B264" s="30"/>
+      <c r="C264" s="30">
         <v>1.9E-2</v>
       </c>
-      <c r="D263" s="30">
+      <c r="D264" s="30">
         <v>1.9E-2</v>
       </c>
-      <c r="E263" s="30">
+      <c r="E264" s="30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F263" s="30">
+      <c r="F264" s="30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G263" s="30"/>
-      <c r="H263" s="32">
+      <c r="G264" s="30"/>
+      <c r="H264" s="32">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A264" s="60" t="s">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A265" s="60" t="s">
         <v>471</v>
-      </c>
-      <c r="B264" s="30"/>
-      <c r="C264" s="30"/>
-      <c r="D264" s="30"/>
-      <c r="E264" s="30">
-        <v>0.12</v>
-      </c>
-      <c r="F264" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="G264" s="30"/>
-      <c r="H264" s="32"/>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A265" s="60" t="s">
-        <v>472</v>
       </c>
       <c r="B265" s="30"/>
       <c r="C265" s="30"/>
       <c r="D265" s="30"/>
-      <c r="E265" s="30"/>
-      <c r="F265" s="30"/>
+      <c r="E265" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="F265" s="30">
+        <v>0.08</v>
+      </c>
       <c r="G265" s="30"/>
-      <c r="H265" s="32">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H265" s="32"/>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B266" s="30"/>
       <c r="C266" s="30"/>
-      <c r="D266" s="30">
-        <v>2.0000000000000001E-4</v>
-      </c>
+      <c r="D266" s="30"/>
       <c r="E266" s="30"/>
       <c r="F266" s="30"/>
       <c r="G266" s="30"/>
-      <c r="H266" s="32"/>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="H266" s="32">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="B267" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="C267" s="30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D267" s="30"/>
+        <v>473</v>
+      </c>
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="E267" s="30"/>
       <c r="F267" s="30"/>
       <c r="G267" s="30"/>
       <c r="H267" s="32"/>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="B268" s="30"/>
-      <c r="C268" s="30"/>
-      <c r="D268" s="30">
-        <v>2.4E-2</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B268" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="C268" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D268" s="30"/>
       <c r="E268" s="30"/>
       <c r="F268" s="30"/>
       <c r="G268" s="30"/>
       <c r="H268" s="32"/>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="60" t="s">
-        <v>474</v>
-      </c>
-      <c r="B269" s="30">
-        <v>0.1</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B269" s="30"/>
       <c r="C269" s="30"/>
-      <c r="D269" s="30"/>
+      <c r="D269" s="30">
+        <v>2.4E-2</v>
+      </c>
       <c r="E269" s="30"/>
       <c r="F269" s="30"/>
       <c r="G269" s="30"/>
       <c r="H269" s="32"/>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="60" t="s">
-        <v>310</v>
+        <v>474</v>
       </c>
       <c r="B270" s="30">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C270" s="30"/>
       <c r="D270" s="30"/>
@@ -12588,43 +12713,41 @@
       <c r="G270" s="30"/>
       <c r="H270" s="32"/>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="B271" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="B271" s="30">
+        <v>0.25</v>
+      </c>
       <c r="C271" s="30"/>
       <c r="D271" s="30"/>
       <c r="E271" s="30"/>
       <c r="F271" s="30"/>
-      <c r="G271" s="30">
-        <v>0.2</v>
-      </c>
+      <c r="G271" s="30"/>
       <c r="H271" s="32"/>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="60" t="s">
-        <v>475</v>
+        <v>331</v>
       </c>
       <c r="B272" s="30"/>
-      <c r="C272" s="30">
-        <v>0.12</v>
-      </c>
+      <c r="C272" s="30"/>
       <c r="D272" s="30"/>
       <c r="E272" s="30"/>
       <c r="F272" s="30"/>
-      <c r="G272" s="30"/>
+      <c r="G272" s="30">
+        <v>0.2</v>
+      </c>
       <c r="H272" s="32"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="60" t="s">
-        <v>476</v>
-      </c>
-      <c r="B273" s="30">
-        <v>0.04</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B273" s="30"/>
       <c r="C273" s="30">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D273" s="30"/>
       <c r="E273" s="30"/>
@@ -12632,15 +12755,15 @@
       <c r="G273" s="30"/>
       <c r="H273" s="32"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="60" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
       <c r="B274" s="30">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="C274" s="30">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="30"/>
@@ -12648,55 +12771,57 @@
       <c r="G274" s="30"/>
       <c r="H274" s="32"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="60" t="s">
-        <v>477</v>
-      </c>
-      <c r="B275" s="30"/>
-      <c r="C275" s="30"/>
-      <c r="D275" s="30">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B275" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="C275" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="D275" s="30"/>
       <c r="E275" s="30"/>
       <c r="F275" s="30"/>
       <c r="G275" s="30"/>
       <c r="H275" s="32"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B276" s="30"/>
       <c r="C276" s="30"/>
-      <c r="D276" s="30"/>
+      <c r="D276" s="30">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E276" s="30"/>
       <c r="F276" s="30"/>
       <c r="G276" s="30"/>
-      <c r="H276" s="32">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H276" s="32"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B277" s="30"/>
-      <c r="C277" s="30">
-        <v>0.06</v>
-      </c>
+      <c r="C277" s="30"/>
       <c r="D277" s="30"/>
       <c r="E277" s="30"/>
       <c r="F277" s="30"/>
       <c r="G277" s="30"/>
-      <c r="H277" s="32"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H277" s="32">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B278" s="30"/>
       <c r="C278" s="30">
-        <v>1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30"/>
@@ -12704,13 +12829,13 @@
       <c r="G278" s="30"/>
       <c r="H278" s="32"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B279" s="30"/>
       <c r="C279" s="30">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D279" s="30"/>
       <c r="E279" s="30"/>
@@ -12718,49 +12843,49 @@
       <c r="G279" s="30"/>
       <c r="H279" s="32"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B280" s="30"/>
-      <c r="C280" s="30"/>
+      <c r="C280" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="D280" s="30"/>
       <c r="E280" s="30"/>
       <c r="F280" s="30"/>
       <c r="G280" s="30"/>
-      <c r="H280" s="32">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H280" s="32"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="60" t="s">
-        <v>339</v>
+        <v>482</v>
       </c>
       <c r="B281" s="30"/>
-      <c r="C281" s="30">
-        <v>1.2E-2</v>
-      </c>
+      <c r="C281" s="30"/>
       <c r="D281" s="30"/>
       <c r="E281" s="30"/>
       <c r="F281" s="30"/>
       <c r="G281" s="30"/>
-      <c r="H281" s="32"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H281" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="60" t="s">
-        <v>483</v>
+        <v>339</v>
       </c>
       <c r="B282" s="30"/>
-      <c r="C282" s="30"/>
+      <c r="C282" s="30">
+        <v>1.2E-2</v>
+      </c>
       <c r="D282" s="30"/>
       <c r="E282" s="30"/>
       <c r="F282" s="30"/>
       <c r="G282" s="30"/>
-      <c r="H282" s="32">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H282" s="32"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="60" t="s">
         <v>483</v>
       </c>
@@ -12770,11 +12895,13 @@
       <c r="E283" s="30"/>
       <c r="F283" s="30"/>
       <c r="G283" s="30"/>
-      <c r="H283" s="32"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H283" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B284" s="30"/>
       <c r="C284" s="30"/>
@@ -12782,289 +12909,278 @@
       <c r="E284" s="30"/>
       <c r="F284" s="30"/>
       <c r="G284" s="30"/>
-      <c r="H284" s="32">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H284" s="32"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="60" t="s">
-        <v>344</v>
+        <v>484</v>
       </c>
       <c r="B285" s="30"/>
       <c r="C285" s="30"/>
-      <c r="D285" s="30">
-        <v>0.03</v>
-      </c>
+      <c r="D285" s="30"/>
       <c r="E285" s="30"/>
       <c r="F285" s="30"/>
       <c r="G285" s="30"/>
       <c r="H285" s="32">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="60" t="s">
-        <v>485</v>
+        <v>344</v>
       </c>
       <c r="B286" s="30"/>
       <c r="C286" s="30"/>
       <c r="D286" s="30">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E286" s="30"/>
       <c r="F286" s="30"/>
       <c r="G286" s="30"/>
-      <c r="H286" s="32"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H286" s="32">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B287" s="30"/>
       <c r="C287" s="30"/>
       <c r="D287" s="30">
-        <v>1.4999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E287" s="30"/>
       <c r="F287" s="30"/>
       <c r="G287" s="30"/>
       <c r="H287" s="32"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="B288" s="30">
-        <v>0</v>
-      </c>
-      <c r="C288" s="30">
-        <v>0</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
       <c r="D288" s="30">
-        <v>2.0000000000000001E-4</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E288" s="30"/>
       <c r="F288" s="30"/>
       <c r="G288" s="30"/>
       <c r="H288" s="32"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A289" s="62" t="s">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A289" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B289" s="30">
+        <v>0</v>
+      </c>
+      <c r="C289" s="30">
+        <v>0</v>
+      </c>
+      <c r="D289" s="30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="32"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A290" s="62" t="s">
         <v>487</v>
       </c>
-      <c r="B289" s="63"/>
-      <c r="C289" s="63"/>
-      <c r="D289" s="63">
+      <c r="B290" s="63"/>
+      <c r="C290" s="63"/>
+      <c r="D290" s="63">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E289" s="63"/>
-      <c r="F289" s="63"/>
-      <c r="G289" s="63"/>
-      <c r="H289" s="64"/>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A291" s="50" t="s">
+      <c r="E290" s="63"/>
+      <c r="F290" s="63"/>
+      <c r="G290" s="63"/>
+      <c r="H290" s="64"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A292" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="B291" s="51" t="s">
+      <c r="B292" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="C291" s="51" t="s">
+      <c r="C292" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D291" s="51" t="s">
+      <c r="D292" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="E291" s="51" t="s">
+      <c r="E292" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="F291" s="51" t="s">
+      <c r="F292" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="G291" s="51" t="s">
+      <c r="G292" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="H291" s="51" t="s">
+      <c r="H292" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="I291" s="51" t="s">
+      <c r="I292" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="J291" s="51" t="s">
+      <c r="J292" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="K291" s="51" t="s">
+      <c r="K292" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="L291" s="51" t="s">
+      <c r="L292" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="M291" s="52" t="s">
+      <c r="M292" s="52" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="292" spans="1:14" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A292" s="55" t="s">
+    <row r="293" spans="1:14" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A293" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B292" s="70">
+      <c r="B293" s="70">
         <v>181</v>
       </c>
-      <c r="C292" s="70">
+      <c r="C293" s="70">
         <v>201</v>
       </c>
-      <c r="D292" s="70">
+      <c r="D293" s="70">
         <v>753</v>
       </c>
-      <c r="E292" s="70">
+      <c r="E293" s="70">
         <v>171</v>
       </c>
-      <c r="F292" s="70">
+      <c r="F293" s="70">
         <v>624.29999999999995</v>
       </c>
-      <c r="G292" s="70">
+      <c r="G293" s="70">
         <v>271.3</v>
       </c>
-      <c r="H292" s="70">
+      <c r="H293" s="70">
         <v>204.1</v>
       </c>
-      <c r="I292" s="70">
+      <c r="I293" s="70">
         <v>667</v>
       </c>
-      <c r="J292" s="70">
+      <c r="J293" s="70">
         <v>199</v>
       </c>
-      <c r="K292" s="70">
+      <c r="K293" s="70">
         <v>323</v>
       </c>
-      <c r="L292" s="70">
+      <c r="L293" s="70">
         <v>90</v>
       </c>
-      <c r="M292" s="71"/>
-      <c r="N292" s="70"/>
-    </row>
-    <row r="293" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A293" s="57" t="s">
+      <c r="M293" s="71"/>
+      <c r="N293" s="70"/>
+    </row>
+    <row r="294" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B293" s="73">
+      <c r="B294" s="73">
         <v>0.18</v>
       </c>
-      <c r="C293" s="73"/>
-      <c r="D293" s="73"/>
-      <c r="E293" s="73"/>
-      <c r="F293" s="73">
+      <c r="C294" s="73"/>
+      <c r="D294" s="73"/>
+      <c r="E294" s="73"/>
+      <c r="F294" s="73">
         <v>0.17</v>
       </c>
-      <c r="G293" s="73">
+      <c r="G294" s="73">
         <v>0.15</v>
       </c>
-      <c r="H293" s="73">
+      <c r="H294" s="73">
         <v>0.21</v>
       </c>
-      <c r="I293" s="73"/>
-      <c r="J293" s="73"/>
-      <c r="K293" s="73">
+      <c r="I294" s="73"/>
+      <c r="J294" s="73"/>
+      <c r="K294" s="73">
         <v>0.17</v>
       </c>
-      <c r="L293" s="73"/>
-      <c r="M293" s="74"/>
-      <c r="N293" s="70"/>
-    </row>
-    <row r="294" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="60" t="s">
+      <c r="L294" s="73"/>
+      <c r="M294" s="74"/>
+      <c r="N294" s="70"/>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="B294" s="30"/>
-      <c r="C294" s="30"/>
-      <c r="D294" s="30"/>
-      <c r="E294" s="30"/>
-      <c r="F294" s="30"/>
-      <c r="G294" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="H294" s="30"/>
-      <c r="I294" s="30"/>
-      <c r="J294" s="30"/>
-      <c r="K294" s="30"/>
-      <c r="L294" s="30"/>
-      <c r="M294" s="32"/>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A295" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="B295" s="30">
-        <v>1E-3</v>
-      </c>
+      <c r="B295" s="30"/>
       <c r="C295" s="30"/>
       <c r="D295" s="30"/>
       <c r="E295" s="30"/>
       <c r="F295" s="30"/>
-      <c r="G295" s="30"/>
+      <c r="G295" s="30">
+        <v>0.02</v>
+      </c>
       <c r="H295" s="30"/>
       <c r="I295" s="30"/>
       <c r="J295" s="30"/>
       <c r="K295" s="30"/>
-      <c r="L295" s="30">
+      <c r="L295" s="30"/>
+      <c r="M295" s="32"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A296" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B296" s="30">
         <v>1E-3</v>
       </c>
-      <c r="M295" s="32"/>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A296" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="B296" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="C296" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="D296" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="E296" s="30">
-        <v>0.08</v>
-      </c>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
       <c r="F296" s="30"/>
       <c r="G296" s="30"/>
       <c r="H296" s="30"/>
       <c r="I296" s="30"/>
       <c r="J296" s="30"/>
       <c r="K296" s="30"/>
-      <c r="L296" s="30"/>
+      <c r="L296" s="30">
+        <v>1E-3</v>
+      </c>
       <c r="M296" s="32"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="B297" s="30"/>
-      <c r="C297" s="30"/>
-      <c r="D297" s="30"/>
-      <c r="E297" s="30"/>
+        <v>284</v>
+      </c>
+      <c r="B297" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="C297" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="D297" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="E297" s="30">
+        <v>0.08</v>
+      </c>
       <c r="F297" s="30"/>
       <c r="G297" s="30"/>
       <c r="H297" s="30"/>
       <c r="I297" s="30"/>
       <c r="J297" s="30"/>
       <c r="K297" s="30"/>
-      <c r="L297" s="30">
-        <v>0.05</v>
-      </c>
+      <c r="L297" s="30"/>
       <c r="M297" s="32"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B298" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="C298" s="30">
-        <v>0.25</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
       <c r="D298" s="30"/>
       <c r="E298" s="30"/>
       <c r="F298" s="30"/>
@@ -13073,115 +13189,119 @@
       <c r="I298" s="30"/>
       <c r="J298" s="30"/>
       <c r="K298" s="30"/>
-      <c r="L298" s="30"/>
+      <c r="L298" s="30">
+        <v>0.05</v>
+      </c>
       <c r="M298" s="32"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="B299" s="30"/>
-      <c r="C299" s="30"/>
-      <c r="D299" s="30">
+        <v>310</v>
+      </c>
+      <c r="B299" s="30">
         <v>0.25</v>
       </c>
-      <c r="E299" s="30">
+      <c r="C299" s="30">
         <v>0.25</v>
       </c>
+      <c r="D299" s="30"/>
+      <c r="E299" s="30"/>
       <c r="F299" s="30"/>
       <c r="G299" s="30"/>
       <c r="H299" s="30"/>
       <c r="I299" s="30"/>
       <c r="J299" s="30"/>
       <c r="K299" s="30"/>
-      <c r="L299" s="30">
-        <v>0.25</v>
-      </c>
+      <c r="L299" s="30"/>
       <c r="M299" s="32"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="60" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
-      <c r="D300" s="30"/>
-      <c r="E300" s="30"/>
+      <c r="D300" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="E300" s="30">
+        <v>0.25</v>
+      </c>
       <c r="F300" s="30"/>
       <c r="G300" s="30"/>
       <c r="H300" s="30"/>
       <c r="I300" s="30"/>
-      <c r="J300" s="30">
-        <v>0.2</v>
-      </c>
+      <c r="J300" s="30"/>
       <c r="K300" s="30"/>
-      <c r="L300" s="30"/>
+      <c r="L300" s="30">
+        <v>0.25</v>
+      </c>
       <c r="M300" s="32"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="60" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="B301" s="30"/>
       <c r="C301" s="30"/>
-      <c r="D301" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="E301" s="30">
-        <v>0.14499999999999999</v>
-      </c>
+      <c r="D301" s="30"/>
+      <c r="E301" s="30"/>
       <c r="F301" s="30"/>
       <c r="G301" s="30"/>
-      <c r="H301" s="30">
-        <v>0.125</v>
-      </c>
+      <c r="H301" s="30"/>
       <c r="I301" s="30"/>
-      <c r="J301" s="30"/>
+      <c r="J301" s="30">
+        <v>0.2</v>
+      </c>
       <c r="K301" s="30"/>
       <c r="L301" s="30"/>
       <c r="M301" s="32"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="60" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="B302" s="30"/>
       <c r="C302" s="30"/>
-      <c r="D302" s="30"/>
-      <c r="E302" s="30"/>
-      <c r="F302" s="30">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="D302" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="E302" s="30">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F302" s="30"/>
       <c r="G302" s="30"/>
-      <c r="H302" s="30"/>
+      <c r="H302" s="30">
+        <v>0.125</v>
+      </c>
       <c r="I302" s="30"/>
       <c r="J302" s="30"/>
       <c r="K302" s="30"/>
       <c r="L302" s="30"/>
       <c r="M302" s="32"/>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="60" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="B303" s="30"/>
       <c r="C303" s="30"/>
       <c r="D303" s="30"/>
       <c r="E303" s="30"/>
-      <c r="F303" s="30"/>
+      <c r="F303" s="30">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="G303" s="30"/>
       <c r="H303" s="30"/>
       <c r="I303" s="30"/>
       <c r="J303" s="30"/>
       <c r="K303" s="30"/>
-      <c r="L303" s="30">
-        <v>0.155</v>
-      </c>
+      <c r="L303" s="30"/>
       <c r="M303" s="32"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="60" t="s">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -13192,15 +13312,15 @@
       <c r="H304" s="30"/>
       <c r="I304" s="30"/>
       <c r="J304" s="30"/>
-      <c r="K304" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L304" s="30"/>
+      <c r="K304" s="30"/>
+      <c r="L304" s="30">
+        <v>0.155</v>
+      </c>
       <c r="M304" s="32"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="60" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="B305" s="30"/>
       <c r="C305" s="30"/>
@@ -13212,14 +13332,14 @@
       <c r="I305" s="30"/>
       <c r="J305" s="30"/>
       <c r="K305" s="30">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L305" s="30"/>
       <c r="M305" s="32"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="60" t="s">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="B306" s="30"/>
       <c r="C306" s="30"/>
@@ -13231,18 +13351,16 @@
       <c r="I306" s="30"/>
       <c r="J306" s="30"/>
       <c r="K306" s="30">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L306" s="30"/>
       <c r="M306" s="32"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="B307" s="30">
-        <v>0.1</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="B307" s="30"/>
       <c r="C307" s="30"/>
       <c r="D307" s="30"/>
       <c r="E307" s="30"/>
@@ -13251,24 +13369,22 @@
       <c r="H307" s="30"/>
       <c r="I307" s="30"/>
       <c r="J307" s="30"/>
-      <c r="K307" s="30"/>
+      <c r="K307" s="30">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="L307" s="30"/>
       <c r="M307" s="32"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="60" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B308" s="30">
-        <v>5.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C308" s="30"/>
-      <c r="D308" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E308" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="D308" s="30"/>
+      <c r="E308" s="30"/>
       <c r="F308" s="30"/>
       <c r="G308" s="30"/>
       <c r="H308" s="30"/>
@@ -13278,35 +13394,35 @@
       <c r="L308" s="30"/>
       <c r="M308" s="32"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="B309" s="30"/>
+        <v>481</v>
+      </c>
+      <c r="B309" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="C309" s="30"/>
-      <c r="D309" s="30"/>
-      <c r="E309" s="30"/>
+      <c r="D309" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E309" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="F309" s="30"/>
       <c r="G309" s="30"/>
       <c r="H309" s="30"/>
       <c r="I309" s="30"/>
       <c r="J309" s="30"/>
-      <c r="K309" s="30">
-        <v>0</v>
-      </c>
+      <c r="K309" s="30"/>
       <c r="L309" s="30"/>
       <c r="M309" s="32"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="B310" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="C310" s="30">
-        <v>0.05</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B310" s="30"/>
+      <c r="C310" s="30"/>
       <c r="D310" s="30"/>
       <c r="E310" s="30"/>
       <c r="F310" s="30"/>
@@ -13314,16 +13430,22 @@
       <c r="H310" s="30"/>
       <c r="I310" s="30"/>
       <c r="J310" s="30"/>
-      <c r="K310" s="30"/>
+      <c r="K310" s="30">
+        <v>0</v>
+      </c>
       <c r="L310" s="30"/>
       <c r="M310" s="32"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="B311" s="30"/>
-      <c r="C311" s="30"/>
+        <v>302</v>
+      </c>
+      <c r="B311" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="C311" s="30">
+        <v>0.05</v>
+      </c>
       <c r="D311" s="30"/>
       <c r="E311" s="30"/>
       <c r="F311" s="30"/>
@@ -13331,20 +13453,16 @@
       <c r="H311" s="30"/>
       <c r="I311" s="30"/>
       <c r="J311" s="30"/>
-      <c r="K311" s="30">
-        <v>0.22</v>
-      </c>
+      <c r="K311" s="30"/>
       <c r="L311" s="30"/>
       <c r="M311" s="32"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="60" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="B312" s="30"/>
-      <c r="C312" s="30">
-        <v>0</v>
-      </c>
+      <c r="C312" s="30"/>
       <c r="D312" s="30"/>
       <c r="E312" s="30"/>
       <c r="F312" s="30"/>
@@ -13352,88 +13470,90 @@
       <c r="H312" s="30"/>
       <c r="I312" s="30"/>
       <c r="J312" s="30"/>
-      <c r="K312" s="30"/>
+      <c r="K312" s="30">
+        <v>0.22</v>
+      </c>
       <c r="L312" s="30"/>
-      <c r="M312" s="32">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M312" s="32"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="B313" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="C313" s="30"/>
-      <c r="D313" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="E313" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="F313" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="G313" s="30">
-        <v>0.2</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B313" s="30"/>
+      <c r="C313" s="30">
+        <v>0</v>
+      </c>
+      <c r="D313" s="30"/>
+      <c r="E313" s="30"/>
+      <c r="F313" s="30"/>
+      <c r="G313" s="30"/>
       <c r="H313" s="30"/>
       <c r="I313" s="30"/>
       <c r="J313" s="30"/>
       <c r="K313" s="30"/>
-      <c r="L313" s="30">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M313" s="32"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L313" s="30"/>
+      <c r="M313" s="32">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="B314" s="30"/>
+        <v>340</v>
+      </c>
+      <c r="B314" s="30">
+        <v>0.02</v>
+      </c>
       <c r="C314" s="30"/>
-      <c r="D314" s="30"/>
-      <c r="E314" s="30"/>
+      <c r="D314" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="E314" s="30">
+        <v>0.02</v>
+      </c>
       <c r="F314" s="30">
-        <v>0.14499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G314" s="30">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H314" s="30">
         <v>0.2</v>
       </c>
-      <c r="I314" s="30">
-        <v>0.14499999999999999</v>
-      </c>
+      <c r="H314" s="30"/>
+      <c r="I314" s="30"/>
       <c r="J314" s="30"/>
       <c r="K314" s="30"/>
-      <c r="L314" s="30"/>
+      <c r="L314" s="30">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="M314" s="32"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="60" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="B315" s="30"/>
       <c r="C315" s="30"/>
       <c r="D315" s="30"/>
       <c r="E315" s="30"/>
-      <c r="F315" s="30"/>
-      <c r="G315" s="30"/>
-      <c r="H315" s="30"/>
-      <c r="I315" s="30"/>
+      <c r="F315" s="30">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G315" s="30">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H315" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="I315" s="30">
+        <v>0.14499999999999999</v>
+      </c>
       <c r="J315" s="30"/>
-      <c r="K315" s="30">
-        <v>2.7E-2</v>
-      </c>
+      <c r="K315" s="30"/>
       <c r="L315" s="30"/>
       <c r="M315" s="32"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="60" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B316" s="30"/>
       <c r="C316" s="30"/>
@@ -13445,14 +13565,14 @@
       <c r="I316" s="30"/>
       <c r="J316" s="30"/>
       <c r="K316" s="30">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="L316" s="30"/>
       <c r="M316" s="32"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="60" t="s">
-        <v>494</v>
+        <v>344</v>
       </c>
       <c r="B317" s="30"/>
       <c r="C317" s="30"/>
@@ -13464,39 +13584,41 @@
       <c r="I317" s="30"/>
       <c r="J317" s="30"/>
       <c r="K317" s="30">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="L317" s="30"/>
       <c r="M317" s="32"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B318" s="30"/>
       <c r="C318" s="30"/>
       <c r="D318" s="30"/>
       <c r="E318" s="30"/>
-      <c r="F318" s="30">
-        <v>0.06</v>
-      </c>
+      <c r="F318" s="30"/>
       <c r="G318" s="30"/>
       <c r="H318" s="30"/>
       <c r="I318" s="30"/>
       <c r="J318" s="30"/>
-      <c r="K318" s="30"/>
+      <c r="K318" s="30">
+        <v>0.06</v>
+      </c>
       <c r="L318" s="30"/>
       <c r="M318" s="32"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="60" t="s">
-        <v>304</v>
+        <v>495</v>
       </c>
       <c r="B319" s="30"/>
       <c r="C319" s="30"/>
       <c r="D319" s="30"/>
       <c r="E319" s="30"/>
-      <c r="F319" s="30"/>
+      <c r="F319" s="30">
+        <v>0.06</v>
+      </c>
       <c r="G319" s="30"/>
       <c r="H319" s="30"/>
       <c r="I319" s="30"/>
@@ -13505,190 +13627,188 @@
       <c r="L319" s="30"/>
       <c r="M319" s="32"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A320" s="62" t="s">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A320" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B320" s="30"/>
+      <c r="C320" s="30"/>
+      <c r="D320" s="30"/>
+      <c r="E320" s="30"/>
+      <c r="F320" s="30"/>
+      <c r="G320" s="30"/>
+      <c r="H320" s="30"/>
+      <c r="I320" s="30"/>
+      <c r="J320" s="30"/>
+      <c r="K320" s="30"/>
+      <c r="L320" s="30"/>
+      <c r="M320" s="32"/>
+    </row>
+    <row r="321" spans="1:14" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="117" t="s">
+        <v>473</v>
+      </c>
+      <c r="B321" s="118"/>
+      <c r="C321" s="119"/>
+      <c r="D321" s="119"/>
+      <c r="E321" s="119"/>
+      <c r="F321" s="119">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G321" s="119">
+        <v>0.2</v>
+      </c>
+      <c r="H321" s="119">
+        <v>0.2</v>
+      </c>
+      <c r="I321" s="119"/>
+      <c r="J321" s="119"/>
+      <c r="K321" s="120"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A322" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="B320" s="63"/>
-      <c r="C320" s="63"/>
-      <c r="D320" s="63"/>
-      <c r="E320" s="63">
+      <c r="B322" s="63"/>
+      <c r="C322" s="63"/>
+      <c r="D322" s="63"/>
+      <c r="E322" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F320" s="63"/>
-      <c r="G320" s="63"/>
-      <c r="H320" s="63">
+      <c r="F322" s="63"/>
+      <c r="G322" s="63"/>
+      <c r="H322" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I320" s="63"/>
-      <c r="J320" s="63"/>
-      <c r="K320" s="63"/>
-      <c r="L320" s="63"/>
-      <c r="M320" s="64"/>
-    </row>
-    <row r="322" spans="1:14" s="1" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="50" t="s">
+      <c r="I322" s="63"/>
+      <c r="J322" s="63"/>
+      <c r="K322" s="63"/>
+      <c r="L322" s="63"/>
+      <c r="M322" s="64"/>
+    </row>
+    <row r="324" spans="1:14" s="1" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="B322" s="51" t="s">
+      <c r="B324" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="C322" s="51" t="s">
+      <c r="C324" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D322" s="51" t="s">
+      <c r="D324" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="E322" s="51" t="s">
+      <c r="E324" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="F322" s="51" t="s">
+      <c r="F324" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="G322" s="51" t="s">
+      <c r="G324" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="H322" s="51" t="s">
+      <c r="H324" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="I322" s="51" t="s">
+      <c r="I324" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="J322" s="51" t="s">
+      <c r="J324" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="K322" s="51" t="s">
+      <c r="K324" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="L322" s="52" t="s">
+      <c r="L324" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="323" spans="1:14" s="72" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A323" s="55" t="s">
+    <row r="325" spans="1:14" s="72" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A325" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B323" s="70">
+      <c r="B325" s="70">
         <v>387</v>
       </c>
-      <c r="C323" s="70">
+      <c r="C325" s="70">
         <v>242</v>
       </c>
-      <c r="D323" s="70">
+      <c r="D325" s="70">
         <v>210</v>
       </c>
-      <c r="E323" s="70">
+      <c r="E325" s="70">
         <v>1890</v>
       </c>
-      <c r="F323" s="70">
+      <c r="F325" s="70">
         <v>1068</v>
       </c>
-      <c r="G323" s="70">
+      <c r="G325" s="70">
         <v>310</v>
       </c>
-      <c r="H323" s="70">
+      <c r="H325" s="70">
         <v>1021</v>
       </c>
-      <c r="I323" s="70">
+      <c r="I325" s="70">
         <v>737</v>
       </c>
-      <c r="J323" s="70">
+      <c r="J325" s="70">
         <v>291</v>
       </c>
-      <c r="K323" s="70">
+      <c r="K325" s="70">
         <v>250</v>
       </c>
-      <c r="L323" s="71">
+      <c r="L325" s="71">
         <v>460</v>
       </c>
-      <c r="M323" s="70"/>
-      <c r="N323" s="70"/>
-    </row>
-    <row r="324" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="57" t="s">
+      <c r="M325" s="70"/>
+      <c r="N325" s="70"/>
+    </row>
+    <row r="326" spans="1:14" s="72" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B324" s="73">
+      <c r="B326" s="73">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C324" s="73">
+      <c r="C326" s="73">
         <v>0.16</v>
       </c>
-      <c r="D324" s="73"/>
-      <c r="E324" s="73"/>
-      <c r="F324" s="73">
+      <c r="D326" s="73"/>
+      <c r="E326" s="73"/>
+      <c r="F326" s="73">
         <v>0.11</v>
       </c>
-      <c r="G324" s="73">
+      <c r="G326" s="73">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H324" s="73"/>
-      <c r="I324" s="73"/>
-      <c r="J324" s="73"/>
-      <c r="K324" s="73">
+      <c r="H326" s="73"/>
+      <c r="I326" s="73"/>
+      <c r="J326" s="73"/>
+      <c r="K326" s="73">
         <v>0.16</v>
       </c>
-      <c r="L324" s="74">
+      <c r="L326" s="74">
         <v>0.1</v>
       </c>
-      <c r="M324" s="70"/>
-      <c r="N324" s="70"/>
-    </row>
-    <row r="325" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="60" t="s">
+      <c r="M326" s="70"/>
+      <c r="N326" s="70"/>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="60" t="s">
         <v>498</v>
       </c>
-      <c r="B325" s="30"/>
-      <c r="C325" s="30">
+      <c r="B327" s="30"/>
+      <c r="C327" s="30">
         <v>0.06</v>
       </c>
-      <c r="D325" s="30">
+      <c r="D327" s="30">
         <v>0.06</v>
       </c>
-      <c r="E325" s="30">
+      <c r="E327" s="30">
         <v>0.06</v>
       </c>
-      <c r="F325" s="30"/>
-      <c r="G325" s="30"/>
-      <c r="H325" s="30"/>
-      <c r="I325" s="30"/>
-      <c r="J325" s="30"/>
-      <c r="K325" s="30"/>
-      <c r="L325" s="32"/>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A326" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="B326" s="30"/>
-      <c r="C326" s="30"/>
-      <c r="D326" s="30"/>
-      <c r="E326" s="30"/>
-      <c r="F326" s="30"/>
-      <c r="G326" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="H326" s="30"/>
-      <c r="I326" s="30"/>
-      <c r="J326" s="30"/>
-      <c r="K326" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="L326" s="32">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A327" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="B327" s="30"/>
-      <c r="C327" s="30"/>
-      <c r="D327" s="30"/>
-      <c r="E327" s="30"/>
-      <c r="F327" s="30">
-        <v>0.16</v>
-      </c>
+      <c r="F327" s="30"/>
       <c r="G327" s="30"/>
       <c r="H327" s="30"/>
       <c r="I327" s="30"/>
@@ -13696,37 +13816,39 @@
       <c r="K327" s="30"/>
       <c r="L327" s="32"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="60" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B328" s="30"/>
       <c r="C328" s="30"/>
-      <c r="D328" s="30">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="D328" s="30"/>
       <c r="E328" s="30"/>
       <c r="F328" s="30"/>
-      <c r="G328" s="30"/>
+      <c r="G328" s="30">
+        <v>0.01</v>
+      </c>
       <c r="H328" s="30"/>
       <c r="I328" s="30"/>
       <c r="J328" s="30"/>
-      <c r="K328" s="30"/>
-      <c r="L328" s="32"/>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K328" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="L328" s="32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B329" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="C329" s="30">
-        <v>0.25</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B329" s="30"/>
+      <c r="C329" s="30"/>
       <c r="D329" s="30"/>
       <c r="E329" s="30"/>
-      <c r="F329" s="30"/>
+      <c r="F329" s="30">
+        <v>0.16</v>
+      </c>
       <c r="G329" s="30"/>
       <c r="H329" s="30"/>
       <c r="I329" s="30"/>
@@ -13734,36 +13856,34 @@
       <c r="K329" s="30"/>
       <c r="L329" s="32"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="60" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="B330" s="30"/>
       <c r="C330" s="30"/>
       <c r="D330" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="E330" s="30">
-        <v>0.25</v>
-      </c>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E330" s="30"/>
       <c r="F330" s="30"/>
       <c r="G330" s="30"/>
       <c r="H330" s="30"/>
       <c r="I330" s="30"/>
       <c r="J330" s="30"/>
-      <c r="K330" s="30">
-        <v>0.22</v>
-      </c>
-      <c r="L330" s="32">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K330" s="30"/>
+      <c r="L330" s="32"/>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="60" t="s">
-        <v>499</v>
-      </c>
-      <c r="B331" s="30"/>
-      <c r="C331" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="B331" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="C331" s="30">
+        <v>0.25</v>
+      </c>
       <c r="D331" s="30"/>
       <c r="E331" s="30"/>
       <c r="F331" s="30"/>
@@ -13771,122 +13891,122 @@
       <c r="H331" s="30"/>
       <c r="I331" s="30"/>
       <c r="J331" s="30"/>
-      <c r="K331" s="30">
-        <v>0.04</v>
-      </c>
+      <c r="K331" s="30"/>
       <c r="L331" s="32"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="60" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
-      <c r="D332" s="30"/>
-      <c r="E332" s="30"/>
+      <c r="D332" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="E332" s="30">
+        <v>0.25</v>
+      </c>
       <c r="F332" s="30"/>
-      <c r="G332" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="H332" s="30">
-        <v>0.22</v>
-      </c>
+      <c r="G332" s="30"/>
+      <c r="H332" s="30"/>
       <c r="I332" s="30"/>
       <c r="J332" s="30"/>
-      <c r="K332" s="30"/>
-      <c r="L332" s="32"/>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K332" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="L332" s="32">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="60" t="s">
-        <v>291</v>
+        <v>499</v>
       </c>
       <c r="B333" s="30"/>
-      <c r="C333" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="D333" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="E333" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="F333" s="30">
-        <v>0.32</v>
-      </c>
+      <c r="C333" s="30"/>
+      <c r="D333" s="30"/>
+      <c r="E333" s="30"/>
+      <c r="F333" s="30"/>
       <c r="G333" s="30"/>
       <c r="H333" s="30"/>
       <c r="I333" s="30"/>
       <c r="J333" s="30"/>
-      <c r="K333" s="30"/>
+      <c r="K333" s="30">
+        <v>0.04</v>
+      </c>
       <c r="L333" s="32"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B334" s="30"/>
-      <c r="C334" s="30">
-        <v>0.08</v>
-      </c>
-      <c r="D334" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="E334" s="30">
-        <v>0.02</v>
-      </c>
+      <c r="C334" s="30"/>
+      <c r="D334" s="30"/>
+      <c r="E334" s="30"/>
       <c r="F334" s="30"/>
       <c r="G334" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="H334" s="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="H334" s="30">
+        <v>0.22</v>
+      </c>
       <c r="I334" s="30"/>
       <c r="J334" s="30"/>
       <c r="K334" s="30"/>
       <c r="L334" s="32"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="60" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="B335" s="30"/>
-      <c r="C335" s="30"/>
-      <c r="D335" s="30"/>
-      <c r="E335" s="30"/>
-      <c r="F335" s="30"/>
+      <c r="C335" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="D335" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="E335" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="F335" s="30">
+        <v>0.32</v>
+      </c>
       <c r="G335" s="30"/>
       <c r="H335" s="30"/>
       <c r="I335" s="30"/>
       <c r="J335" s="30"/>
       <c r="K335" s="30"/>
-      <c r="L335" s="32">
+      <c r="L335" s="32"/>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A336" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B336" s="30"/>
+      <c r="C336" s="30">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A336" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="B336" s="30"/>
-      <c r="C336" s="30"/>
-      <c r="D336" s="30"/>
-      <c r="E336" s="30"/>
-      <c r="F336" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="G336" s="30"/>
+      <c r="D336" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="E336" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="F336" s="30"/>
+      <c r="G336" s="30">
+        <v>0.2</v>
+      </c>
       <c r="H336" s="30"/>
-      <c r="I336" s="30">
-        <v>0.02</v>
-      </c>
-      <c r="J336" s="30">
-        <v>0.02</v>
-      </c>
+      <c r="I336" s="30"/>
+      <c r="J336" s="30"/>
       <c r="K336" s="30"/>
       <c r="L336" s="32"/>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="60" t="s">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="B337" s="30"/>
       <c r="C337" s="30"/>
@@ -13895,96 +14015,96 @@
       <c r="F337" s="30"/>
       <c r="G337" s="30"/>
       <c r="H337" s="30"/>
-      <c r="I337" s="30">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J337" s="30">
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="I337" s="30"/>
+      <c r="J337" s="30"/>
       <c r="K337" s="30"/>
-      <c r="L337" s="32"/>
-    </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="L337" s="32">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="B338" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="C338" s="30">
-        <v>0.3</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B338" s="30"/>
+      <c r="C338" s="30"/>
       <c r="D338" s="30"/>
       <c r="E338" s="30"/>
-      <c r="F338" s="30"/>
+      <c r="F338" s="30">
+        <v>0.01</v>
+      </c>
       <c r="G338" s="30"/>
       <c r="H338" s="30"/>
-      <c r="I338" s="30"/>
-      <c r="J338" s="30"/>
+      <c r="I338" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="J338" s="30">
+        <v>0.02</v>
+      </c>
       <c r="K338" s="30"/>
       <c r="L338" s="32"/>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="60" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="B339" s="30"/>
       <c r="C339" s="30"/>
       <c r="D339" s="30"/>
       <c r="E339" s="30"/>
-      <c r="F339" s="30">
-        <v>1.4999999999999999E-2</v>
-      </c>
+      <c r="F339" s="30"/>
       <c r="G339" s="30"/>
       <c r="H339" s="30"/>
-      <c r="I339" s="30"/>
-      <c r="J339" s="30"/>
+      <c r="I339" s="30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J339" s="30">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="K339" s="30"/>
       <c r="L339" s="32"/>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="60" t="s">
-        <v>500</v>
-      </c>
-      <c r="B340" s="30"/>
-      <c r="C340" s="30"/>
+        <v>297</v>
+      </c>
+      <c r="B340" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C340" s="30">
+        <v>0.3</v>
+      </c>
       <c r="D340" s="30"/>
       <c r="E340" s="30"/>
       <c r="F340" s="30"/>
       <c r="G340" s="30"/>
       <c r="H340" s="30"/>
-      <c r="I340" s="30">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J340" s="30">
-        <v>0.115</v>
-      </c>
+      <c r="I340" s="30"/>
+      <c r="J340" s="30"/>
       <c r="K340" s="30"/>
       <c r="L340" s="32"/>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="60" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="B341" s="30"/>
       <c r="C341" s="30"/>
       <c r="D341" s="30"/>
       <c r="E341" s="30"/>
-      <c r="F341" s="30"/>
+      <c r="F341" s="30">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="G341" s="30"/>
       <c r="H341" s="30"/>
       <c r="I341" s="30"/>
       <c r="J341" s="30"/>
-      <c r="K341" s="30">
-        <v>0.16</v>
-      </c>
-      <c r="L341" s="32">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="K341" s="30"/>
+      <c r="L341" s="32"/>
+    </row>
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B342" s="30"/>
       <c r="C342" s="30"/>
@@ -13993,235 +14113,215 @@
       <c r="F342" s="30"/>
       <c r="G342" s="30"/>
       <c r="H342" s="30"/>
-      <c r="I342" s="30"/>
-      <c r="J342" s="30"/>
-      <c r="K342" s="30">
-        <v>0.03</v>
-      </c>
+      <c r="I342" s="30">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J342" s="30">
+        <v>0.115</v>
+      </c>
+      <c r="K342" s="30"/>
       <c r="L342" s="32"/>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="60" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B343" s="30"/>
-      <c r="C343" s="30">
-        <v>0.03</v>
-      </c>
+      <c r="C343" s="30"/>
       <c r="D343" s="30"/>
-      <c r="E343" s="30">
-        <v>0.03</v>
-      </c>
+      <c r="E343" s="30"/>
       <c r="F343" s="30"/>
       <c r="G343" s="30"/>
       <c r="H343" s="30"/>
       <c r="I343" s="30"/>
       <c r="J343" s="30"/>
-      <c r="K343" s="30"/>
-      <c r="L343" s="32"/>
-    </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A344" s="62" t="s">
+      <c r="K343" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="L343" s="32">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A344" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="B344" s="30"/>
+      <c r="C344" s="30"/>
+      <c r="D344" s="30"/>
+      <c r="E344" s="30"/>
+      <c r="F344" s="30"/>
+      <c r="G344" s="30"/>
+      <c r="H344" s="30"/>
+      <c r="I344" s="30"/>
+      <c r="J344" s="30"/>
+      <c r="K344" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="L344" s="32"/>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A345" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B345" s="30"/>
+      <c r="C345" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="D345" s="30"/>
+      <c r="E345" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="F345" s="30"/>
+      <c r="G345" s="30"/>
+      <c r="H345" s="30"/>
+      <c r="I345" s="30"/>
+      <c r="J345" s="30"/>
+      <c r="K345" s="30"/>
+      <c r="L345" s="32"/>
+    </row>
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A346" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="B344" s="63"/>
-      <c r="C344" s="63"/>
-      <c r="D344" s="63"/>
-      <c r="E344" s="63"/>
-      <c r="F344" s="63"/>
-      <c r="G344" s="63"/>
-      <c r="H344" s="63"/>
-      <c r="I344" s="63"/>
-      <c r="J344" s="63"/>
-      <c r="K344" s="63">
+      <c r="B346" s="63"/>
+      <c r="C346" s="63"/>
+      <c r="D346" s="63"/>
+      <c r="E346" s="63"/>
+      <c r="F346" s="63"/>
+      <c r="G346" s="63"/>
+      <c r="H346" s="63"/>
+      <c r="I346" s="63"/>
+      <c r="J346" s="63"/>
+      <c r="K346" s="63">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L344" s="64">
+      <c r="L346" s="64">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A346" s="50" t="s">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A348" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="B346" s="51" t="s">
+      <c r="B348" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="C346" s="51" t="s">
+      <c r="C348" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D346" s="51" t="s">
+      <c r="D348" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E346" s="51" t="s">
+      <c r="E348" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="F346" s="51" t="s">
+      <c r="F348" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="G346" s="51" t="s">
+      <c r="G348" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="H346" s="51" t="s">
+      <c r="H348" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="I346" s="51" t="s">
+      <c r="I348" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="J346" s="51" t="s">
+      <c r="J348" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="K346" s="51" t="s">
+      <c r="K348" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="L346" s="51" t="s">
+      <c r="L348" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="M346" s="51" t="s">
+      <c r="M348" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="N346" s="52" t="s">
+      <c r="N348" s="52" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="347" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="55" t="s">
+    <row r="349" spans="1:25" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="B347" s="70">
+      <c r="B349" s="70">
         <v>313.10000000000002</v>
       </c>
-      <c r="C347" s="70">
+      <c r="C349" s="70">
         <v>313.60000000000002</v>
       </c>
-      <c r="D347" s="70">
+      <c r="D349" s="70">
         <v>251.5</v>
       </c>
-      <c r="E347" s="70">
+      <c r="E349" s="70">
         <v>313.60000000000002</v>
       </c>
-      <c r="F347" s="70">
+      <c r="F349" s="70">
         <v>23.93</v>
       </c>
-      <c r="G347" s="70">
+      <c r="G349" s="70">
         <v>263.89999999999998</v>
       </c>
-      <c r="H347" s="70">
+      <c r="H349" s="70">
         <v>204.1</v>
       </c>
-      <c r="I347" s="70">
+      <c r="I349" s="70">
         <v>1875.9</v>
       </c>
-      <c r="J347" s="70">
+      <c r="J349" s="70">
         <v>400.3</v>
       </c>
-      <c r="K347" s="70">
+      <c r="K349" s="70">
         <v>1873.6</v>
       </c>
-      <c r="L347" s="70">
+      <c r="L349" s="70">
         <v>62.7</v>
       </c>
-      <c r="M347" s="70">
+      <c r="M349" s="70">
         <v>277.10000000000002</v>
       </c>
-      <c r="N347" s="32"/>
-    </row>
-    <row r="348" spans="1:25" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A348" s="57" t="s">
+      <c r="N349" s="32"/>
+    </row>
+    <row r="350" spans="1:25" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B348" s="73">
+      <c r="B350" s="73">
         <v>0.1</v>
       </c>
-      <c r="C348" s="73"/>
-      <c r="D348" s="73"/>
-      <c r="E348" s="73"/>
-      <c r="F348" s="73">
+      <c r="C350" s="73"/>
+      <c r="D350" s="73"/>
+      <c r="E350" s="73"/>
+      <c r="F350" s="73">
         <v>0.13</v>
       </c>
-      <c r="G348" s="73">
+      <c r="G350" s="73">
         <v>0.13</v>
       </c>
-      <c r="H348" s="73">
+      <c r="H350" s="73">
         <v>0.11</v>
       </c>
-      <c r="I348" s="73"/>
-      <c r="J348" s="73"/>
-      <c r="K348" s="73"/>
-      <c r="L348" s="73">
+      <c r="I350" s="73"/>
+      <c r="J350" s="73"/>
+      <c r="K350" s="73"/>
+      <c r="L350" s="73">
         <v>0.09</v>
       </c>
-      <c r="M348" s="73">
+      <c r="M350" s="73">
         <v>0.08</v>
       </c>
-      <c r="N348" s="76"/>
-    </row>
-    <row r="349" spans="1:25" s="94" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="95" t="s">
+      <c r="N350" s="76"/>
+    </row>
+    <row r="351" spans="1:25" s="94" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="95" t="s">
         <v>489</v>
-      </c>
-      <c r="B349" s="92"/>
-      <c r="C349" s="92"/>
-      <c r="D349" s="92"/>
-      <c r="E349" s="92"/>
-      <c r="F349" s="92"/>
-      <c r="G349" s="92"/>
-      <c r="H349" s="92"/>
-      <c r="I349" s="92"/>
-      <c r="J349" s="92">
-        <v>0.03</v>
-      </c>
-      <c r="K349" s="92"/>
-      <c r="L349" s="92"/>
-      <c r="M349" s="92"/>
-      <c r="N349" s="109"/>
-      <c r="O349" s="93"/>
-      <c r="P349" s="93"/>
-      <c r="R349" s="93"/>
-      <c r="S349" s="93"/>
-      <c r="T349" s="93"/>
-      <c r="U349" s="93"/>
-      <c r="V349" s="93"/>
-      <c r="W349" s="93"/>
-      <c r="X349" s="93"/>
-      <c r="Y349" s="93"/>
-    </row>
-    <row r="350" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="95" t="s">
-        <v>282</v>
-      </c>
-      <c r="B350" s="92"/>
-      <c r="C350" s="92"/>
-      <c r="D350" s="92"/>
-      <c r="E350" s="92"/>
-      <c r="F350" s="92"/>
-      <c r="G350" s="92"/>
-      <c r="H350" s="92"/>
-      <c r="I350" s="92"/>
-      <c r="J350" s="92"/>
-      <c r="K350" s="92"/>
-      <c r="L350" s="92"/>
-      <c r="M350" s="92">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N350" s="109"/>
-      <c r="O350" s="93"/>
-      <c r="P350" s="93"/>
-      <c r="R350" s="93"/>
-      <c r="S350" s="93"/>
-      <c r="T350" s="93"/>
-      <c r="U350" s="93"/>
-      <c r="V350" s="93"/>
-      <c r="W350" s="93"/>
-      <c r="X350" s="93"/>
-      <c r="Y350" s="93"/>
-    </row>
-    <row r="351" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="95" t="s">
-        <v>368</v>
       </c>
       <c r="B351" s="92"/>
       <c r="C351" s="92"/>
@@ -14229,16 +14329,14 @@
       <c r="E351" s="92"/>
       <c r="F351" s="92"/>
       <c r="G351" s="92"/>
-      <c r="H351" s="92">
-        <v>0</v>
-      </c>
+      <c r="H351" s="92"/>
       <c r="I351" s="92"/>
-      <c r="J351" s="92"/>
+      <c r="J351" s="92">
+        <v>0.03</v>
+      </c>
       <c r="K351" s="92"/>
       <c r="L351" s="92"/>
-      <c r="M351" s="92">
-        <v>8.2000000000000007E-3</v>
-      </c>
+      <c r="M351" s="92"/>
       <c r="N351" s="109"/>
       <c r="O351" s="93"/>
       <c r="P351" s="93"/>
@@ -14251,22 +14349,14 @@
       <c r="X351" s="93"/>
       <c r="Y351" s="93"/>
     </row>
-    <row r="352" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="B352" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="C352" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="D352" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="E352" s="92">
-        <v>0.08</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B352" s="92"/>
+      <c r="C352" s="92"/>
+      <c r="D352" s="92"/>
+      <c r="E352" s="92"/>
       <c r="F352" s="92"/>
       <c r="G352" s="92"/>
       <c r="H352" s="92"/>
@@ -14274,7 +14364,9 @@
       <c r="J352" s="92"/>
       <c r="K352" s="92"/>
       <c r="L352" s="92"/>
-      <c r="M352" s="92"/>
+      <c r="M352" s="92">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="N352" s="109"/>
       <c r="O352" s="93"/>
       <c r="P352" s="93"/>
@@ -14287,28 +14379,26 @@
       <c r="X352" s="93"/>
       <c r="Y352" s="93"/>
     </row>
-    <row r="353" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="95" t="s">
-        <v>504</v>
+        <v>368</v>
       </c>
       <c r="B353" s="92"/>
       <c r="C353" s="92"/>
-      <c r="D353" s="92">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E353" s="92">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="D353" s="92"/>
+      <c r="E353" s="92"/>
       <c r="F353" s="92"/>
       <c r="G353" s="92"/>
-      <c r="H353" s="92"/>
+      <c r="H353" s="92">
+        <v>0</v>
+      </c>
       <c r="I353" s="92"/>
       <c r="J353" s="92"/>
       <c r="K353" s="92"/>
-      <c r="L353" s="92">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M353" s="92"/>
+      <c r="L353" s="92"/>
+      <c r="M353" s="92">
+        <v>8.2000000000000007E-3</v>
+      </c>
       <c r="N353" s="109"/>
       <c r="O353" s="93"/>
       <c r="P353" s="93"/>
@@ -14321,18 +14411,22 @@
       <c r="X353" s="93"/>
       <c r="Y353" s="93"/>
     </row>
-    <row r="354" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="95" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B354" s="92">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="C354" s="92">
-        <v>0.25</v>
-      </c>
-      <c r="D354" s="92"/>
-      <c r="E354" s="92"/>
+        <v>0.08</v>
+      </c>
+      <c r="D354" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="E354" s="92">
+        <v>0.08</v>
+      </c>
       <c r="F354" s="92"/>
       <c r="G354" s="92"/>
       <c r="H354" s="92"/>
@@ -14353,25 +14447,27 @@
       <c r="X354" s="93"/>
       <c r="Y354" s="93"/>
     </row>
-    <row r="355" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="95" t="s">
-        <v>331</v>
+        <v>504</v>
       </c>
       <c r="B355" s="92"/>
       <c r="C355" s="92"/>
-      <c r="D355" s="92"/>
-      <c r="E355" s="92"/>
+      <c r="D355" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E355" s="92">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="F355" s="92"/>
       <c r="G355" s="92"/>
-      <c r="H355" s="92">
-        <v>0.2</v>
-      </c>
+      <c r="H355" s="92"/>
       <c r="I355" s="92"/>
       <c r="J355" s="92"/>
-      <c r="K355" s="92">
-        <v>0.2</v>
-      </c>
-      <c r="L355" s="92"/>
+      <c r="K355" s="92"/>
+      <c r="L355" s="92">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="M355" s="92"/>
       <c r="N355" s="109"/>
       <c r="O355" s="93"/>
@@ -14385,30 +14481,26 @@
       <c r="X355" s="93"/>
       <c r="Y355" s="93"/>
     </row>
-    <row r="356" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="95" t="s">
-        <v>475</v>
-      </c>
-      <c r="B356" s="92"/>
-      <c r="C356" s="92"/>
-      <c r="D356" s="92">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E356" s="92">
-        <v>0.14000000000000001</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B356" s="92">
+        <v>0.4</v>
+      </c>
+      <c r="C356" s="92">
+        <v>0.25</v>
+      </c>
+      <c r="D356" s="92"/>
+      <c r="E356" s="92"/>
       <c r="F356" s="92"/>
       <c r="G356" s="92"/>
       <c r="H356" s="92"/>
       <c r="I356" s="92"/>
       <c r="J356" s="92"/>
       <c r="K356" s="92"/>
-      <c r="L356" s="92">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M356" s="92">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="L356" s="92"/>
+      <c r="M356" s="92"/>
       <c r="N356" s="109"/>
       <c r="O356" s="93"/>
       <c r="P356" s="93"/>
@@ -14421,22 +14513,24 @@
       <c r="X356" s="93"/>
       <c r="Y356" s="93"/>
     </row>
-    <row r="357" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="95" t="s">
-        <v>370</v>
-      </c>
-      <c r="B357" s="92">
-        <v>0.02</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B357" s="92"/>
       <c r="C357" s="92"/>
       <c r="D357" s="92"/>
       <c r="E357" s="92"/>
       <c r="F357" s="92"/>
       <c r="G357" s="92"/>
-      <c r="H357" s="92"/>
+      <c r="H357" s="92">
+        <v>0.2</v>
+      </c>
       <c r="I357" s="92"/>
       <c r="J357" s="92"/>
-      <c r="K357" s="92"/>
+      <c r="K357" s="92">
+        <v>0.2</v>
+      </c>
       <c r="L357" s="92"/>
       <c r="M357" s="92"/>
       <c r="N357" s="109"/>
@@ -14451,19 +14545,17 @@
       <c r="X357" s="93"/>
       <c r="Y357" s="93"/>
     </row>
-    <row r="358" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="95" t="s">
-        <v>291</v>
+        <v>475</v>
       </c>
       <c r="B358" s="92"/>
-      <c r="C358" s="92">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="C358" s="92"/>
       <c r="D358" s="92">
-        <v>0.22500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E358" s="92">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F358" s="92"/>
       <c r="G358" s="92"/>
@@ -14472,9 +14564,11 @@
       <c r="J358" s="92"/>
       <c r="K358" s="92"/>
       <c r="L358" s="92">
-        <v>0.1</v>
-      </c>
-      <c r="M358" s="92"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M358" s="92">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="N358" s="109"/>
       <c r="O358" s="93"/>
       <c r="P358" s="93"/>
@@ -14487,21 +14581,19 @@
       <c r="X358" s="93"/>
       <c r="Y358" s="93"/>
     </row>
-    <row r="359" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="95" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="B359" s="92">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="C359" s="92"/>
       <c r="D359" s="92"/>
       <c r="E359" s="92"/>
       <c r="F359" s="92"/>
       <c r="G359" s="92"/>
-      <c r="H359" s="92">
-        <v>0.16</v>
-      </c>
+      <c r="H359" s="92"/>
       <c r="I359" s="92"/>
       <c r="J359" s="92"/>
       <c r="K359" s="92"/>
@@ -14519,25 +14611,29 @@
       <c r="X359" s="93"/>
       <c r="Y359" s="93"/>
     </row>
-    <row r="360" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="95" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="B360" s="92"/>
-      <c r="C360" s="92"/>
-      <c r="D360" s="92"/>
-      <c r="E360" s="92"/>
-      <c r="F360" s="92">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G360" s="92">
-        <v>1.6E-2</v>
-      </c>
+      <c r="C360" s="92">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D360" s="92">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E360" s="92">
+        <v>0.04</v>
+      </c>
+      <c r="F360" s="92"/>
+      <c r="G360" s="92"/>
       <c r="H360" s="92"/>
       <c r="I360" s="92"/>
       <c r="J360" s="92"/>
       <c r="K360" s="92"/>
-      <c r="L360" s="92"/>
+      <c r="L360" s="92">
+        <v>0.1</v>
+      </c>
       <c r="M360" s="92"/>
       <c r="N360" s="109"/>
       <c r="O360" s="93"/>
@@ -14551,17 +14647,21 @@
       <c r="X360" s="93"/>
       <c r="Y360" s="93"/>
     </row>
-    <row r="361" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="95" t="s">
-        <v>506</v>
-      </c>
-      <c r="B361" s="92"/>
+        <v>292</v>
+      </c>
+      <c r="B361" s="92">
+        <v>0.16</v>
+      </c>
       <c r="C361" s="92"/>
       <c r="D361" s="92"/>
       <c r="E361" s="92"/>
       <c r="F361" s="92"/>
       <c r="G361" s="92"/>
-      <c r="H361" s="92"/>
+      <c r="H361" s="92">
+        <v>0.16</v>
+      </c>
       <c r="I361" s="92"/>
       <c r="J361" s="92"/>
       <c r="K361" s="92"/>
@@ -14579,23 +14679,23 @@
       <c r="X361" s="93"/>
       <c r="Y361" s="93"/>
     </row>
-    <row r="362" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="95" t="s">
-        <v>337</v>
+        <v>505</v>
       </c>
       <c r="B362" s="92"/>
       <c r="C362" s="92"/>
       <c r="D362" s="92"/>
       <c r="E362" s="92"/>
-      <c r="F362" s="92"/>
+      <c r="F362" s="92">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="G362" s="92">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H362" s="92"/>
       <c r="I362" s="92"/>
-      <c r="J362" s="92">
-        <v>0.03</v>
-      </c>
+      <c r="J362" s="92"/>
       <c r="K362" s="92"/>
       <c r="L362" s="92"/>
       <c r="M362" s="92"/>
@@ -14611,9 +14711,9 @@
       <c r="X362" s="93"/>
       <c r="Y362" s="93"/>
     </row>
-    <row r="363" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="95" t="s">
-        <v>400</v>
+        <v>506</v>
       </c>
       <c r="B363" s="92"/>
       <c r="C363" s="92"/>
@@ -14622,9 +14722,7 @@
       <c r="F363" s="92"/>
       <c r="G363" s="92"/>
       <c r="H363" s="92"/>
-      <c r="I363" s="92">
-        <v>0.05</v>
-      </c>
+      <c r="I363" s="92"/>
       <c r="J363" s="92"/>
       <c r="K363" s="92"/>
       <c r="L363" s="92"/>
@@ -14641,9 +14739,9 @@
       <c r="X363" s="93"/>
       <c r="Y363" s="93"/>
     </row>
-    <row r="364" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="95" t="s">
-        <v>507</v>
+        <v>337</v>
       </c>
       <c r="B364" s="92"/>
       <c r="C364" s="92"/>
@@ -14651,11 +14749,13 @@
       <c r="E364" s="92"/>
       <c r="F364" s="92"/>
       <c r="G364" s="92">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H364" s="92"/>
       <c r="I364" s="92"/>
-      <c r="J364" s="92"/>
+      <c r="J364" s="92">
+        <v>0.03</v>
+      </c>
       <c r="K364" s="92"/>
       <c r="L364" s="92"/>
       <c r="M364" s="92"/>
@@ -14671,9 +14771,9 @@
       <c r="X364" s="93"/>
       <c r="Y364" s="93"/>
     </row>
-    <row r="365" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="95" t="s">
-        <v>508</v>
+        <v>400</v>
       </c>
       <c r="B365" s="92"/>
       <c r="C365" s="92"/>
@@ -14701,21 +14801,21 @@
       <c r="X365" s="93"/>
       <c r="Y365" s="93"/>
     </row>
-    <row r="366" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="95" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B366" s="92"/>
       <c r="C366" s="92"/>
       <c r="D366" s="92"/>
       <c r="E366" s="92"/>
       <c r="F366" s="92"/>
-      <c r="G366" s="92"/>
+      <c r="G366" s="92">
+        <v>1.6E-2</v>
+      </c>
       <c r="H366" s="92"/>
       <c r="I366" s="92"/>
-      <c r="J366" s="92">
-        <v>3.2000000000000001E-2</v>
-      </c>
+      <c r="J366" s="92"/>
       <c r="K366" s="92"/>
       <c r="L366" s="92"/>
       <c r="M366" s="92"/>
@@ -14731,20 +14831,20 @@
       <c r="X366" s="93"/>
       <c r="Y366" s="93"/>
     </row>
-    <row r="367" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="95" t="s">
-        <v>510</v>
-      </c>
-      <c r="B367" s="92">
-        <v>0.12</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B367" s="92"/>
       <c r="C367" s="92"/>
       <c r="D367" s="92"/>
       <c r="E367" s="92"/>
       <c r="F367" s="92"/>
       <c r="G367" s="92"/>
       <c r="H367" s="92"/>
-      <c r="I367" s="92"/>
+      <c r="I367" s="92">
+        <v>0.05</v>
+      </c>
       <c r="J367" s="92"/>
       <c r="K367" s="92"/>
       <c r="L367" s="92"/>
@@ -14761,9 +14861,9 @@
       <c r="X367" s="93"/>
       <c r="Y367" s="93"/>
     </row>
-    <row r="368" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="95" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B368" s="92"/>
       <c r="C368" s="92"/>
@@ -14773,14 +14873,12 @@
       <c r="G368" s="92"/>
       <c r="H368" s="92"/>
       <c r="I368" s="92"/>
-      <c r="J368" s="92"/>
+      <c r="J368" s="92">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="K368" s="92"/>
-      <c r="L368" s="92">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="M368" s="92">
-        <v>2.5000000000000001E-3</v>
-      </c>
+      <c r="L368" s="92"/>
+      <c r="M368" s="92"/>
       <c r="N368" s="109"/>
       <c r="O368" s="93"/>
       <c r="P368" s="93"/>
@@ -14793,12 +14891,12 @@
       <c r="X368" s="93"/>
       <c r="Y368" s="93"/>
     </row>
-    <row r="369" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="95" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="B369" s="92">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C369" s="92"/>
       <c r="D369" s="92"/>
@@ -14811,9 +14909,7 @@
       <c r="K369" s="92"/>
       <c r="L369" s="92"/>
       <c r="M369" s="92"/>
-      <c r="N369" s="109">
-        <v>1</v>
-      </c>
+      <c r="N369" s="109"/>
       <c r="O369" s="93"/>
       <c r="P369" s="93"/>
       <c r="R369" s="93"/>
@@ -14825,9 +14921,9 @@
       <c r="X369" s="93"/>
       <c r="Y369" s="93"/>
     </row>
-    <row r="370" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B370" s="92"/>
       <c r="C370" s="92"/>
@@ -14840,10 +14936,10 @@
       <c r="J370" s="92"/>
       <c r="K370" s="92"/>
       <c r="L370" s="92">
-        <v>0.15</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M370" s="92">
-        <v>0.32</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N370" s="109"/>
       <c r="O370" s="93"/>
@@ -14857,22 +14953,16 @@
       <c r="X370" s="93"/>
       <c r="Y370" s="93"/>
     </row>
-    <row r="371" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="95" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="B371" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="C371" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="D371" s="92">
-        <v>0.01</v>
-      </c>
-      <c r="E371" s="92">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C371" s="92"/>
+      <c r="D371" s="92"/>
+      <c r="E371" s="92"/>
       <c r="F371" s="92"/>
       <c r="G371" s="92"/>
       <c r="H371" s="92"/>
@@ -14881,7 +14971,9 @@
       <c r="K371" s="92"/>
       <c r="L371" s="92"/>
       <c r="M371" s="92"/>
-      <c r="N371" s="109"/>
+      <c r="N371" s="109">
+        <v>1</v>
+      </c>
       <c r="O371" s="93"/>
       <c r="P371" s="93"/>
       <c r="R371" s="93"/>
@@ -14893,26 +14985,26 @@
       <c r="X371" s="93"/>
       <c r="Y371" s="93"/>
     </row>
-    <row r="372" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="95" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B372" s="92"/>
       <c r="C372" s="92"/>
       <c r="D372" s="92"/>
       <c r="E372" s="92"/>
-      <c r="F372" s="92">
-        <v>0.02</v>
-      </c>
-      <c r="G372" s="92">
-        <v>0.02</v>
-      </c>
+      <c r="F372" s="92"/>
+      <c r="G372" s="92"/>
       <c r="H372" s="92"/>
       <c r="I372" s="92"/>
       <c r="J372" s="92"/>
       <c r="K372" s="92"/>
-      <c r="L372" s="92"/>
-      <c r="M372" s="92"/>
+      <c r="L372" s="92">
+        <v>0.15</v>
+      </c>
+      <c r="M372" s="92">
+        <v>0.32</v>
+      </c>
       <c r="N372" s="109"/>
       <c r="O372" s="93"/>
       <c r="P372" s="93"/>
@@ -14925,19 +15017,25 @@
       <c r="X372" s="93"/>
       <c r="Y372" s="93"/>
     </row>
-    <row r="373" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="95" t="s">
-        <v>343</v>
-      </c>
-      <c r="B373" s="92"/>
-      <c r="C373" s="92"/>
-      <c r="D373" s="92"/>
-      <c r="E373" s="92"/>
+        <v>320</v>
+      </c>
+      <c r="B373" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="C373" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="D373" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="E373" s="92">
+        <v>0.01</v>
+      </c>
       <c r="F373" s="92"/>
       <c r="G373" s="92"/>
-      <c r="H373" s="92">
-        <v>0.02</v>
-      </c>
+      <c r="H373" s="92"/>
       <c r="I373" s="92"/>
       <c r="J373" s="92"/>
       <c r="K373" s="92"/>
@@ -14955,26 +15053,26 @@
       <c r="X373" s="93"/>
       <c r="Y373" s="93"/>
     </row>
-    <row r="374" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="95" t="s">
-        <v>303</v>
+        <v>513</v>
       </c>
       <c r="B374" s="92"/>
       <c r="C374" s="92"/>
       <c r="D374" s="92"/>
       <c r="E374" s="92"/>
-      <c r="F374" s="92"/>
-      <c r="G374" s="92"/>
+      <c r="F374" s="92">
+        <v>0.02</v>
+      </c>
+      <c r="G374" s="92">
+        <v>0.02</v>
+      </c>
       <c r="H374" s="92"/>
       <c r="I374" s="92"/>
       <c r="J374" s="92"/>
       <c r="K374" s="92"/>
-      <c r="L374" s="92">
-        <v>0</v>
-      </c>
-      <c r="M374" s="92">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="L374" s="92"/>
+      <c r="M374" s="92"/>
       <c r="N374" s="109"/>
       <c r="O374" s="93"/>
       <c r="P374" s="93"/>
@@ -14987,9 +15085,9 @@
       <c r="X374" s="93"/>
       <c r="Y374" s="93"/>
     </row>
-    <row r="375" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="95" t="s">
-        <v>514</v>
+        <v>343</v>
       </c>
       <c r="B375" s="92"/>
       <c r="C375" s="92"/>
@@ -14997,7 +15095,9 @@
       <c r="E375" s="92"/>
       <c r="F375" s="92"/>
       <c r="G375" s="92"/>
-      <c r="H375" s="92"/>
+      <c r="H375" s="92">
+        <v>0.02</v>
+      </c>
       <c r="I375" s="92"/>
       <c r="J375" s="92"/>
       <c r="K375" s="92"/>
@@ -15015,9 +15115,9 @@
       <c r="X375" s="93"/>
       <c r="Y375" s="93"/>
     </row>
-    <row r="376" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="95" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="B376" s="92"/>
       <c r="C376" s="92"/>
@@ -15030,9 +15130,11 @@
       <c r="J376" s="92"/>
       <c r="K376" s="92"/>
       <c r="L376" s="92">
-        <v>2.7E-2</v>
-      </c>
-      <c r="M376" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="M376" s="92">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="N376" s="109"/>
       <c r="O376" s="93"/>
       <c r="P376" s="93"/>
@@ -15045,25 +15147,19 @@
       <c r="X376" s="93"/>
       <c r="Y376" s="93"/>
     </row>
-    <row r="377" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="95" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B377" s="92"/>
       <c r="C377" s="92"/>
       <c r="D377" s="92"/>
       <c r="E377" s="92"/>
-      <c r="F377" s="92">
-        <v>0.08</v>
-      </c>
-      <c r="G377" s="92">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="F377" s="92"/>
+      <c r="G377" s="92"/>
       <c r="H377" s="92"/>
       <c r="I377" s="92"/>
-      <c r="J377" s="92">
-        <v>0.24</v>
-      </c>
+      <c r="J377" s="92"/>
       <c r="K377" s="92"/>
       <c r="L377" s="92"/>
       <c r="M377" s="92"/>
@@ -15079,27 +15175,23 @@
       <c r="X377" s="93"/>
       <c r="Y377" s="93"/>
     </row>
-    <row r="378" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="95" t="s">
-        <v>516</v>
+        <v>344</v>
       </c>
       <c r="B378" s="92"/>
       <c r="C378" s="92"/>
       <c r="D378" s="92"/>
       <c r="E378" s="92"/>
-      <c r="F378" s="92">
-        <v>0.2</v>
-      </c>
-      <c r="G378" s="92">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F378" s="92"/>
+      <c r="G378" s="92"/>
       <c r="H378" s="92"/>
       <c r="I378" s="92"/>
-      <c r="J378" s="94">
-        <v>0</v>
-      </c>
+      <c r="J378" s="92"/>
       <c r="K378" s="92"/>
-      <c r="L378" s="92"/>
+      <c r="L378" s="92">
+        <v>2.7E-2</v>
+      </c>
       <c r="M378" s="92"/>
       <c r="N378" s="109"/>
       <c r="O378" s="93"/>
@@ -15113,29 +15205,29 @@
       <c r="X378" s="93"/>
       <c r="Y378" s="93"/>
     </row>
-    <row r="379" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="110" t="s">
-        <v>304</v>
-      </c>
-      <c r="B379" s="107"/>
-      <c r="C379" s="107">
-        <v>0</v>
-      </c>
-      <c r="D379" s="107">
-        <v>0</v>
-      </c>
-      <c r="E379" s="107">
-        <v>0</v>
-      </c>
-      <c r="F379" s="107"/>
-      <c r="G379" s="107"/>
-      <c r="H379" s="107"/>
-      <c r="I379" s="107"/>
-      <c r="J379" s="107"/>
-      <c r="K379" s="107"/>
-      <c r="L379" s="107"/>
-      <c r="M379" s="107"/>
-      <c r="N379" s="108"/>
+    <row r="379" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="95" t="s">
+        <v>515</v>
+      </c>
+      <c r="B379" s="92"/>
+      <c r="C379" s="92"/>
+      <c r="D379" s="92"/>
+      <c r="E379" s="92"/>
+      <c r="F379" s="92">
+        <v>0.08</v>
+      </c>
+      <c r="G379" s="92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H379" s="92"/>
+      <c r="I379" s="92"/>
+      <c r="J379" s="92">
+        <v>0.24</v>
+      </c>
+      <c r="K379" s="92"/>
+      <c r="L379" s="92"/>
+      <c r="M379" s="92"/>
+      <c r="N379" s="109"/>
       <c r="O379" s="93"/>
       <c r="P379" s="93"/>
       <c r="R379" s="93"/>
@@ -15147,9 +15239,78 @@
       <c r="X379" s="93"/>
       <c r="Y379" s="93"/>
     </row>
+    <row r="380" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="B380" s="92"/>
+      <c r="C380" s="92"/>
+      <c r="D380" s="92"/>
+      <c r="E380" s="92"/>
+      <c r="F380" s="92">
+        <v>0.2</v>
+      </c>
+      <c r="G380" s="92">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H380" s="92"/>
+      <c r="I380" s="92"/>
+      <c r="J380" s="94">
+        <v>0</v>
+      </c>
+      <c r="K380" s="92"/>
+      <c r="L380" s="92"/>
+      <c r="M380" s="92"/>
+      <c r="N380" s="109"/>
+      <c r="O380" s="93"/>
+      <c r="P380" s="93"/>
+      <c r="R380" s="93"/>
+      <c r="S380" s="93"/>
+      <c r="T380" s="93"/>
+      <c r="U380" s="93"/>
+      <c r="V380" s="93"/>
+      <c r="W380" s="93"/>
+      <c r="X380" s="93"/>
+      <c r="Y380" s="93"/>
+    </row>
+    <row r="381" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="110" t="s">
+        <v>304</v>
+      </c>
+      <c r="B381" s="107"/>
+      <c r="C381" s="107">
+        <v>0</v>
+      </c>
+      <c r="D381" s="107">
+        <v>0</v>
+      </c>
+      <c r="E381" s="107">
+        <v>0</v>
+      </c>
+      <c r="F381" s="107"/>
+      <c r="G381" s="107"/>
+      <c r="H381" s="107"/>
+      <c r="I381" s="107"/>
+      <c r="J381" s="107"/>
+      <c r="K381" s="107"/>
+      <c r="L381" s="107"/>
+      <c r="M381" s="107"/>
+      <c r="N381" s="108"/>
+      <c r="O381" s="93"/>
+      <c r="P381" s="93"/>
+      <c r="R381" s="93"/>
+      <c r="S381" s="93"/>
+      <c r="T381" s="93"/>
+      <c r="U381" s="93"/>
+      <c r="V381" s="93"/>
+      <c r="W381" s="93"/>
+      <c r="X381" s="93"/>
+      <c r="Y381" s="93"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15164,13 +15325,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="111"/>
       <c r="B1" s="111"/>
       <c r="C1" s="77" t="s">
@@ -15222,7 +15383,7 @@
       </c>
       <c r="Z1" s="80"/>
     </row>
-    <row r="2" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="111"/>
       <c r="B2" s="111"/>
       <c r="C2" s="81" t="s">
@@ -15298,7 +15459,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>519</v>
       </c>
@@ -15354,7 +15515,7 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="61"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="75" t="s">
         <v>59</v>
@@ -15432,7 +15593,7 @@
         <v>24.609000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
       <c r="B5" s="75" t="s">
         <v>521</v>
@@ -15481,7 +15642,7 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="61"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
       <c r="B6" s="75" t="s">
         <v>522</v>
@@ -15535,7 +15696,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
       <c r="B7" s="75" t="s">
         <v>523</v>
@@ -15597,7 +15758,7 @@
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
         <v>524</v>
       </c>
@@ -15649,7 +15810,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
       <c r="B9" s="75" t="s">
         <v>526</v>
@@ -15715,7 +15876,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
       <c r="B10" s="75" t="s">
         <v>527</v>
@@ -15773,7 +15934,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
       <c r="B11" s="75" t="s">
         <v>336</v>
@@ -15807,7 +15968,7 @@
       <c r="Y11" s="30"/>
       <c r="Z11" s="61"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
       <c r="B12" s="75" t="s">
         <v>528</v>
@@ -15881,7 +16042,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
       <c r="B13" s="75" t="s">
         <v>529</v>
@@ -15939,7 +16100,7 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="61"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
       <c r="B14" s="87" t="s">
         <v>530</v>
